--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0801BB0-C02E-43C9-A076-F67DC555A521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69870BA5-11E0-467A-9FFD-AFDC8F104C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>法力+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涌泉剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女妖吟唱：战斗中回复法力值的同时也为队友回复法力值，数额为自身回复的一半，向下取整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1攻击属性=5暴击=4暴伤=5血=x蓝=2回蓝=1回合护盾=1速度=4元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冰盾：受到水元素伤害时，获得2点魔法护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前期通用，中期需要找核心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,11 +311,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前期核心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奉献：仅能获得一半的护盾，但你的队友会随机获得等额的物理或魔法护盾（向下取整）</t>
+    <t>前期基础技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧之戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女妖吟唱：战斗中回复法力值的同时也为队友回复法力值，数额为自身回复的35%，向下取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1智力加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁垒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全队获取护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧：获得护盾时，额外获得2点同类护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身回复法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全队增伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员伤害提升25%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力支援</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心-全队护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复队友法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1法力加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5法力回复加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗阵型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为自身回复7点法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷施法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：迅捷施法不消耗行动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最前方的队员在回合结束时获得2物理护盾，最后方的队员在回合结束时回复3法力值，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术屏障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小队所有成员获得2物理护盾和2元素护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰盾：受到元素伤害后，获得2点元素护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉献：自身通过技能获得护盾时，仅能获得一半的护盾，同时为你的队友提供随机的等额物理或元素护盾（向下取整）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队员获得6点元素护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队员获得6点物理护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为一名队友（自己除外）回复8点法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离：3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离：2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高法力消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成6点物理伤害，如果当前法力值不小于25，则额外消耗6法力值，使这次技能施放附带迅捷施法效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心-法力转护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔涌之盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有法力值，每消耗5点法力值，自身获得2物理护盾与2魔法护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +591,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -428,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -467,6 +679,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -749,21 +971,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40" style="1" customWidth="1"/>
+    <col min="9" max="9" width="53.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="44.375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -785,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -797,10 +1019,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,8 +1034,8 @@
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
+      <c r="B3" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,7 +1066,7 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
@@ -873,17 +1095,17 @@
         <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -892,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -901,38 +1123,38 @@
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -941,217 +1163,368 @@
         <v>16</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>41</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="13"/>
+      <c r="I21" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1171,8 +1544,33 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="2"/>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69870BA5-11E0-467A-9FFD-AFDC8F104C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9873E0-8DE1-4C2C-8B6C-EFA4FA483C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="188">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>战士职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业特性：物理输出较高、近战、单体伤害多，生存能力较强，1号或2号位置角色；职业主要流派：输出-暴击、流血、连击，生存/辅助-法力+护盾、元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关键装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铠甲：战斗开始时，获得4点物理护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女妖吟唱：战斗中回复法力值的同时也为队友回复法力值，数额为自身回复的35%，向下取整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6MP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最前方的队员在回合结束时获得2物理护盾，最后方的队员在回合结束时回复3法力值，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法术屏障</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奉献：自身通过技能获得护盾时，仅能获得一半的护盾，同时为你的队友提供随机的等额物理或元素护盾（向下取整）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使一名队员获得6点元素护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,7 +503,279 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗所有法力值，每消耗5点法力值，自身获得2物理护盾与2魔法护盾</t>
+    <t>中后期装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心-团队回法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮：回合结束时，如果你的法力值低于30%，则下个回合当你回复法力值时，额外回复50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师守护戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女妖吟唱：战斗中通过技能、遗物或道具回复法力值的同时也为队友回复法力值，数额为自身回复的35%，向下取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师的守护：通过技能获得护盾时，为一名随机队友提供相同类型、相同数值的护盾，每回合最多触发1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力重铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命+25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力+15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力散射：通过技能、遗物、道具回复法力值时，随机对一名敌人造成等同于回复法力值数额35%的伤害，向下取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江河：获得等同于15%法力值数额的力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃熔炉核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力+30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活熔炉：穿戴此装备在战斗中累计消耗500点法力值后，这件装备将转化为熔炉核心（预计10+场战斗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心-法力转数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心：智力+5、力量+5、生命+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉：穿戴此装备时，每消耗100法力值，此装备随机获得+2力量/+2智力/+5生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚能重剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚能：技能的法力消耗翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力+25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中后期技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉献：施放技能并获得1点以上护盾时，仅能获得一半的护盾，同时为你的队友提供随机的等额物理或元素护盾（向下取整）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心-提供法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量之池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一名队友使用法力值施放技能后，消耗法力值为队友回复等量法力值，数额为技能消耗的一半，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成10点物理伤害，获得2物理护盾和3元素护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理护盾-0.2力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最前方的队员在回合结束时获得2元素护盾，最后方的队员在回合结束时回复3法力值，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有法力值，每消耗5点法力值，自身获得2物理护盾与2元素护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害-1.3力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素护盾-0.2智力加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害+护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场战斗中所有队员获得速度+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾行号角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业特性：物理输出较高、近战、单体伤害多，生存能力较强，1号或2号位置角色；职业主要流派：输出-暴击、流血、连击，生存/辅助-法力+护盾、元素+控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风天清斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5速度加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复30%法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风法力酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复15%法力，造成的伤害降低10%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员获得10%最大法力值的力量和智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法炼熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点物理伤害，本场战斗中每重复使用1次本技能，法力消耗提升50%，伤害提升25%（向下取整）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场支援手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当一名队员为其他队员提供护盾、生命、法力时，使提供的数值提升25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +783,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +859,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -640,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -689,12 +949,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9C964A"/>
+      <color rgb="FFBAA62C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -969,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -983,10 +1252,10 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="44.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59" style="1" customWidth="1"/>
+    <col min="10" max="10" width="52.125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1007,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1019,514 +1288,516 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>67</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="H9" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="I10" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="H13" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="I16" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="G17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="I17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="I19" s="13" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="13" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
@@ -1537,47 +1808,368 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23" s="12"/>
+      <c r="B23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="2"/>
+      <c r="B26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="G28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9873E0-8DE1-4C2C-8B6C-EFA4FA483C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE50FEB-E2A6-4A38-A0EE-D084C479AA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="226">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,6 +776,158 @@
   </si>
   <si>
     <t>当一名队员为其他队员提供护盾、生命、法力时，使提供的数值提升25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素+控制流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体控制和群体弱化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助队友，提供buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体控制和弱化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体超强buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排AOE伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体弱化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队友buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有小aoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般的buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分敌人弱化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要配合其它元素队友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但也有通用的buff和控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧：攻击附带2点火属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚：一名敌人受到来自于你的控制效果时，其受到的伤害增加25%，持续至控制结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕抗性+25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复苏头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复苏：战斗结束后，回复2点生命值，若生命值已达上限，永久获得1最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流：对战开始时，所有队员获得水属性+5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,7 +1020,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +1039,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -900,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -952,6 +1110,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1238,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2207,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>160</v>
       </c>
@@ -2070,7 +2236,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>171</v>
       </c>
@@ -2093,7 +2259,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>173</v>
       </c>
@@ -2119,12 +2285,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>177</v>
       </c>
@@ -2135,7 +2301,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>180</v>
       </c>
@@ -2146,12 +2312,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>184</v>
       </c>
@@ -2159,12 +2325,271 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE50FEB-E2A6-4A38-A0EE-D084C479AA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D48170-80E0-4AF7-AA5B-8DA32E35884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="319">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -928,6 +928,376 @@
   </si>
   <si>
     <t>水流：对战开始时，所有队员获得水属性+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>生命+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天：回合结束时，随机使一名队友获得力量+1或智力+1，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队友（自己除外）伤害提升30%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛林伏击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率-0.3木属性加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害-0.3木属性加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队员增加25%暴击率和20%暴击伤害，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离：3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围：2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑柄打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害-0.5力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕-1力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：这里的暴击率和暴击伤害加成都是加百分比里面的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：这里的眩晕加成是加百分比里面的数字，力量为10就+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风吟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻号角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员速度+2，持续至战斗结束，解除一名随机队友的眩晕、束缚或冻结状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心-群体弱化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离2范围3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成2点物理伤害，50%造成眩晕1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害-0.15力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮湿效果-1水属性加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队员增加10水元素、10木元素、10火元素和10雷元素，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各元素-0.2对应元素属性加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水灵甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心-群体控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性+18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对3名敌人造成2点水元素伤害，75%施加潮湿效果（每个敌人单独判定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水灵：施加潮湿效果时，改为以50%的基础概率施加冻结效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树之芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命+33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性+16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树灵：造成物理伤害时，转为造成等量木元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风念珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血抗性+33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒抗性+33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木之祝福：任意敌人受到木元素伤害时，以50%的基础概率对其施加缠绕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汐戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汐：在战斗中，每造成一次水元素伤害，获得水属性+2，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素精通：对敌人施加潮湿或冻结效果后，对其造成6点雷元素伤害。对敌人施加缠绕或束缚效果后，对其造成6点火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水、木属性+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火、雷属性+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光耀：受到近战伤害时，35%的概率眩晕造成伤害的敌人；受到远程伤害时，35%的概率对造成伤害的敌人造成等量雷元素伤害</t>
+  </si>
+  <si>
+    <t>光耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣雷戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣雷：对潮湿或冻结的敌人造成雷元素伤害时，有25%概率使伤害翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性+13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心-单体buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队友（自己除外）造成的伤害翻倍，持续1回合，跳过自己的下一回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体减益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素诅咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别以60%的基础概率对一名敌人施加麻痹、潮湿、缠绕、灼烧（3层）效果，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术斩击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离：4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5智力加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1名敌人造成5点随机元素伤害，施放两次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使2名敌人降低30%眩晕和脆弱抗性，受到的伤害增加20%，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引爆！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高前排伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0智力加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1名敌人进行随机3种元素标记，持续2回合。对其造成元素伤害时可激活对应标记。所有标记均被激活时，引爆该敌人，对这名敌人和1名随机相邻敌人造成44点火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火符咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷符咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成25点火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成25点雷元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素药水瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素属性+25，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师的坩埚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗中使用药剂时，对所有敌人造成5随机元素伤害（先随机确定伤害类型，然后造成伤害）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素瓶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被施加潮湿或缠绕的敌人受到额外的对应元素伤害由25%上升至50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不灭火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成火元素伤害时，总是以100%的概率施加1层持续99回合的灼烧效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +1305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,6 +1389,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1058,7 +1436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1118,6 +1496,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1404,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2300,6 +2681,9 @@
       <c r="G37" s="18" t="s">
         <v>179</v>
       </c>
+      <c r="H37" s="6" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
@@ -2311,6 +2695,9 @@
       <c r="G38" s="18" t="s">
         <v>179</v>
       </c>
+      <c r="H38" s="6" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
@@ -2536,60 +2923,615 @@
       <c r="A51" s="21" t="s">
         <v>193</v>
       </c>
+      <c r="B51" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="52" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>48</v>
       </c>
+      <c r="B52" s="16" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>194</v>
       </c>
+      <c r="B53" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>195</v>
       </c>
+      <c r="B54" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="55" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>196</v>
       </c>
+      <c r="B55" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="56" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>197</v>
       </c>
+      <c r="B56" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>49</v>
       </c>
+      <c r="B57" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="13" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>194</v>
       </c>
+      <c r="B58" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>199</v>
       </c>
+      <c r="B59" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>198</v>
       </c>
+      <c r="B60" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>200</v>
       </c>
+      <c r="B61" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>201</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="J66" s="12"/>
+    </row>
+    <row r="67" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J70" s="13"/>
+    </row>
+    <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D48170-80E0-4AF7-AA5B-8DA32E35884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCD4C24-646C-486F-9E6F-32E341D3445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="344">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1298,6 +1298,106 @@
   </si>
   <si>
     <t>造成火元素伤害时，总是以100%的概率施加1层持续99回合的灼烧效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击、连击、流血流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这三个流派可互相影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出高，生存能力一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为dot伤害和直伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀刀烈火，秒杀前排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害不俗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补刀强劲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存较差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用的输出流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定，不需要配合也能玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒火长剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率+12%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺针：暴击时额外造成7点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒火护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青金石吊坠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青金石：暴击时，以20%的基础概率造成眩晕1回合的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁刺靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁刺：受到伤害时，增加5%暴击率，持续至战斗结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,7 +1405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,8 +1497,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,6 +1531,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1436,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1497,6 +1611,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1785,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3526,12 +3651,215 @@
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>317</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="29" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCD4C24-646C-486F-9E6F-32E341D3445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DF0E1E-26A2-4BDD-9FF7-4E510434AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="359">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1369,10 +1369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刺针：暴击时额外造成7点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怒火护符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1389,15 +1385,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青金石：暴击时，以20%的基础概率造成眩晕1回合的效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铁刺靴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铁刺：受到伤害时，增加5%暴击率，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺针：暴击时额外造成7点物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青金石：暴击时，以30%的基础概率造成眩晕1回合的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重劈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯折斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成2点伤害，这次攻击有额外25%的暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成2点伤害，如果暴击，对站位最后的敌人再次释放本技能，但不会再次触发暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血滴项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜血头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜血渴求：当一个敌人死于流血时，为你回复等同于其流血层数的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒刺巨剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒刺：攻击有40%概率造成1层流血效果，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血滴：攻击对流血的敌人造成25%额外伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1912,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3697,7 +3757,7 @@
         <v>320</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
@@ -3710,7 +3770,7 @@
         <v>32</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>331</v>
@@ -3722,7 +3782,7 @@
         <v>321</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="30" t="s">
@@ -3738,10 +3798,10 @@
         <v>331</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3793,7 +3853,7 @@
         <v>335</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3801,7 +3861,7 @@
         <v>323</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D90" s="30" t="s">
         <v>20</v>
@@ -3819,23 +3879,82 @@
         <v>333</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>48</v>
       </c>
+      <c r="B91" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="13" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>324</v>
       </c>
+      <c r="B92" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="13" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>325</v>
       </c>
+      <c r="B93" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="I93" s="13" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
@@ -3846,18 +3965,69 @@
       <c r="A95" s="26" t="s">
         <v>326</v>
       </c>
+      <c r="B95" s="16" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>329</v>
       </c>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DF0E1E-26A2-4BDD-9FF7-4E510434AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF978F0-DD5C-464B-94C7-F88A10E3F218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="399">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1409,14 +1409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2力量加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1453,11 +1445,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>倒刺：攻击有40%概率造成1层流血效果，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血滴：攻击对流血的敌人造成25%额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击、连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月影剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日光剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月影：普通攻击将进行两次攻击，攻击伤害减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日光：攻击额外造成3点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客的夜行衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有暴击伤害都将转化为穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风法师祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有伤害都允许暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成3点伤害，获得4点物理护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20%暴击率，自身攻击将附带额外2点物理伤害，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离4范围4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点物理伤害，以100%的基础概率施加1层持续3回合的流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒刺：攻击以50%的基础概率造成1层持续2回合的流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成3点物理伤害，以100%的基础概率施加3层持续3回合的流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩瓶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当一次攻击暴击时，其附带的减益或控制效果触发的基础概率提升300%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人受到的流血伤害增加25%，伤害类型由穿刺伤害改为火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放到史诗去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血痂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除所有敌人的流血层数，每清除1层，获得3点纯净护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成2点伤害，重复3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点物理伤害。使用此技能击杀一名敌人后，以随机敌人为目标，再次施放本技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1610,7 +1770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1684,6 +1844,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1970,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3887,7 +4048,7 @@
         <v>48</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="30" t="s">
@@ -3904,7 +4065,7 @@
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3912,7 +4073,10 @@
         <v>324</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="D92" s="30" t="s">
         <v>20</v>
@@ -3924,11 +4088,11 @@
         <v>59</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3936,7 +4100,7 @@
         <v>325</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="30" t="s">
@@ -3949,87 +4113,338 @@
         <v>29</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="13" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>49</v>
       </c>
+      <c r="B94" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="B95" s="16" t="s">
-        <v>69</v>
+      <c r="B95" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>350</v>
-      </c>
     </row>
     <row r="97" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>351</v>
+      <c r="B97" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>329</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF978F0-DD5C-464B-94C7-F88A10E3F218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCACA2-2BE3-4A26-8201-3968BFD4248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="424">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,10 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理护盾-0.2力量加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最前方的队员在回合结束时获得2元素护盾，最后方的队员在回合结束时回复3法力值，持续3回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -687,10 +683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害-1.3力量加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>元素护盾-0.2智力加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -966,14 +958,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴击率-0.3木属性加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害-0.3木属性加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使一名队员增加25%暴击率和20%暴击伤害，持续2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -994,14 +978,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害-0.5力量加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕-1力量加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注：这里的暴击率和暴击伤害加成都是加百分比里面的数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1042,22 +1018,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害-0.15力量加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潮湿效果-1水属性加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使一名队员增加10水元素、10木元素、10火元素和10雷元素，持续3回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各元素-0.2对应元素属性加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水灵甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1074,10 +1038,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对3名敌人造成2点水元素伤害，75%施加潮湿效果（每个敌人单独判定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水灵：施加潮湿效果时，改为以50%的基础概率施加冻结效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1429,10 +1389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鲜血头盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鲜血渴求：当一个敌人死于流血时，为你回复等同于其流血层数的生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1577,10 +1533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>放到史诗去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血痂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1609,15 +1561,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.8力量加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>距离4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成5点物理伤害。使用此技能击杀一名敌人后，以随机敌人为目标，再次施放本技能</t>
+    <t>回溯飞声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员每次攻击时获得1点力量和1点智力，回合结束时，失去1点力量和1点智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌契约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电穿梭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害：1.3力量加成</t>
+  </si>
+  <si>
+    <t>物理护盾：0.2力量加成</t>
+  </si>
+  <si>
+    <t>暴击率：0.3木属性加成</t>
+  </si>
+  <si>
+    <t>暴击伤害：0.3木属性加成</t>
+  </si>
+  <si>
+    <t>伤害：0.5力量加成</t>
+  </si>
+  <si>
+    <t>眩晕：1力量加成</t>
+  </si>
+  <si>
+    <t>各元素：0.2对应元素属性加成</t>
+  </si>
+  <si>
+    <t>伤害：0.15力量加成</t>
+  </si>
+  <si>
+    <t>潮湿效果：1水属性加成</t>
+  </si>
+  <si>
+    <t>对3名敌人造成2点水元素伤害，以75%的基础概率施加潮湿效果（每个敌人单独判定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（8+1.0力量）点物理伤害。本局游戏中，每使用一次此技能，伤害提升5%，最高提升100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（5+1.4力量）点物理伤害。使用此技能击杀一名敌人后，以随机敌人为目标，再次施放本技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：可以多次重复哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机1名敌人造成（1+0.4力量）点物理伤害，重复4次。在一次战斗中，每使用此技能击杀1名敌人，重复次数就增加1次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风精灵剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴血头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血暴：攻击对流血的敌人额外造成等同于流血层数的穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命+30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛苦铠甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛苦：回合开始时，受到2点穿刺伤害，获得8%暴击率和8%暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风剑术：普通攻击会消耗7MP，增加迅捷施法效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐忍头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：普通攻击不是技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐忍：如果装备者在一个回合没有使用任何技能，则在下一个回合获得50%暴击几率，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害+13%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣雷戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕抗性-25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣雷：攻击暴击时，以75%的基础概率眩晕穿戴者，使暴击伤害增加100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2131,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2280,7 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2622,7 +2713,7 @@
         <v>98</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>99</v>
@@ -2680,7 +2771,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J21" s="13"/>
     </row>
@@ -2939,7 +3030,7 @@
         <v>160</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>26</v>
@@ -2951,13 +3042,13 @@
         <v>88</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>162</v>
+        <v>390</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>161</v>
@@ -2965,7 +3056,7 @@
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>113</v>
@@ -2977,18 +3068,18 @@
         <v>73</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>98</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>113</v>
@@ -3000,75 +3091,75 @@
         <v>80</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>179</v>
-      </c>
       <c r="H37" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>53</v>
@@ -3079,7 +3170,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
@@ -3092,20 +3183,20 @@
         <v>32</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
@@ -3118,20 +3209,20 @@
         <v>32</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -3147,10 +3238,10 @@
         <v>60</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J46" s="2"/>
     </row>
@@ -3159,7 +3250,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>20</v>
@@ -3174,10 +3265,10 @@
         <v>30</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -3186,16 +3277,16 @@
         <v>43</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>32</v>
@@ -3204,47 +3295,47 @@
         <v>70</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G49" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="8" t="s">
@@ -3257,20 +3348,20 @@
         <v>32</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J50" s="13"/>
     </row>
     <row r="51" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>20</v>
@@ -3282,13 +3373,13 @@
         <v>32</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,13 +3392,13 @@
     </row>
     <row r="53" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>13</v>
@@ -3316,23 +3407,23 @@
         <v>73</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>13</v>
@@ -3344,27 +3435,27 @@
         <v>92</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>235</v>
+        <v>391</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>236</v>
+        <v>392</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>13</v>
@@ -3376,27 +3467,27 @@
         <v>92</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>242</v>
+        <v>393</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>243</v>
+        <v>394</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>20</v>
@@ -3408,13 +3499,13 @@
         <v>159</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3422,10 +3513,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>20</v>
@@ -3437,22 +3528,22 @@
         <v>92</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>257</v>
+        <v>395</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="13" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>20</v>
@@ -3464,18 +3555,18 @@
         <v>159</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>20</v>
@@ -3487,21 +3578,21 @@
         <v>88</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>254</v>
+        <v>396</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>255</v>
+        <v>397</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>262</v>
+        <v>398</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>119</v>
@@ -3517,13 +3608,13 @@
     </row>
     <row r="61" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>26</v>
@@ -3535,21 +3626,21 @@
         <v>35</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>26</v>
@@ -3558,24 +3649,24 @@
         <v>14</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>26</v>
@@ -3587,21 +3678,21 @@
         <v>32</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="9" t="s">
@@ -3614,19 +3705,19 @@
         <v>32</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>135</v>
@@ -3638,18 +3729,18 @@
         <v>32</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="20" t="s">
@@ -3666,26 +3757,26 @@
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="13" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="J66" s="12"/>
     </row>
     <row r="67" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="20" t="s">
         <v>135</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>21</v>
@@ -3694,7 +3785,7 @@
         <v>132</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3704,10 +3795,10 @@
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>26</v>
@@ -3723,15 +3814,15 @@
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="13" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>26</v>
@@ -3743,17 +3834,17 @@
         <v>88</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="J70" s="13"/>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="9" t="s">
@@ -3763,24 +3854,24 @@
         <v>73</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>135</v>
@@ -3789,103 +3880,103 @@
         <v>80</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>53</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3893,7 +3984,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6" t="s">
@@ -3909,16 +4000,16 @@
         <v>16</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
@@ -3931,19 +4022,19 @@
         <v>32</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="30" t="s">
@@ -3956,21 +4047,21 @@
         <v>32</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="30" t="s">
@@ -3986,7 +4077,7 @@
         <v>21</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I88" s="2"/>
     </row>
@@ -3995,7 +4086,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="30" t="s">
@@ -4011,18 +4102,18 @@
         <v>30</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D90" s="30" t="s">
         <v>20</v>
@@ -4037,10 +4128,10 @@
         <v>60</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4048,7 +4139,7 @@
         <v>48</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="30" t="s">
@@ -4061,63 +4152,62 @@
         <v>32</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="13" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>388</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C92" s="6"/>
       <c r="D92" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>353</v>
+        <v>29</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="13" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C93" s="6"/>
+        <v>348</v>
+      </c>
       <c r="D93" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H93" s="6"/>
+        <v>257</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="I93" s="13" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4125,7 +4215,7 @@
         <v>49</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>20</v>
@@ -4137,314 +4227,480 @@
         <v>15</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>20</v>
+        <v>408</v>
+      </c>
+      <c r="C95" s="31"/>
+      <c r="D95" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>363</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H95" s="6"/>
       <c r="I95" s="13" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C98" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="J99" s="16"/>
+    </row>
+    <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D122" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G122" s="7"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="J123" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G125" s="7"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="I100" s="13" t="s">
+      <c r="C129" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13" t="s">
+      <c r="C130" s="12" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="6" t="s">
+    <row r="131" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="6" t="s">
+    </row>
+    <row r="132" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCACA2-2BE3-4A26-8201-3968BFD4248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76CFB96-E22B-447A-B0EB-8E6CF0F26C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="453">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1569,10 +1569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有队员每次攻击时获得1点力量和1点智力，回合结束时，失去1点力量和1点智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>混沌契约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1708,7 +1704,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸣雷：攻击暴击时，以75%的基础概率眩晕穿戴者，使暴击伤害增加100%</t>
+    <t>割裂动脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（2+0.2力量）穿刺伤害并使其流血层数翻倍、回合数刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刃斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（10+1.2力量）物理伤害并以100%基础概率使目标和自身获得3层2回合流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全力劈砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对2名敌人造成（12+1.2力量）物理伤害，如果没有暴击，则以100%的基础概率眩晕自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1名敌人造成（15+1.7力量）物理伤害，如果暴击且敌人受到伤害后生命值低于20%，斩杀敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1名敌人造成等同于本局对战中所有角色受到流血伤害总和（35+0.5力量）%的穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣雷：攻击暴击时，以75%的基础概率眩晕穿戴者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害+100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉宗师巨剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害+25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率+25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风幻影项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影：攻击后，再进行一次相同的攻击，这次攻击的基础伤害值始终为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风之风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所有队员每次攻击时获得1点力量和1点智力，回合结束时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>失去1点力量和1点智力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击后，对随机敌人造成6点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下个技能或普通攻击的伤害提升50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩秘药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血荆棘卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场对战中获得40%暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割裂所有敌人，以100%的基础概率造成5层持续99回合的流血效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1861,7 +1990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1936,6 +2065,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2222,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3042,10 +3180,10 @@
         <v>88</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>164</v>
@@ -3435,10 +3573,10 @@
         <v>92</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>233</v>
@@ -3467,10 +3605,10 @@
         <v>92</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>247</v>
@@ -3528,7 +3666,7 @@
         <v>92</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="13" t="s">
@@ -3578,13 +3716,13 @@
         <v>88</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="I59" s="13" t="s">
         <v>397</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>398</v>
       </c>
       <c r="J59" s="13" t="s">
         <v>246</v>
@@ -3942,32 +4080,32 @@
         <v>303</v>
       </c>
     </row>
+    <row r="77" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
     <row r="78" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
-        <v>180</v>
+      <c r="B78" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C81" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3976,7 +4114,7 @@
         <v>309</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4229,7 +4367,7 @@
       <c r="G94" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="34" t="s">
         <v>352</v>
       </c>
       <c r="I94" s="13" t="s">
@@ -4241,7 +4379,7 @@
         <v>316</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C95" s="31"/>
       <c r="D95" s="9" t="s">
@@ -4266,7 +4404,7 @@
         <v>317</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="9" t="s">
@@ -4283,7 +4421,7 @@
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4291,7 +4429,7 @@
         <v>318</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="9" t="s">
@@ -4304,13 +4442,13 @@
         <v>35</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4318,7 +4456,7 @@
         <v>319</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>26</v>
@@ -4330,21 +4468,21 @@
         <v>59</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>26</v>
@@ -4359,20 +4497,22 @@
         <v>137</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="J99" s="16"/>
+        <v>436</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="J99" s="33" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>14</v>
@@ -4381,326 +4521,539 @@
         <v>15</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="16" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>73</v>
+        <v>425</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>293</v>
+        <v>423</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>13</v>
+        <v>428</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>336</v>
+        <v>423</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>293</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>293</v>
+        <v>427</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>73</v>
+        <v>387</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H117" s="13" t="s">
-        <v>360</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G117" s="7"/>
+      <c r="H117" s="13"/>
       <c r="I117" s="13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>354</v>
+        <v>430</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>20</v>
+        <v>353</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>285</v>
+        <v>97</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D119" s="30" t="s">
-        <v>20</v>
+      <c r="D119" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>381</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H119" s="13"/>
       <c r="I119" s="13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="I120" s="13" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D121" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E121" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="I121" s="13" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D122" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G122" s="7"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="J123" s="16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E124" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D125" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G125" s="7"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
-        <v>355</v>
+        <v>448</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="G129" s="18"/>
+      <c r="H129" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
-        <v>373</v>
+        <v>450</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>386</v>
+        <v>451</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76CFB96-E22B-447A-B0EB-8E6CF0F26C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298722E-0784-4A80-ACED-05E8A96DA711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
+    <sheet name="法师" sheetId="2" r:id="rId2"/>
+    <sheet name="职业配合图" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="506">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,9 +87,6 @@
   <si>
     <t>剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
   </si>
   <si>
     <t>力量+2</t>
@@ -463,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2力量加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,10 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中后期装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,10 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饰品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>速度+2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法力回复+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熔炉核心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,10 +578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法力回复+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>废弃熔炉核心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,10 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>束缚：一名敌人受到来自于你的控制效果时，其受到的伤害增加25%，持续至控制结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -927,13 +902,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戒指</t>
-  </si>
-  <si>
-    <t>生命+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>晴天：回合结束时，随机使一名队友获得力量+1或智力+1，持续至战斗结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -966,10 +934,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>距离：3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>范围：2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1110,9 +1074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光耀：受到近战伤害时，35%的概率眩晕造成伤害的敌人；受到远程伤害时，35%的概率对造成伤害的敌人造成等量雷元素伤害</t>
-  </si>
-  <si>
     <t>光耀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1121,10 +1082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>圣雷：对潮湿或冻结的敌人造成雷元素伤害时，有25%概率使伤害翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雷属性+13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1369,10 +1326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.2力量加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1力量加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1393,10 +1346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>倒刺巨剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1509,10 +1458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>距离3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>造成3点物理伤害，以100%的基础概率施加3层持续3回合的流血效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1575,33 +1520,6 @@
   <si>
     <t>闪电穿梭</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害：1.3力量加成</t>
-  </si>
-  <si>
-    <t>物理护盾：0.2力量加成</t>
-  </si>
-  <si>
-    <t>暴击率：0.3木属性加成</t>
-  </si>
-  <si>
-    <t>暴击伤害：0.3木属性加成</t>
-  </si>
-  <si>
-    <t>伤害：0.5力量加成</t>
-  </si>
-  <si>
-    <t>眩晕：1力量加成</t>
-  </si>
-  <si>
-    <t>各元素：0.2对应元素属性加成</t>
-  </si>
-  <si>
-    <t>伤害：0.15力量加成</t>
-  </si>
-  <si>
-    <t>潮湿效果：1水属性加成</t>
   </si>
   <si>
     <t>对3名敌人造成2点水元素伤害，以75%的基础概率施加潮湿效果（每个敌人单独判定）</t>
@@ -1833,11 +1751,319 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本场对战中获得40%暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>割裂所有敌人，以100%的基础概率造成5层持续99回合的流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害：1.3力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理护盾：0.2力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率：0.3木属性加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害：0.3木属性加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害：0.5力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕：1力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各元素：0.2对应元素属性加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害：0.15力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮湿效果：1水属性加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光耀：受到近战伤害时，35%的概率眩晕造成伤害的敌人；受到远程伤害时，35%的概率对造成伤害的敌人造成等量雷元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成异常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体异常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高额AOE伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多目标异常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要控制流派核心装备/技能/遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有核心控制能力弱，只能输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场对战中获得35%暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（1力量）物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级魔法书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉重的魔法书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭：穿戴者在其回合开始时受到2点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯净守护：当穿戴者在自己的回合受到伤害后，获得2点纯净护盾和1智力，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1武器1自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无之影：穿戴者受到伤害时，将伤害储存在虚无中。回合开始时，承受这些伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力+18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯净守护面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈：穿戴者在自己回合受到的伤害减少35%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《元素学入门指导》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：这里的所有元素实际上要分别显示四种元素的加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮：穿戴者造成水属性伤害时，以（1*水属性）%的基础概率概率使敌人获得潮湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜：穿戴者对潮湿的敌人造成水属性伤害时，以（1*水属性）%的基础概率概率使敌人冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树根系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树缠绕：穿戴者造成木属性伤害时，以（1*木属性）%的基础概率概率使敌人获得缠绕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树之根：穿戴者对缠绕的敌人造成木属性伤害时，以（1*木属性）%的基础概率概率使敌人束缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结晶法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结晶：每当穿戴者使一名敌人冻结，获得14水属性，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《木元素亲和指南》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素属性+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素亲和：将要造成缠绕或束缚时，使其基础概率提升至原来的125%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结晶头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力控制项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣雷：对潮湿或冻结的敌人造成雷元素伤害时，有33%概率使伤害翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽绿护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热晶石项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热：每次成功施加灼烧效果时，使灼烧时长延长1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力控制：对敌人造成控制效果时，还会以100%基础概率施加脆弱效果，持续2回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒：对敌人造成生命值伤害后，以50%基础概率施加1层中毒，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避雷：受到的雷元素伤害降低30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆掌控者项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电：造成雷元素的生命值伤害时，以50%的基础概率对敌人施加麻痹效果，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆之威：造成雷元素伤害时，以100%基础概率施加2层灼烧效果，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业特性：以元素为核心，主要为3号位，承担大部分aoe输出，生存能力很弱：主要输出流派：自残、随机、控制，3流派都涉及元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性+9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1845,7 +2071,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1945,6 +2171,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1990,7 +2225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2074,6 +2309,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2095,6 +2338,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>111509</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40D114C-9021-AD26-15B7-F41D4FDE8337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12630150" cy="7531484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2360,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2398,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2410,15 +2702,15 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2426,7 +2718,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2444,23 +2736,23 @@
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -2470,13 +2762,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2486,26 +2778,26 @@
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -2514,2546 +2806,2567 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="I9" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="I10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>73</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>112</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>104</v>
+        <v>451</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="H14" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>103</v>
       </c>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="12"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>80</v>
+      <c r="E16" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>112</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="I18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>98</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>73</v>
+        <v>19</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" s="13"/>
+        <v>156</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>116</v>
+        <v>107</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>80</v>
+        <v>19</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="I21" s="13" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="13"/>
+      <c r="I22" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>127</v>
-      </c>
+      <c r="B23" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>121</v>
+        <v>24</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="I24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>128</v>
+        <v>16</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="D26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>131</v>
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>150</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C27" s="18"/>
       <c r="D27" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>153</v>
+        <v>34</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>151</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="20" t="s">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" s="12"/>
+        <v>146</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>147</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C29" s="18"/>
       <c r="D29" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="13" t="s">
+      <c r="D31" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>73</v>
+        <v>25</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>167</v>
+        <v>87</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
-        <v>174</v>
+      <c r="H36" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>302</v>
+      <c r="B37" s="16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>179</v>
+        <v>169</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
-        <v>180</v>
+      <c r="B39" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>181</v>
+      <c r="B40" s="16" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>53</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="G45" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>207</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="B48" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I48" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" s="18"/>
       <c r="D49" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="J50" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>224</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C51" s="18"/>
       <c r="D51" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>227</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="16" t="s">
+      <c r="A52" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="I52" s="13" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13" t="s">
-        <v>231</v>
+      <c r="A53" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>80</v>
+      <c r="E54" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>391</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="13"/>
       <c r="I54" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="J54" s="16" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>20</v>
+        <v>186</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>235</v>
+        <v>432</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>236</v>
+        <v>433</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>287</v>
+        <v>237</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>49</v>
+      <c r="A57" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H57" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="I57" s="13" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>192</v>
+      <c r="A58" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>159</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H58" s="7"/>
       <c r="I58" s="13" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>244</v>
+        <v>232</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>396</v>
+        <v>153</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
+        <v>191</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+    </row>
+    <row r="62" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I63" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C64" s="18"/>
+        <v>250</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>234</v>
+      </c>
       <c r="D64" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>251</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="J64" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="65" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>135</v>
+        <v>254</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="G65" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>270</v>
+        <v>241</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>268</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="J65" s="2"/>
     </row>
     <row r="66" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" s="18"/>
+        <v>257</v>
+      </c>
       <c r="D66" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H66" s="6"/>
+        <v>259</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="I66" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="J66" s="12"/>
+        <v>258</v>
+      </c>
     </row>
     <row r="67" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C67" s="6"/>
+        <v>261</v>
+      </c>
+      <c r="C67" s="18"/>
       <c r="D67" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>274</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="J67" s="12"/>
     </row>
     <row r="68" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="16" t="s">
-        <v>154</v>
+      <c r="B68" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13" t="s">
-        <v>277</v>
+      <c r="B69" s="16" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>279</v>
+        <v>266</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="J70" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="I73" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="16" t="s">
-        <v>174</v>
+      <c r="J73" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>302</v>
+      <c r="B74" s="16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="16" t="s">
-        <v>180</v>
+      <c r="B77" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>304</v>
+      <c r="B78" s="16" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>402</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="I85" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="I86" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C87" s="6"/>
-      <c r="D87" s="30" t="s">
-        <v>20</v>
+      <c r="D87" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>333</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="I88" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
-        <v>43</v>
+      <c r="A89" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="H89" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="H90" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D90" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" s="6" t="s">
+      <c r="I90" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="G91" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G91" s="6" t="s">
+      <c r="H91" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="H91" s="7"/>
-      <c r="I91" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H92" s="6"/>
+        <v>315</v>
+      </c>
+      <c r="H92" s="7"/>
       <c r="I92" s="13" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>348</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C93" s="6"/>
       <c r="D93" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="H93" s="6"/>
       <c r="I93" s="13" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
-        <v>49</v>
+      <c r="A94" s="26" t="s">
+        <v>303</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" s="34" t="s">
-        <v>352</v>
+        <v>247</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
-        <v>316</v>
+      <c r="A95" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="9" t="s">
-        <v>26</v>
+        <v>335</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H95" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="34" t="s">
+        <v>338</v>
+      </c>
       <c r="I95" s="13" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C96" s="6"/>
+        <v>383</v>
+      </c>
+      <c r="C96" s="31"/>
       <c r="D96" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H96" s="6"/>
+      <c r="I96" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F97" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="G98" s="7" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="J98" s="16" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="29" t="s">
+        <v>307</v>
+      </c>
       <c r="B99" s="6" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="I99" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="J99" s="33" t="s">
-        <v>435</v>
+        <v>394</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>408</v>
+        <v>31</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="I100" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="J100" s="33" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="10" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>439</v>
+        <v>385</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>441</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C102" s="6"/>
       <c r="D102" s="10" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>16</v>
+        <v>414</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="16" t="s">
-        <v>403</v>
+      <c r="B103" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>338</v>
+      <c r="B104" s="16" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="17" t="s">
-        <v>80</v>
+      <c r="E105" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>359</v>
+        <v>323</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="6" t="s">
-        <v>73</v>
+      <c r="E106" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>360</v>
+        <v>281</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C107" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D107" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>80</v>
+      <c r="D107" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H107" s="13"/>
+        <v>347</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>346</v>
+      </c>
       <c r="I107" s="13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>381</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="H108" s="13"/>
       <c r="I108" s="13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="I109" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E109" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="I109" s="13" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>346</v>
+      </c>
       <c r="I111" s="13" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>26</v>
+        <v>350</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>384</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F115" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="J112" s="16" t="s">
+      <c r="G115" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="I115" s="13" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E114" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>427</v>
+        <v>346</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D117" s="20" t="s">
-        <v>135</v>
+        <v>404</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="13"/>
+        <v>399</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>403</v>
+      </c>
       <c r="I117" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>431</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G118" s="7"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="H119" s="13"/>
       <c r="I119" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C122" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="6" t="s">
-        <v>375</v>
-      </c>
       <c r="C124" s="12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="G128" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>303</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="G129" s="18"/>
+        <v>423</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="H129" s="6" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="G130" s="18" t="s">
-        <v>177</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
-        <v>303</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5061,4 +5374,604 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="36" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="36" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="36" customWidth="1"/>
+    <col min="7" max="7" width="13" style="36" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="45.875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="39.5" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34F6C13-3D4E-44B8-B567-3A7F2FD297A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298722E-0784-4A80-ACED-05E8A96DA711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D938F6B-16CC-4502-A42E-C8B36CFDE9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="602">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法力+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>稀有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,19 +117,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法力+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女妖的吟唱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>史诗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力+8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -290,26 +278,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命+16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奉献巨剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前期基础技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>坚韧之戒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,22 +510,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命+25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力+15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>智力+3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法力+12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔力散射：通过技能、遗物、道具回复法力值时，随机对一名敌人造成等同于回复法力值数额35%的伤害，向下取整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法力+20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>废弃熔炉核心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,10 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法力+30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激活熔炉：穿戴此装备在战斗中累计消耗500点法力值后，这件装备将转化为熔炉核心（预计10+场战斗）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法力+25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中后期技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -854,10 +806,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>束缚：一名敌人受到来自于你的控制效果时，其受到的伤害增加25%，持续至控制结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>眩晕抗性+25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,10 +818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木属性+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1014,10 +958,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命+33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力量+4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1050,10 +990,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>潮汐：在战斗中，每造成一次水元素伤害，获得水属性+2，持续至战斗结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,10 +1494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>渴血头盔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1574,10 +1506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命+30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>痛苦铠甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1607,10 +1535,6 @@
   </si>
   <si>
     <t>暴击伤害+13%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命+12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1863,207 +1787,648 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>速度-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭：穿戴者在其回合开始时受到2点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯净守护：当穿戴者在自己的回合受到伤害后，获得2点纯净护盾和1智力，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1武器1自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无之影：穿戴者受到伤害时，将伤害储存在虚无中。回合开始时，承受这些伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯净守护面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈：穿戴者在自己回合受到的伤害减少35%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《元素学入门指导》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：这里的所有元素实际上要分别显示四种元素的加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜：穿戴者对潮湿的敌人造成水属性伤害时，以（1*水属性）%的基础概率概率使敌人冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树根系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树之根：穿戴者对缠绕的敌人造成木属性伤害时，以（1*木属性）%的基础概率概率使敌人束缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结晶法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结晶：每当穿戴者使一名敌人冻结，获得14水属性，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《木元素亲和指南》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素属性+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素亲和：将要造成缠绕或束缚时，使其基础概率提升至原来的125%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结晶头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力控制项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣雷：对潮湿或冻结的敌人造成雷元素伤害时，有33%概率使伤害翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽绿护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热晶石项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热：每次成功施加灼烧效果时，使灼烧时长延长1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力控制：对敌人造成控制效果时，还会以100%基础概率施加脆弱效果，持续2回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒：对敌人造成生命值伤害后，以50%基础概率施加1层中毒，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避雷：受到的雷元素伤害降低30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆掌控者项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电：造成雷元素的生命值伤害时，以50%的基础概率对敌人施加麻痹效果，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业特性：以元素为核心，主要为3号位，承担大部分aoe输出，生存能力很弱：主要输出流派：自残、随机、控制，3流派都涉及元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《火元素结构解析》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素亲和：免疫灼烧伤害。对敌人施加灼烧效果时，基础概率提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《混沌元素论》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆之威：穿戴者造成雷元素伤害时，以100%基础概率施加2层灼烧效果，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌元素学：通过攻击造成元素伤害时，改为造成2次随机元素伤害，每次伤害值为原来的60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：攻击=技能或普攻（元素学的大厦轰然倒塌）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素属性+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师传承长靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师步伐：回合开始时，前进2步。回合结束时，退后2步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：1步=1人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折射：对敌人施加异常状态时，以同样的基础概率对另一名随机敌人造成相同异常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射：被施加异常状态时，以100%基础概率对一名随机敌人造成相同异常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素属性+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶石棱镜项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚：一名敌人受到来自于穿戴者的控制效果时，其受到的伤害增加25%，持续至控制结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怨恨：对生命值大于50%的敌人造成元素伤害时，以100%基础概率对其施加麻痹、潮湿、脆弱、缠绕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀伤：回合结束时，每有一个敌人被控制或处于异常状态中，获得+1智力，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（1智力）随机元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离：6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（2+0.3智力）水元素伤害，以75%基础概率对其施加1回合冻结效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名敌人速度降低2，以75%基础概率对其施加1回合束缚效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮：穿戴者造成水属性伤害时，以（1*水属性）%的基础概率概率使敌人获得1回合潮湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树缠绕：穿戴者造成木属性伤害时，以（1*木属性）%的基础概率概率使敌人获得1回合缠绕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对2名敌人造成（3+0.4智力）水元素伤害，以100%基础概率对其施加2回合潮湿效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤巨大尖刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5木属性，持续至战斗结束，然后对1名敌人造成（6+1智力）木元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成20火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（8+1.0智力）水元素伤害，如果这名敌人处于冻结状态，则额外造成（10+1.1智力）水元素伤害，并解除其冻结效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根系汲取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（1.2智力）木元素伤害，为自身回复3生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合结束时，对1名随机敌人造成（6+0.6智力）雷元素伤害，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趁人之危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围：4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离：仅自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对冻结或束缚状态下的敌人造成的伤害均转化为穿刺伤害，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥沼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队员获得以下效果：受到伤害时，以50%基础概率对攻击者随机施加2回合缠绕或2回合潮湿。该效果持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离：1队员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：队员包括自己，队友不包括自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得（0.2水属性+0.2木属性+0.2火属性+0.2雷属性）智力，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素愤怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有处于潮湿、冻结、缠绕、束缚、麻痹、灼烧状态下的敌人造成（5+0.8智力）穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭所有生命值低于15%的敌人，每消灭1名敌人，永久获得2火属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：角色包括队员和敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以100%的基础概率对所有角色施加冻结效果，然后对所有被冻结的敌人造成（8+1.0智力）水元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼药锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人施加异常状态或控制效果时，积累1层炼药效果，积累25层炼药效果后，随机获得1瓶药剂（需要背包有空间），然后层数重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸眼球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被冻结或束缚的敌人不再跳过他们的回合，而是受到50%额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色树根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人施加冻结或束缚效果时，回复6点法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自残流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存能力很差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨额AOE伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害的群体BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存能力差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高额伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以加BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有配合也能打出高额伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是生存能力相当差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存能力还可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《黑魔法入门》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>智力+5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速度-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血护符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>献祭戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>献祭：穿戴者在其回合开始时受到2点穿刺伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯净守护：当穿戴者在自己的回合受到伤害后，获得2点纯净护盾和1智力，持续至战斗结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚无法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1武器1自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚无之影：穿戴者受到伤害时，将伤害储存在虚无中。回合开始时，承受这些伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力+18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯净守护面纱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈护符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈：穿戴者在自己回合受到的伤害减少35%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《元素学入门指导》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：这里的所有元素实际上要分别显示四种元素的加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪潮戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪潮：穿戴者造成水属性伤害时，以（1*水属性）%的基础概率概率使敌人获得潮湿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜：穿戴者对潮湿的敌人造成水属性伤害时，以（1*水属性）%的基础概率概率使敌人冻结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古树戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古树根系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古树缠绕：穿戴者造成木属性伤害时，以（1*木属性）%的基础概率概率使敌人获得缠绕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古树之根：穿戴者对缠绕的敌人造成木属性伤害时，以（1*木属性）%的基础概率概率使敌人束缚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结晶法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结晶：每当穿戴者使一名敌人冻结，获得14水属性，持续至战斗结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《木元素亲和指南》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有元素属性+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木元素亲和：将要造成缠绕或束缚时，使其基础概率提升至原来的125%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结晶头盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强力控制项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣雷：对潮湿或冻结的敌人造成雷元素伤害时，有33%概率使伤害翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽绿护符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼热晶石项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼热：每次成功施加灼烧效果时，使灼烧时长延长1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷属性+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强力控制：对敌人造成控制效果时，还会以100%基础概率施加脆弱效果，持续2回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧毒：对敌人造成生命值伤害后，以50%基础概率施加1层中毒，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电长袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>避雷：受到的雷元素伤害降低30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆掌控者项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电：造成雷元素的生命值伤害时，以50%的基础概率对敌人施加麻痹效果，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆之威：造成雷元素伤害时，以100%基础概率施加2层灼烧效果，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业特性：以元素为核心，主要为3号位，承担大部分aoe输出，生存能力很弱：主要输出流派：自残、随机、控制，3流派都涉及元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷属性+9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火属性+9</t>
+    <t>最大生命值+10</t>
+  </si>
+  <si>
+    <t>最大法力值+10</t>
+  </si>
+  <si>
+    <t>最大法力值+20</t>
+  </si>
+  <si>
+    <t>最大法力值+18</t>
+  </si>
+  <si>
+    <t>最大生命值+6</t>
+  </si>
+  <si>
+    <t>最大生命值+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值+16</t>
+  </si>
+  <si>
+    <t>最大生命值+5</t>
+  </si>
+  <si>
+    <t>最大生命值+25</t>
+  </si>
+  <si>
+    <t>最大生命值+8</t>
+  </si>
+  <si>
+    <t>最大生命值+33</t>
+  </si>
+  <si>
+    <t>最大生命值+30</t>
+  </si>
+  <si>
+    <t>最大生命值+12</t>
+  </si>
+  <si>
+    <t>最大法力值+4</t>
+  </si>
+  <si>
+    <t>最大法力值+6</t>
+  </si>
+  <si>
+    <t>最大法力值+8</t>
+  </si>
+  <si>
+    <t>最大法力值+12</t>
+  </si>
+  <si>
+    <t>最大法力值+15</t>
+  </si>
+  <si>
+    <t>最大法力值+25</t>
+  </si>
+  <si>
+    <t>最大法力值+30</t>
+  </si>
+  <si>
+    <t>最大生命值-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棘刺面罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血刺项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血刺：受到流血伤害后，对1名随机敌人造成等同数额的穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧的熔炉面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棘刺：战斗开始时，以300%基础概率获得1层持续4回合的流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛苦灼烧：回合开始时，以300%的基础概率获得1层持续99回合的灼烧效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性+44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妒忌斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妒忌：在回合开始时，每有一个血量高于穿戴者的角色，穿戴者受到1点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《禁忌：死亡魔法》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁忌魔法：将普通攻击替换为技能“死亡射线”（在技能里看）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2181,7 +2546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2212,6 +2577,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2225,7 +2596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2317,6 +2688,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2654,8 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2690,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2702,15 +3087,15 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,7 +3103,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,7 +3121,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>15</v>
@@ -2749,7 +3134,7 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>17</v>
@@ -2762,13 +3147,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>18</v>
+        <v>578</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2778,26 +3163,26 @@
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>578</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -2806,432 +3191,432 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>23</v>
+        <v>579</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>67</v>
+        <v>565</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>571</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>572</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="D21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="10"/>
@@ -3244,376 +3629,376 @@
     </row>
     <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>26</v>
+        <v>580</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>581</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>126</v>
+        <v>573</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>127</v>
+        <v>582</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="G28" s="6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>147</v>
+        <v>583</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>136</v>
+        <v>567</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D31" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="J31" s="13" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3621,78 +4006,78 @@
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -3701,352 +4086,352 @@
         <v>9</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>69</v>
+        <v>572</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>206</v>
+        <v>499</v>
       </c>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>210</v>
+        <v>574</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="12" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>69</v>
+        <v>572</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="10"/>
@@ -4059,375 +4444,375 @@
     </row>
     <row r="62" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>246</v>
+        <v>575</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>255</v>
+        <v>569</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="13" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="J71" s="13"/>
     </row>
     <row r="72" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4435,7 +4820,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
@@ -4445,928 +4830,928 @@
         <v>14</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="13" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="13" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C96" s="31"/>
       <c r="D96" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="13" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="13" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>386</v>
+        <v>576</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>395</v>
+        <v>577</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="I100" s="32" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="J100" s="33" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C101" s="6"/>
-      <c r="D101" s="10" t="s">
-        <v>382</v>
+      <c r="D101" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C102" s="6"/>
-      <c r="D102" s="10" t="s">
-        <v>382</v>
+      <c r="D102" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>382</v>
+        <v>398</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="H119" s="13"/>
       <c r="I119" s="13" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="16" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="16" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5378,10 +5763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5392,16 +5777,16 @@
     <col min="4" max="4" width="17.25" style="36" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="36" customWidth="1"/>
     <col min="6" max="6" width="18.875" style="36" customWidth="1"/>
-    <col min="7" max="7" width="13" style="36" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="36" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="45.875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="39.5" style="36" customWidth="1"/>
+    <col min="9" max="9" width="60.625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="46.5" style="36" customWidth="1"/>
     <col min="11" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5416,7 +5801,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -5428,23 +5813,23 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5459,20 +5844,20 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
@@ -5481,476 +5866,1197 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>453</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>462</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="13" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="13" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>467</v>
+      <c r="G55" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="44" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D938F6B-16CC-4502-A42E-C8B36CFDE9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A6234E-7F5F-4233-9A55-4055E27AB3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="647">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1831,10 +1831,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚无之影：穿戴者受到伤害时，将伤害储存在虚无中。回合开始时，承受这些伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纯净守护面纱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2207,228 +2203,411 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>极寒风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以100%的基础概率对所有角色施加冻结效果，然后对所有被冻结的敌人造成（8+1.0智力）水元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼药锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人施加异常状态或控制效果时，积累1层炼药效果，积累25层炼药效果后，随机获得1瓶药剂（需要背包有空间），然后层数重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸眼球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被冻结或束缚的敌人不再跳过他们的回合，而是受到50%额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色树根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人施加冻结或束缚效果时，回复6点法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自残流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存能力很差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨额AOE伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害的群体BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存能力差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高额伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以加BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有配合也能打出高额伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是生存能力相当差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存能力还可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《黑魔法入门》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值+10</t>
+  </si>
+  <si>
+    <t>最大法力值+10</t>
+  </si>
+  <si>
+    <t>最大法力值+20</t>
+  </si>
+  <si>
+    <t>最大法力值+18</t>
+  </si>
+  <si>
+    <t>最大生命值+6</t>
+  </si>
+  <si>
+    <t>最大生命值+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值+16</t>
+  </si>
+  <si>
+    <t>最大生命值+5</t>
+  </si>
+  <si>
+    <t>最大生命值+25</t>
+  </si>
+  <si>
+    <t>最大生命值+8</t>
+  </si>
+  <si>
+    <t>最大生命值+33</t>
+  </si>
+  <si>
+    <t>最大生命值+30</t>
+  </si>
+  <si>
+    <t>最大生命值+12</t>
+  </si>
+  <si>
+    <t>最大法力值+4</t>
+  </si>
+  <si>
+    <t>最大法力值+6</t>
+  </si>
+  <si>
+    <t>最大法力值+8</t>
+  </si>
+  <si>
+    <t>最大法力值+12</t>
+  </si>
+  <si>
+    <t>最大法力值+15</t>
+  </si>
+  <si>
+    <t>最大法力值+25</t>
+  </si>
+  <si>
+    <t>最大法力值+30</t>
+  </si>
+  <si>
+    <t>最大生命值-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棘刺面罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血刺项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血刺：受到流血伤害后，对1名随机敌人造成等同数额的穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧的熔炉面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棘刺：战斗开始时，以300%基础概率获得1层持续4回合的流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛苦灼烧：回合开始时，以300%的基础概率获得1层持续99回合的灼烧效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性+44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妒忌斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妒忌：在回合开始时，每有一个血量高于穿戴者的角色，穿戴者受到1点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《禁忌：死亡魔法》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁忌魔法：将普通攻击替换为技能“死亡射线”（在技能里看）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌结晶体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌：获得30%伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+8、法力回复+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无之影：穿戴者在其回合外受到伤害时，将伤害储存在虚无中。回合开始时，承受这些伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放射性：穿戴者在其回合开始时，受到4点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《献祭学入门》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊（只能装自由）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注：角色包括队员和敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极寒风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以100%的基础概率对所有角色施加冻结效果，然后对所有被冻结的敌人造成（8+1.0智力）水元素伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼药锅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌人施加异常状态或控制效果时，积累1层炼药效果，积累25层炼药效果后，随机获得1瓶药剂（需要背包有空间），然后层数重置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸眼球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被冻结或束缚的敌人不再跳过他们的回合，而是受到50%额外伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色树根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌人施加冻结或束缚效果时，回复6点法力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自残流派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生存能力很差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨额AOE伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厉害的群体BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生存能力差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高额伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以加BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有配合也能打出高额伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是生存能力相当差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生存能力还可以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《黑魔法入门》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命值+10</t>
-  </si>
-  <si>
-    <t>最大法力值+10</t>
-  </si>
-  <si>
-    <t>最大法力值+20</t>
-  </si>
-  <si>
-    <t>最大法力值+18</t>
-  </si>
-  <si>
-    <t>最大生命值+6</t>
-  </si>
-  <si>
-    <t>最大生命值+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命值+16</t>
-  </si>
-  <si>
-    <t>最大生命值+5</t>
-  </si>
-  <si>
-    <t>最大生命值+25</t>
-  </si>
-  <si>
-    <t>最大生命值+8</t>
-  </si>
-  <si>
-    <t>最大生命值+33</t>
-  </si>
-  <si>
-    <t>最大生命值+30</t>
-  </si>
-  <si>
-    <t>最大生命值+12</t>
-  </si>
-  <si>
-    <t>最大法力值+4</t>
-  </si>
-  <si>
-    <t>最大法力值+6</t>
-  </si>
-  <si>
-    <t>最大法力值+8</t>
-  </si>
-  <si>
-    <t>最大法力值+12</t>
-  </si>
-  <si>
-    <t>最大法力值+15</t>
-  </si>
-  <si>
-    <t>最大法力值+25</t>
-  </si>
-  <si>
-    <t>最大法力值+30</t>
-  </si>
-  <si>
-    <t>最大生命值-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棘刺面罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大法力值+9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血刺项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血刺：受到流血伤害后，对1名随机敌人造成等同数额的穿刺伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水属性+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木属性+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃烧的熔炉面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棘刺：战斗开始时，以300%基础概率获得1层持续4回合的流血效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>痛苦灼烧：回合开始时，以300%的基础概率获得1层持续99回合的灼烧效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火属性+44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妒忌斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妒忌：在回合开始时，每有一个血量高于穿戴者的角色，穿戴者受到1点穿刺伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《禁忌：死亡魔法》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命值-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁忌魔法：将普通攻击替换为技能“死亡射线”（在技能里看）</t>
+  </si>
+  <si>
+    <t>备注：伤害来源是遗物，如何吃元素加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭学：穿戴者在自己的回合受到的伤害增加50%，在自己的回合受到伤害时，对所有敌人造成等量穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《黑魔法全解析》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀入骨：最大生命值降低50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血飞弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（2+1.2智力）水元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得增益效果：如果在自己的回合受到伤害，则在回合结束时，回复（0.1智力+3+50%所受伤害值）生命值，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵血术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流派核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对2名敌人造成（8+0.65智力）的水元素伤害，若击杀任意敌人，则为自身回复3点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围：3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对3名敌人造成（10+0.4智力）的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色燃料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：AOE在距离不够时打不全人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得效果：每回合开始时，受到2点穿刺伤害，同时对所有敌人造成（5+0.3智力）火元素伤害，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空巨拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成（9+0.8智力）的随机元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：先随机后造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到14点雷元素伤害，对2名敌人造成（22+1.2智力）雷元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1名敌人造成（1.5智力）物理伤害和（1.5智力）木元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：中毒流派漏加进异常流派里了，先忽略中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复33%最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有队员造成6点火元素伤害，对所有敌人造成20点火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愈合香炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员在自己的回合受到伤害后，立刻回复30%受到伤害值的生命值，最少回复1点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉黄金树叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得该遗物时，选择一名队员，每场战斗结束后，该队员回复10%最大生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3039,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3153,7 +3332,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3176,7 +3355,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>16</v>
@@ -3206,7 +3385,7 @@
         <v>56</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>57</v>
@@ -3234,7 +3413,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>50</v>
@@ -3264,7 +3443,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>137</v>
@@ -3289,7 +3468,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>32</v>
@@ -3321,7 +3500,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
@@ -3647,7 +3826,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>20</v>
@@ -3670,7 +3849,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>16</v>
@@ -3723,10 +3902,10 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>121</v>
@@ -3750,7 +3929,7 @@
         <v>135</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>134</v>
@@ -3798,7 +3977,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>32</v>
@@ -3822,7 +4001,7 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>128</v>
@@ -4128,13 +4307,13 @@
         <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>194</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -4156,7 +4335,7 @@
         <v>55</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>197</v>
@@ -4212,7 +4391,7 @@
         <v>183</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>204</v>
@@ -4462,7 +4641,7 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>228</v>
@@ -4544,7 +4723,7 @@
         <v>227</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>240</v>
@@ -4621,7 +4800,7 @@
         <v>120</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5140,7 +5319,7 @@
         <v>31</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>371</v>
@@ -5166,7 +5345,7 @@
         <v>55</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>376</v>
@@ -5763,10 +5942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView topLeftCell="B67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5781,7 +5960,8 @@
     <col min="8" max="8" width="15.375" style="36" customWidth="1"/>
     <col min="9" max="9" width="60.625" style="36" customWidth="1"/>
     <col min="10" max="10" width="46.5" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="36"/>
+    <col min="11" max="11" width="37.75" style="36" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5821,7 +6001,7 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5894,7 +6074,7 @@
         <v>422</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -5906,13 +6086,13 @@
         <v>231</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5920,7 +6100,7 @@
         <v>423</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -5936,7 +6116,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5944,7 +6124,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -5960,7 +6140,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5968,7 +6148,7 @@
         <v>424</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -5986,7 +6166,7 @@
         <v>201</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5994,7 +6174,7 @@
         <v>425</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -6012,7 +6192,7 @@
         <v>183</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6020,7 +6200,7 @@
         <v>426</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -6043,7 +6223,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -6058,7 +6238,7 @@
         <v>400</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6066,7 +6246,7 @@
         <v>174</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -6081,7 +6261,7 @@
         <v>400</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6089,7 +6269,7 @@
         <v>425</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -6104,7 +6284,7 @@
         <v>191</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6112,7 +6292,7 @@
         <v>423</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
@@ -6124,16 +6304,16 @@
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6141,7 +6321,7 @@
         <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
@@ -6156,10 +6336,10 @@
         <v>120</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6167,7 +6347,7 @@
         <v>174</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -6185,7 +6365,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6193,7 +6373,7 @@
         <v>427</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
@@ -6205,13 +6385,13 @@
         <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>481</v>
-      </c>
       <c r="I18" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6219,7 +6399,7 @@
         <v>423</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -6234,10 +6414,10 @@
         <v>437</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>483</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6245,7 +6425,7 @@
         <v>428</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
@@ -6257,16 +6437,16 @@
         <v>231</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I20" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>488</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6274,7 +6454,7 @@
         <v>429</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
@@ -6287,21 +6467,21 @@
         <v>55</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>114</v>
       </c>
       <c r="I21" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>492</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>122</v>
@@ -6313,21 +6493,21 @@
         <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>497</v>
-      </c>
       <c r="I22" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>122</v>
@@ -6339,16 +6519,16 @@
         <v>446</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>501</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6370,73 +6550,73 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>141</v>
@@ -6448,32 +6628,32 @@
         <v>212</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>262</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
@@ -6486,75 +6666,75 @@
         <v>141</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>262</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>72</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>141</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
@@ -6566,84 +6746,84 @@
         <v>262</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>91</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>262</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="J35" s="40" t="s">
         <v>532</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>531</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>262</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>23</v>
@@ -6655,36 +6835,36 @@
         <v>72</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>122</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>148</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6700,10 +6880,10 @@
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -6713,10 +6893,10 @@
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6726,10 +6906,10 @@
     </row>
     <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6742,7 +6922,7 @@
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>362</v>
@@ -6773,17 +6953,17 @@
         <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>13</v>
@@ -6795,18 +6975,18 @@
         <v>231</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>13</v>
@@ -6818,18 +6998,18 @@
         <v>55</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>440</v>
@@ -6852,12 +7032,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8" t="s">
@@ -6870,18 +7050,18 @@
         <v>55</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>18</v>
@@ -6893,19 +7073,19 @@
         <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>18</v>
@@ -6917,18 +7097,18 @@
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>444</v>
@@ -6946,21 +7126,21 @@
         <v>439</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>23</v>
@@ -6972,18 +7152,18 @@
         <v>55</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>426</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
@@ -6995,18 +7175,18 @@
         <v>31</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>599</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -7018,46 +7198,396 @@
         <v>231</v>
       </c>
       <c r="G56" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="D57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="J58" s="40" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
+      <c r="B62" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="44" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
-        <v>561</v>
-      </c>
+      <c r="B63" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="J63" s="40" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="I66" s="39" t="s">
+        <v>631</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I67" s="39" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>635</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H68" s="18"/>
+      <c r="I68" s="39" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="40" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7070,7 +7600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34F6C13-3D4E-44B8-B567-3A7F2FD297A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A6234E-7F5F-4233-9A55-4055E27AB3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98917CD-24EA-40F6-999F-B40A1166F665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
     <sheet name="法师" sheetId="2" r:id="rId2"/>
-    <sheet name="职业配合图" sheetId="3" r:id="rId3"/>
+    <sheet name="盾卫" sheetId="5" r:id="rId3"/>
+    <sheet name="职业配合图" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="713">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2608,6 +2609,316 @@
   </si>
   <si>
     <t>获得该遗物时，选择一名队员，每场战斗结束后，该队员回复10%最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机性高，伤害不稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体伤害高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体高伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体高增益和护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能不稳定，但期望值较高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能稳定、期望值高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高群体增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能非常不稳定，很靠运气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有核心也能玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但吃运气，或者吃和队友BUFF配合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害波动、随机选中、随机范围、随机技能、随机特效、正面负面效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《波动魔法学》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动魔法：造成伤害的最终值将随机变为原来的90%~120%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱智慧护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱智慧：每当穿戴者使用一个技能时，使1名随机角色获得+3智力，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐慌帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐慌：回合开始时，穿戴者有50%概率陷入恐慌状态，持续1回合。恐慌状态下，技能将在不改变敌我阵营指向的前提下，随机选取目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困惑面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员获得+5力量、+5智力、+20%最大生命值，每个轮次开始时，打乱队员阵型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星吊坠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤流星：攻击后，召唤1颗流星，对随机敌人造成3火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽翼长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个流派装备较少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽翼守护：穿戴者在受到超过最大生命值25%的单次伤害后，为1名未被守护的队员提供羽翼守护，持续至战斗结束。羽翼守护提供+1速度、+5力量和+5智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴降临：穿戴者对一名敌人造成伤害时，额外附带5点雷元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻泡泡戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡泡泡泡：对一个敌人造成伤害时，有2%的概率将其装入一个泡泡中，使其飞离战场！（飞离战场=直接消灭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《能量汲取手册》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汲取：每当穿戴者对敌人造成伤害后，随机为1名队员回复2生命值、2法力值，并提供2纯净护盾、1智力、1力量，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名随机敌人造成（3+1.4智力）雷元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1名随机敌人造成（3+1.4智力）雷元素伤害，对另一名随机敌人造成（1+0.7智力）雷元素伤害（如果没有另一名就只造成1次了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离：队员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离：9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1名随机敌人造成7火元素伤害，重复（3+0.1智力）次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：重复施放x次可以作为通用词条，以便通过遗物或者道具影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力弹球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使1名随机队员获得+7力量、+7智力和6物理护盾、6魔法护盾，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1颗弹球，随机弹向队员或敌人。弹球对敌人造成（5+0.3智力）点伤害，为队员提供（4+0.1智力）魔法护盾和（4+0.1智力）物理护盾，弹球一共弹跳5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：这里视作攻击1次，重复x次的描述才视为攻击多次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导向靶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记1名敌人，这名敌人被随机选取目标的攻击选中的概率翻倍，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：随机权重翻倍，如原来是1/4，翻倍后概率为2/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得效果：以120%的基础概率眩晕本回合后首个进行攻击的敌人，并对其造成（6+0.7智力）木元素伤害，持续至效果触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂风送行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>随机获得0~3点速度，持续至战斗结束。之后，速度最快的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>队员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获得+10智力和+10力量，持续3回合，这个效果不可叠加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复读机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复施放的技能+1重复次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机选取目标的技能总是优先选取生命值低于50%的角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶意颅骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北风送葬曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：后面要搞一个配合，让减益层数可以翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机使一名敌人获得减益：回合结束时，受到（4+0.5智力）穿刺伤害，死亡时，使另一名敌人获得此减益，持续至战斗结束。这个减益可以叠加且不会被消除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2775,7 +3086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2881,6 +3192,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3218,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5942,10 +6261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="B67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5958,8 +6277,8 @@
     <col min="6" max="6" width="18.875" style="36" customWidth="1"/>
     <col min="7" max="7" width="14.875" style="36" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="60.625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="46.5" style="36" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="60.75" style="36" customWidth="1"/>
     <col min="11" max="11" width="37.75" style="36" customWidth="1"/>
     <col min="12" max="16384" width="9" style="36"/>
   </cols>
@@ -7409,7 +7728,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>627</v>
       </c>
@@ -7432,7 +7751,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="66" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>630</v>
       </c>
@@ -7458,7 +7777,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>634</v>
       </c>
@@ -7481,7 +7800,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>636</v>
       </c>
@@ -7502,12 +7821,12 @@
         <v>637</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="70" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>156</v>
       </c>
@@ -7518,7 +7837,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>641</v>
       </c>
@@ -7535,7 +7854,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>639</v>
       </c>
@@ -7552,7 +7871,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
         <v>162</v>
       </c>
@@ -7563,7 +7882,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>643</v>
       </c>
@@ -7576,7 +7895,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>645</v>
       </c>
@@ -7588,6 +7907,516 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="13" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="45" t="s">
+        <v>653</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="J85" s="13"/>
+    </row>
+    <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="45" t="s">
+        <v>652</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="J90" s="40" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="J91" s="40" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="J92" s="40" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="48" t="s">
+        <v>657</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="47" t="s">
+        <v>674</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="H95" s="13"/>
+      <c r="I95" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="J95" s="40" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>708</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7597,10 +8426,2176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435AAE1-9F57-4850-8F7E-AD1C028C80E4}">
+  <dimension ref="A1:K99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="36" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="36" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="36" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="60.75" style="36" customWidth="1"/>
+    <col min="11" max="11" width="37.75" style="36" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="J58" s="40" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="J63" s="40" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="I66" s="39" t="s">
+        <v>631</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I67" s="39" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>635</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H68" s="18"/>
+      <c r="I68" s="39" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="40" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="13" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="45" t="s">
+        <v>653</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="J85" s="13"/>
+    </row>
+    <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="45" t="s">
+        <v>652</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="J90" s="40" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="J91" s="40" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="J92" s="40" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="48" t="s">
+        <v>657</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="47" t="s">
+        <v>674</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="H95" s="13"/>
+      <c r="I95" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="J95" s="40" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>708</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34F6C13-3D4E-44B8-B567-3A7F2FD297A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98917CD-24EA-40F6-999F-B40A1166F665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96DFBB1-F8F4-4A58-9559-AFF4CF0F11C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="727">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2919,6 +2919,62 @@
   </si>
   <si>
     <t>随机使一名敌人获得减益：回合结束时，受到（4+0.5智力）穿刺伤害，死亡时，使另一名敌人获得此减益，持续至战斗结束。这个减益可以叠加且不会被消除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾卫职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助队友回复法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给队友上buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给队友回复较多法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全队护盾、自身护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠护盾承担伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业特性：生存能力强，主要为1号位，负责保护队友和承受伤害，还能承担回复法力、协助队友构筑流派的功能。主要流派有：反击+异常流派（嘲讽+降低输出）、辅助流派（护盾）、控制流派（降低攻击频率）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给队友回复法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错的BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全队护盾是基本都有的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上buff的质量需要看是否有核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回蓝也需要看是否有核心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6263,7 +6319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -8429,8 +8485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435AAE1-9F57-4850-8F7E-AD1C028C80E4}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8451,7 +8507,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>419</v>
+        <v>713</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -8486,12 +8542,12 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>478</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>420</v>
+        <v>714</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>362</v>
@@ -8531,7 +8587,7 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>421</v>
+        <v>715</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>435</v>
@@ -8556,7 +8612,7 @@
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>422</v>
+        <v>716</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>451</v>
@@ -8582,7 +8638,7 @@
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>423</v>
+        <v>720</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>453</v>
@@ -8630,7 +8686,7 @@
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>424</v>
+        <v>717</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>459</v>
@@ -8656,7 +8712,7 @@
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>425</v>
+        <v>718</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>461</v>
@@ -8682,7 +8738,7 @@
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>426</v>
+        <v>719</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>464</v>
@@ -8728,7 +8784,7 @@
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>174</v>
+        <v>722</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>467</v>
@@ -8751,7 +8807,7 @@
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>425</v>
+        <v>723</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>468</v>
@@ -8774,7 +8830,7 @@
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>423</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>474</v>
@@ -8829,7 +8885,7 @@
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>457</v>
@@ -8855,7 +8911,7 @@
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>476</v>
@@ -8880,8 +8936,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>423</v>
+      <c r="A19" s="11" t="s">
+        <v>724</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>481</v>
@@ -8906,8 +8962,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>428</v>
+      <c r="A20" s="11" t="s">
+        <v>725</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>485</v>
@@ -8935,8 +8991,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>429</v>
+      <c r="A21" s="11" t="s">
+        <v>726</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>490</v>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7303CA6-AA2A-4070-9173-3CE3C5DDD867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB81EB-2B09-4834-B23E-340BBAD48536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
     <sheet name="盾卫" sheetId="5" r:id="rId3"/>
     <sheet name="职业配合图" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="950">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3595,6 +3606,415 @@
   </si>
   <si>
     <t>相当稳定，上限不高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖刺盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇神像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员在受到攻击后，造成的伤害增加5%，持续至战斗结束，最多叠加6次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘王冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得该遗物时，选择一名队员，该队员在受到攻击后，获得效果：受到攻击后，对所有敌人造成1点穿刺伤害，持续至战斗结束。这个效果可以叠加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫病大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖叫帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺耳尖叫：穿戴者在其回合结束时，有50%概率嘲讽1名随机敌人2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值+25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶臭盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭味护盾：回合结束时，获得4点物理护盾和4点元素护盾，并以50%的基础概率对穿戴者施加1层中毒效果，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利棘刺盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖刺盾牌：受到攻击后，对攻击者造成3点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇：受到攻击后，以50%的基础概率对攻击者施加2回合脆弱效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染：受到攻击后，使一名敌人获得效果：死亡时，将自身的减益效果传递给另一名随机敌人。这个效果持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶臭：受到攻击后，以100%基础概率对攻击者施加1层中毒，持续3回合，并以25%的基础概率对攻击者施加眩晕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利反击：受到物理伤害时，对攻击者造成30%伤害值的穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕抗性+35%、脆弱抗性+30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：获得buff的当回合要不要计入buff持续时间是个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒折磨戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉王之盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击怒火：受到攻击后，对攻击者造成等同于自身护甲值50%的火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者盾牌：回合结束时，获得12点纯净护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔑视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆弱抗性+100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：雷元素火元素和负面buff绑定了，造成一定设计难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽1名敌人，使其只能选中你为目标，持续2回合。获得15%伤害减免，持续2回合。</t>
+  </si>
+  <si>
+    <t>大声吼叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭眼防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒折磨：穿戴者对敌人成功施加负面效果时，使效果的时间延长1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：反伤要不要做成词条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关节技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击时，对攻击者造成（3+0.4力量）物理伤害，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以100%基础概率对1名敌人施加脆弱和麻痹效果，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害时，还会分别以40%的基础概率造成脆弱和麻痹效果，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电：受到攻击后，以50%基础概率分别对攻击者施加麻痹和脆弱效果，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔑视：成功嘲讽1名敌人后，有50%概率分别嘲讽所有其他敌人1回合。每有1名处于被嘲讽状态下的敌人，获得8%伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗师级防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉军团的号角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于被嘲讽状态的敌人受到30%额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：AOE规则的通用性，例子是距离3范围5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后储备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除所有敌人的被嘲讽状态。每清除1个，获得10力量和10智力，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个敌人，使用者将嘲讽这名敌人2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽一名敌人3回合并获得（12+0.3力量）物理护盾和（12+0.3智力）元素护盾。跳过下一个回合的行动。</t>
+  </si>
+  <si>
+    <t>嘲讽1名敌人2回合。受到攻击时，获得5%伤害减免，持续3回合，最多叠加5次。</t>
+  </si>
+  <si>
+    <t>备注：嘲讽没有抗性，所以是100%嘲讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少25%造成伤害和受到伤害2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾中等，控制能力强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制以特定形式输出的敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体输出限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普适性输出限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定类型输出限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体输出限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有核心就当控制工具人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有核心可以群体控制、限制输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜：回合结束时，获得3点元素护盾。冻结敌人时，获得3点元素护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷幻戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晕晕棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰树枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员施加冻结和束缚的基础概率增加33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员施加眩晕的基础概率增加33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷幻：受到攻击时，以25%基础概率使敌人眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定意志头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕抗性+20%、流血抗性+20%、中毒抗性+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值+50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+10、智力+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣光大盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣光：回合结束时，获得5纯净护盾。每有一名敌人处于被控制状态下，额外获得2纯净护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱：受到攻击时，以50%基础概率使攻击者获得麻痹，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇：1回合内，每受到2次来自同一敌人的攻击，获得3力量和3智力，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承受压力：被控制时仍然可以行动，但是技能的法力值消耗翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁魔打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴械攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对3名敌人造成（0.2力量）物理伤害，并使其造成的物理伤害降低20%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围：6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成（0.15力量）物理伤害，并使其造成的元素伤害降低15%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双盾夹击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（1.2力量）物理伤害，如果未造成生命值伤害，则以100%基础概率眩晕目标敌人。否则以30%概率眩晕目标敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：这个效果需要探讨下，判定方式和动画效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得效果：当一名敌人在同一回合进行两次攻击后，对这名敌人造成（1.3力量）物理伤害并以70%基础概率使其获得眩晕。这个效果持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名敌人的减益效果层数翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄威守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队员获得效果：受到攻击时，每次最多受到30点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁默域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围：9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除施放者外，其他所有角色无法使用技能，持续2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4250,8 +4670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6981,7 +7401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
@@ -9145,10 +9565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435AAE1-9F57-4850-8F7E-AD1C028C80E4}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10213,45 +10633,51 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6" t="s">
-        <v>13</v>
+        <v>847</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>27</v>
+        <v>722</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>565</v>
+        <v>725</v>
       </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="13"/>
+      <c r="I51" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>837</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>13</v>
+        <v>848</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>431</v>
+        <v>111</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G52" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>559</v>
+        <v>28</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10259,25 +10685,25 @@
         <v>838</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>13</v>
+        <v>853</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>581</v>
-      </c>
       <c r="I53" s="13" t="s">
-        <v>587</v>
+        <v>862</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10285,24 +10711,23 @@
         <v>839</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>854</v>
+      </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H54" s="6"/>
+        <v>659</v>
+      </c>
+      <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>438</v>
+        <v>855</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10310,23 +10735,26 @@
         <v>39</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="8" t="s">
-        <v>18</v>
+        <v>857</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>193</v>
+        <v>727</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>55</v>
+        <v>773</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>564</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>440</v>
+        <v>863</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10334,23 +10762,28 @@
         <v>840</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>18</v>
+        <v>859</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="13" t="s">
-        <v>446</v>
+        <v>856</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10358,25 +10791,25 @@
         <v>841</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>18</v>
+        <v>866</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>585</v>
+        <v>55</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>867</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>583</v>
+        <v>887</v>
+      </c>
+      <c r="J57" s="40" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10384,28 +10817,25 @@
         <v>844</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>441</v>
+        <v>869</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>442</v>
+        <v>64</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>443</v>
+        <v>28</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>436</v>
+        <v>118</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>601</v>
+        <v>19</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10413,22 +10843,26 @@
         <v>44</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>23</v>
+        <v>870</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>193</v>
+        <v>727</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>55</v>
+        <v>773</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>589</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>588</v>
+        <v>872</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10436,170 +10870,132 @@
         <v>842</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>23</v>
+        <v>873</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>439</v>
+        <v>111</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>591</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>592</v>
+        <v>888</v>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="19" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
         <v>841</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>595</v>
-      </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>602</v>
-      </c>
+      <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="J63" s="40" t="s">
-        <v>606</v>
-      </c>
+      <c r="B63" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>842</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>431</v>
+        <v>876</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="49" t="s">
+        <v>786</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>126</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>609</v>
+        <v>877</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>841</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="B65" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>843</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F66" s="32" t="s">
-        <v>612</v>
+        <v>879</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>613</v>
+        <v>897</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10607,25 +11003,24 @@
         <v>845</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>612</v>
+        <v>882</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>209</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>619</v>
+        <v>884</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10633,203 +11028,154 @@
         <v>846</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>883</v>
+      </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>620</v>
+      <c r="E68" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>621</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="J68" s="40" t="s">
-        <v>624</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>65</v>
+        <v>889</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>786</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13" t="s">
-        <v>614</v>
+      <c r="H69" s="18"/>
+      <c r="I69" s="39" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>500</v>
+        <v>893</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>786</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>145</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>625</v>
+        <v>502</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="I70" s="39" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F71" s="32" t="s">
-        <v>617</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="I71" s="39" t="s">
-        <v>627</v>
-      </c>
-      <c r="J71" s="40" t="s">
-        <v>628</v>
+      <c r="J71" s="36" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="I72" s="39" t="s">
-        <v>629</v>
-      </c>
+      <c r="B72" s="40"/>
     </row>
     <row r="73" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>631</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="39" t="s">
-        <v>633</v>
-      </c>
+      <c r="B73" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="40" t="s">
-        <v>634</v>
+      <c r="B74" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="1"/>
+      <c r="B75" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>901</v>
+      </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="G75" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>638</v>
-      </c>
+      <c r="B76" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>271</v>
-      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>635</v>
+        <v>849</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>636</v>
+        <v>850</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>272</v>
-      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="1"/>
+      <c r="B78" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>852</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -10838,142 +11184,138 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>639</v>
+        <v>890</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+        <v>891</v>
+      </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36" t="s">
-        <v>655</v>
-      </c>
+      <c r="A81" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>643</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>8</v>
+        <v>902</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="C83" s="6"/>
+        <v>912</v>
+      </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>654</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>661</v>
+        <v>917</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>644</v>
+        <v>903</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>656</v>
+        <v>918</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>431</v>
+        <v>193</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>659</v>
+        <v>198</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>658</v>
+        <v>919</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="45" t="s">
-        <v>645</v>
+      <c r="A85" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>662</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>193</v>
+        <v>727</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>55</v>
+        <v>773</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" s="13" t="s">
-        <v>663</v>
+        <v>856</v>
+      </c>
+      <c r="H85" s="6"/>
+      <c r="I85" s="13" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="46" t="s">
-        <v>39</v>
+      <c r="A86" s="45" t="s">
+        <v>421</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="8" t="s">
-        <v>18</v>
+        <v>927</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>111</v>
@@ -10982,395 +11324,325 @@
         <v>28</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H86" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="I86" s="13" t="s">
-        <v>668</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>649</v>
+        <v>904</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>669</v>
+        <v>929</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>439</v>
+        <v>14</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>671</v>
+        <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>672</v>
+        <v>930</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>646</v>
+        <v>905</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>673</v>
+        <v>931</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>674</v>
+        <v>64</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>675</v>
+        <v>565</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="45" t="s">
-        <v>647</v>
+      <c r="A89" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>23</v>
+        <v>921</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>677</v>
+        <v>922</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>924</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="J89" s="13" t="s">
-        <v>678</v>
+        <v>923</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="H90" s="7"/>
-      <c r="I90" s="13" t="s">
-        <v>680</v>
-      </c>
+      <c r="A90" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
       <c r="J90" s="13"/>
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>646</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+        <v>904</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>647</v>
+        <v>906</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>500</v>
+        <v>934</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="49" t="s">
+        <v>786</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="H92" s="13"/>
+        <v>252</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>621</v>
+      </c>
       <c r="I92" s="13" t="s">
-        <v>682</v>
+        <v>935</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="45" t="s">
-        <v>648</v>
+      <c r="A93" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>500</v>
+        <v>938</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>786</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="H93" s="13"/>
+        <v>252</v>
+      </c>
       <c r="I93" s="13" t="s">
-        <v>692</v>
+        <v>939</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="46" t="s">
-        <v>45</v>
+      <c r="A94" s="45" t="s">
+        <v>171</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>500</v>
+        <v>940</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="49" t="s">
+        <v>786</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="H94" s="13"/>
+        <v>524</v>
+      </c>
       <c r="I94" s="13" t="s">
-        <v>684</v>
+        <v>943</v>
+      </c>
+      <c r="J94" s="40" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>553</v>
+        <v>907</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>500</v>
+        <v>942</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="49" t="s">
+        <v>786</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="H95" s="13"/>
+        <v>252</v>
+      </c>
       <c r="I95" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="J95" s="40" t="s">
-        <v>690</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>650</v>
+        <v>906</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>65</v>
+        <v>945</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="49" t="s">
+        <v>786</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>252</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="J96" s="40" t="s">
-        <v>697</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="45" t="s">
-        <v>651</v>
+      <c r="A97" s="47" t="s">
+        <v>908</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>500</v>
+        <v>947</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="49" t="s">
+        <v>786</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="I97" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="J97" s="40" t="s">
-        <v>694</v>
+      <c r="H97" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="I97" s="39" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="47" t="s">
-        <v>652</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>699</v>
-      </c>
+      <c r="A98" s="48" t="s">
+        <v>909</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="48" t="s">
-        <v>653</v>
-      </c>
+      <c r="A99" s="47"/>
       <c r="B99" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="H99" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>701</v>
-      </c>
+        <v>913</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="47" t="s">
-        <v>670</v>
-      </c>
       <c r="B100" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="H100" s="13"/>
-      <c r="I100" s="39" t="s">
-        <v>708</v>
-      </c>
-      <c r="J100" s="40" t="s">
-        <v>707</v>
+        <v>914</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>704</v>
-      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB81EB-2B09-4834-B23E-340BBAD48536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462287A7-892D-4F72-8A59-FE097AFA4910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
     <sheet name="法师" sheetId="2" r:id="rId2"/>
     <sheet name="盾卫" sheetId="5" r:id="rId3"/>
     <sheet name="职业配合图" sheetId="3" r:id="rId4"/>
+    <sheet name="法力消耗推导" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="960">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4017,12 +4018,52 @@
     <t>除施放者外，其他所有角色无法使用技能，持续2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>威力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击的威力=10（0法力消耗），每额外消耗1点法力值，威力有提升，但会有边际效应，单点法力值提供的威力递减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数长-低法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数短-高法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战后回复和回合回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点威力收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10伤害=8护盾=3生命回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制=10伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4165,6 +4206,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4216,7 +4264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4333,6 +4381,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4670,8 +4721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7401,8 +7452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9567,8 +9618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435AAE1-9F57-4850-8F7E-AD1C028C80E4}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11655,7 +11706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34F6C13-3D4E-44B8-B567-3A7F2FD297A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
@@ -11665,4 +11716,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43048D8-64D3-4F2F-AA7D-7D0594B269EC}">
+  <dimension ref="B3:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>952</v>
+      </c>
+      <c r="F5" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>950</v>
+      </c>
+      <c r="E8" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="51">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>10+C9*E9</f>
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D18" si="0">10+C10*E10</f>
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="51">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="51">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>957</v>
+      </c>
+      <c r="C13" s="52">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
+      <c r="E13">
+        <v>3.3</v>
+      </c>
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="51">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>956</v>
+      </c>
+      <c r="C16" s="52">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>31.6</v>
+      </c>
+      <c r="E16">
+        <v>2.7</v>
+      </c>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="51">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="50"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="50"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="50"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462287A7-892D-4F72-8A59-FE097AFA4910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA8E0D-B963-4D40-B87D-00026C878FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="962">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法力回复+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>效果描述D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,19 +547,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>激活熔炉：穿戴此装备在战斗中累计消耗500点法力值后，这件装备将转化为熔炉核心（预计10+场战斗）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核心-法力转数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>核心：智力+5、力量+5、生命+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉：穿戴此装备时，每消耗100法力值，此装备随机获得+2力量/+2智力/+5生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2334,24 +2322,6 @@
   </si>
   <si>
     <t>最大法力值+4</t>
-  </si>
-  <si>
-    <t>最大法力值+6</t>
-  </si>
-  <si>
-    <t>最大法力值+8</t>
-  </si>
-  <si>
-    <t>最大法力值+12</t>
-  </si>
-  <si>
-    <t>最大法力值+15</t>
-  </si>
-  <si>
-    <t>最大法力值+25</t>
-  </si>
-  <si>
-    <t>最大法力值+30</t>
   </si>
   <si>
     <t>最大生命值-7</t>
@@ -4056,6 +4026,50 @@
   </si>
   <si>
     <t>控制=10伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1攻击属性=5暴击=4暴伤=5血=2蓝=1回合蓝=1回合护盾=1速度=4元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活熔炉：穿戴此装备在战斗中累计消耗230点法力值后，这件装备将转化为熔炉核心（预计10+场战斗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉：穿戴此装备时，每消耗100法力值，此装备随机获得+4力量/+4智力/+10生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4264,7 +4278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4382,7 +4396,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4721,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4757,7 +4770,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -4769,15 +4782,15 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>951</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4785,7 +4798,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4803,20 +4816,20 @@
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>16</v>
+        <v>953</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>17</v>
@@ -4829,13 +4842,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>572</v>
+        <v>952</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -4845,7 +4858,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -4858,13 +4871,13 @@
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>16</v>
+        <v>953</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -4873,31 +4886,31 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>21</v>
@@ -4910,28 +4923,28 @@
         <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>573</v>
+        <v>954</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -4946,16 +4959,16 @@
         <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>29</v>
@@ -4971,334 +4984,334 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="I18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="I20" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="I21" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="10"/>
@@ -5314,7 +5327,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>23</v>
@@ -5323,59 +5336,59 @@
         <v>14</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>574</v>
+        <v>955</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>16</v>
+        <v>953</v>
       </c>
       <c r="I25" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>28</v>
@@ -5384,15 +5397,15 @@
         <v>19</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="9" t="s">
@@ -5405,24 +5418,24 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>576</v>
+        <v>956</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>23</v>
@@ -5434,258 +5447,258 @@
         <v>25</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>577</v>
+        <v>957</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>562</v>
+        <v>662</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>127</v>
+        <v>960</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>578</v>
+        <v>959</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>126</v>
+        <v>958</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>130</v>
+        <v>961</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5693,7 +5706,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
@@ -5706,20 +5719,20 @@
         <v>28</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -5732,39 +5745,39 @@
         <v>28</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H47" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -5773,7 +5786,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>18</v>
@@ -5788,77 +5801,77 @@
         <v>26</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="8" t="s">
@@ -5871,254 +5884,254 @@
         <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="10"/>
@@ -6131,13 +6144,13 @@
     </row>
     <row r="62" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>23</v>
@@ -6149,21 +6162,21 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>23</v>
@@ -6172,78 +6185,78 @@
         <v>14</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I63" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>27</v>
@@ -6252,254 +6265,254 @@
         <v>28</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J71" s="13"/>
     </row>
     <row r="72" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H73" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="H73" s="25" t="s">
+      <c r="I73" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="I73" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="J73" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C77" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6507,7 +6520,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
@@ -6517,22 +6530,22 @@
         <v>14</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
@@ -6545,46 +6558,46 @@
         <v>28</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="30" t="s">
@@ -6594,22 +6607,22 @@
         <v>14</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="30" t="s">
@@ -6625,69 +6638,69 @@
         <v>26</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D91" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="G91" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H91" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="30" t="s">
@@ -6700,19 +6713,19 @@
         <v>25</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>18</v>
@@ -6721,24 +6734,24 @@
         <v>14</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>18</v>
@@ -6747,49 +6760,49 @@
         <v>14</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C96" s="31"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="9" t="s">
@@ -6799,22 +6812,22 @@
         <v>14</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="9" t="s">
@@ -6827,98 +6840,98 @@
         <v>31</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I100" s="32" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J100" s="33" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>24</v>
@@ -6927,24 +6940,24 @@
         <v>25</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>28</v>
@@ -6953,492 +6966,492 @@
         <v>15</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="G105" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D110" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D111" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D112" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F116" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I116" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="117" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H119" s="13"/>
       <c r="I119" s="13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7474,7 +7487,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7489,7 +7502,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -7501,23 +7514,23 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7532,20 +7545,20 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
@@ -7554,207 +7567,207 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>434</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -7766,282 +7779,282 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>434</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G20" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>484</v>
-      </c>
       <c r="J20" s="19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>499</v>
-      </c>
       <c r="J23" s="13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8053,331 +8066,331 @@
     </row>
     <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J35" s="40" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8388,10 +8401,10 @@
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8401,10 +8414,10 @@
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8414,10 +8427,10 @@
     </row>
     <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8430,10 +8443,10 @@
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -8448,7 +8461,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -8461,115 +8474,115 @@
         <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>18</v>
@@ -8581,228 +8594,228 @@
         <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="13" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8814,210 +8827,210 @@
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="J63" s="40" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="J66" s="40" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="39" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -9028,41 +9041,41 @@
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9073,10 +9086,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9086,10 +9099,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -9099,15 +9112,15 @@
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -9122,7 +9135,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="8" t="s">
@@ -9135,204 +9148,204 @@
         <v>28</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="13" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="13" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -9344,267 +9357,267 @@
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="J90" s="40" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="39" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="J95" s="40" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -9640,7 +9653,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9655,7 +9668,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -9667,23 +9680,23 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -9698,66 +9711,66 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -9766,66 +9779,66 @@
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -9837,24 +9850,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -9866,27 +9879,27 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -9895,21 +9908,21 @@
         <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -9921,123 +9934,123 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -10049,54 +10062,54 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -10105,76 +10118,76 @@
         <v>14</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>30</v>
@@ -10183,21 +10196,21 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -10209,323 +10222,323 @@
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>786</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>795</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="G28" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>795</v>
-      </c>
       <c r="I31" s="39" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>795</v>
-      </c>
       <c r="I32" s="39" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="39" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>786</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>795</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="39" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="39" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>795</v>
-      </c>
       <c r="I38" s="39" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="J38" s="40"/>
     </row>
     <row r="39" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -10538,64 +10551,64 @@
     </row>
     <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I40" s="39"/>
       <c r="J40" s="40"/>
     </row>
     <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
     </row>
     <row r="42" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
     </row>
     <row r="43" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -10606,10 +10619,10 @@
     </row>
     <row r="44" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10619,10 +10632,10 @@
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10632,10 +10645,10 @@
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10645,19 +10658,19 @@
     </row>
     <row r="47" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10666,10 +10679,10 @@
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -10684,42 +10697,42 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="13" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>28</v>
@@ -10728,15 +10741,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
@@ -10748,72 +10761,72 @@
         <v>25</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -10825,142 +10838,142 @@
         <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>865</v>
-      </c>
       <c r="J56" s="13" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="G57" s="6" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="19" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -10972,180 +10985,180 @@
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11153,7 +11166,7 @@
     </row>
     <row r="73" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -11164,41 +11177,41 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -11209,10 +11222,10 @@
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11222,10 +11235,10 @@
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11235,18 +11248,18 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -11261,115 +11274,115 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="13" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>28</v>
@@ -11378,19 +11391,19 @@
         <v>19</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
@@ -11399,53 +11412,53 @@
         <v>14</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>30</v>
@@ -11454,21 +11467,21 @@
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="H89" s="34" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11481,214 +11494,214 @@
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="6" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11722,7 +11735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43048D8-64D3-4F2F-AA7D-7D0594B269EC}">
   <dimension ref="B3:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K11" sqref="K11:K12"/>
     </sheetView>
   </sheetViews>
@@ -11740,32 +11753,32 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="F5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="E8" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="51">
+      <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
@@ -11776,7 +11789,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -11791,11 +11804,11 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="51">
+      <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
@@ -11808,7 +11821,7 @@
       <c r="H11" s="50"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="51">
+      <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
@@ -11822,9 +11835,9 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>957</v>
-      </c>
-      <c r="C13" s="52">
+        <v>948</v>
+      </c>
+      <c r="C13" s="51">
         <v>5</v>
       </c>
       <c r="D13">
@@ -11850,7 +11863,7 @@
       <c r="H14" s="50"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="51">
+      <c r="C15">
         <v>7</v>
       </c>
       <c r="D15">
@@ -11864,9 +11877,9 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>956</v>
-      </c>
-      <c r="C16" s="52">
+        <v>947</v>
+      </c>
+      <c r="C16" s="51">
         <v>8</v>
       </c>
       <c r="D16">
@@ -11892,7 +11905,7 @@
       <c r="H17" s="50"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="51">
+      <c r="C18">
         <v>10</v>
       </c>
       <c r="D18">

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA8E0D-B963-4D40-B87D-00026C878FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3469F432-DFD9-408D-9D51-F818637B4F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="962">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4734,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6400,6 +6400,9 @@
       </c>
       <c r="I72" s="13" t="s">
         <v>252</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3469F432-DFD9-408D-9D51-F818637B4F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826CAD40-69E2-4B1F-9144-28F58511C6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="962">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -876,10 +876,6 @@
   </si>
   <si>
     <t>备注：这里的暴击率和暴击伤害加成都是加百分比里面的数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：这里的眩晕加成是加百分比里面的数字，力量为10就+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4070,6 +4066,10 @@
   </si>
   <si>
     <t>熔炉：穿戴此装备时，每消耗100法力值，此装备随机获得+4力量/+4智力/+10生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：这里的眩晕加成是加百分比里面的数字，力量为10就+10%，距离3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4734,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4785,7 +4785,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4816,13 +4816,13 @@
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4842,13 +4842,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -4871,10 +4871,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>51</v>
@@ -4901,7 +4901,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
@@ -4923,13 +4923,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>49</v>
@@ -4959,7 +4959,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>132</v>
@@ -4984,13 +4984,13 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>92</v>
@@ -5016,7 +5016,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
@@ -5037,7 +5037,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -5220,7 +5220,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -5247,7 +5247,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>90</v>
@@ -5336,13 +5336,13 @@
         <v>14</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>16</v>
@@ -5365,10 +5365,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>111</v>
@@ -5418,19 +5418,19 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>118</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5450,7 +5450,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>129</v>
@@ -5468,7 +5468,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>121</v>
@@ -5498,13 +5498,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -5522,16 +5522,16 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5578,10 +5578,10 @@
         <v>79</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>140</v>
@@ -5638,6 +5638,9 @@
       <c r="I36" s="13" t="s">
         <v>159</v>
       </c>
+      <c r="J36" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
@@ -5655,7 +5658,7 @@
         <v>153</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5669,7 +5672,7 @@
         <v>153</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5828,13 +5831,13 @@
         <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>188</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -5856,7 +5859,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>191</v>
@@ -5912,7 +5915,7 @@
         <v>177</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>198</v>
@@ -5971,10 +5974,10 @@
         <v>83</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>204</v>
@@ -6003,16 +6006,16 @@
         <v>83</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="I56" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>209</v>
+        <v>961</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6041,7 +6044,7 @@
         <v>206</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6049,7 +6052,7 @@
         <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>200</v>
@@ -6064,11 +6067,11 @@
         <v>83</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6076,10 +6079,10 @@
         <v>168</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>18</v>
@@ -6091,7 +6094,7 @@
         <v>136</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6099,10 +6102,10 @@
         <v>173</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>18</v>
@@ -6114,16 +6117,16 @@
         <v>79</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="I60" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6147,10 +6150,10 @@
         <v>174</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>23</v>
@@ -6162,13 +6165,13 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H62" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I62" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6176,7 +6179,7 @@
         <v>175</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>23</v>
@@ -6185,24 +6188,24 @@
         <v>14</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="I63" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>23</v>
@@ -6214,21 +6217,21 @@
         <v>28</v>
       </c>
       <c r="G64" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>191</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="9" t="s">
@@ -6241,19 +6244,19 @@
         <v>28</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>119</v>
@@ -6265,18 +6268,18 @@
         <v>28</v>
       </c>
       <c r="G66" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="I66" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="20" t="s">
@@ -6286,20 +6289,20 @@
         <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="20" t="s">
@@ -6312,7 +6315,7 @@
         <v>28</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>19</v>
@@ -6321,7 +6324,7 @@
         <v>117</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6331,10 +6334,10 @@
     </row>
     <row r="70" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>23</v>
@@ -6350,15 +6353,15 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>23</v>
@@ -6370,17 +6373,17 @@
         <v>79</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J71" s="13"/>
     </row>
     <row r="72" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="9" t="s">
@@ -6390,27 +6393,27 @@
         <v>64</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G72" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="H72" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="I72" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="I72" s="13" t="s">
-        <v>252</v>
-      </c>
       <c r="J72" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>119</v>
@@ -6422,16 +6425,16 @@
         <v>142</v>
       </c>
       <c r="G73" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J73" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6441,44 +6444,44 @@
     </row>
     <row r="75" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G75" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G76" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6488,34 +6491,34 @@
     </row>
     <row r="79" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6523,7 +6526,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
@@ -6533,22 +6536,22 @@
         <v>14</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
@@ -6561,19 +6564,19 @@
         <v>28</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="30" t="s">
@@ -6586,21 +6589,21 @@
         <v>28</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="30" t="s">
@@ -6610,13 +6613,13 @@
         <v>14</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -6625,7 +6628,7 @@
         <v>38</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="30" t="s">
@@ -6641,18 +6644,18 @@
         <v>26</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D91" s="30" t="s">
         <v>18</v>
@@ -6667,10 +6670,10 @@
         <v>55</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,7 +6681,7 @@
         <v>43</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="30" t="s">
@@ -6691,19 +6694,19 @@
         <v>28</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="30" t="s">
@@ -6716,19 +6719,19 @@
         <v>25</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>18</v>
@@ -6737,16 +6740,16 @@
         <v>14</v>
       </c>
       <c r="F94" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6754,7 +6757,7 @@
         <v>44</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>18</v>
@@ -6763,24 +6766,24 @@
         <v>14</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C96" s="31"/>
       <c r="D96" s="9" t="s">
@@ -6793,19 +6796,19 @@
         <v>54</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="9" t="s">
@@ -6815,22 +6818,22 @@
         <v>14</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="9" t="s">
@@ -6843,21 +6846,21 @@
         <v>31</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>23</v>
@@ -6869,21 +6872,21 @@
         <v>54</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>23</v>
@@ -6898,18 +6901,18 @@
         <v>121</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I100" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J100" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="20" t="s">
@@ -6919,18 +6922,18 @@
         <v>14</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="20" t="s">
@@ -6943,18 +6946,18 @@
         <v>25</v>
       </c>
       <c r="G102" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="I102" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D103" s="20" t="s">
         <v>119</v>
@@ -6969,26 +6972,26 @@
         <v>15</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>111</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>13</v>
@@ -7000,21 +7003,21 @@
         <v>65</v>
       </c>
       <c r="G105" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="I105" s="13" t="s">
         <v>302</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>13</v>
@@ -7029,15 +7032,15 @@
         <v>99</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>13</v>
@@ -7049,21 +7052,21 @@
         <v>83</v>
       </c>
       <c r="G107" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="I107" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>18</v>
@@ -7075,19 +7078,19 @@
         <v>79</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>18</v>
@@ -7099,18 +7102,18 @@
         <v>79</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D110" s="30" t="s">
         <v>18</v>
@@ -7122,21 +7125,21 @@
         <v>79</v>
       </c>
       <c r="G110" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H110" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="H110" s="13" t="s">
+      <c r="I110" s="13" t="s">
         <v>332</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D111" s="30" t="s">
         <v>18</v>
@@ -7148,21 +7151,21 @@
         <v>79</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D112" s="30" t="s">
         <v>18</v>
@@ -7176,15 +7179,15 @@
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>23</v>
@@ -7193,21 +7196,21 @@
         <v>71</v>
       </c>
       <c r="F113" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G113" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="G113" s="13" t="s">
-        <v>347</v>
-      </c>
       <c r="I113" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="J113" s="16" t="s">
         <v>353</v>
-      </c>
-      <c r="J113" s="16" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="114" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="9" t="s">
@@ -7220,15 +7223,15 @@
         <v>136</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>23</v>
@@ -7237,18 +7240,18 @@
         <v>71</v>
       </c>
       <c r="F115" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I115" s="13" t="s">
         <v>374</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>23</v>
@@ -7257,18 +7260,18 @@
         <v>71</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>23</v>
@@ -7277,24 +7280,24 @@
         <v>71</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D118" s="20" t="s">
         <v>119</v>
@@ -7308,15 +7311,15 @@
       <c r="G118" s="7"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D119" s="20" t="s">
         <v>119</v>
@@ -7328,19 +7331,19 @@
         <v>88</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H119" s="13"/>
       <c r="I119" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D120" s="20" t="s">
         <v>119</v>
@@ -7352,11 +7355,11 @@
         <v>88</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7366,50 +7369,50 @@
     </row>
     <row r="122" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>319</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>321</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="124" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="125" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="126" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7419,42 +7422,42 @@
     </row>
     <row r="129" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G129" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G131" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -7490,7 +7493,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7525,15 +7528,15 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7548,20 +7551,20 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
@@ -7570,61 +7573,61 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -7636,11 +7639,11 @@
         <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7648,7 +7651,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -7664,50 +7667,50 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>440</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>195</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>117</v>
@@ -7716,15 +7719,15 @@
         <v>177</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -7747,7 +7750,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -7759,10 +7762,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7770,7 +7773,7 @@
         <v>168</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -7782,18 +7785,18 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -7808,36 +7811,36 @@
         <v>185</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7845,7 +7848,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
@@ -7860,10 +7863,10 @@
         <v>117</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7871,7 +7874,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -7889,15 +7892,15 @@
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
@@ -7909,76 +7912,76 @@
         <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="I18" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>476</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I20" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>481</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
@@ -7991,21 +7994,21 @@
         <v>54</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>111</v>
       </c>
       <c r="I21" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -8017,47 +8020,47 @@
         <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="I22" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>487</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>440</v>
-      </c>
       <c r="G23" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8069,115 +8072,115 @@
     </row>
     <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>206</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
@@ -8190,75 +8193,75 @@
         <v>136</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
@@ -8267,87 +8270,87 @@
         <v>64</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="J35" s="40" t="s">
         <v>525</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>23</v>
@@ -8359,36 +8362,36 @@
         <v>70</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8404,10 +8407,10 @@
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>536</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>537</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8417,10 +8420,10 @@
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>538</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>539</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8430,10 +8433,10 @@
     </row>
     <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>540</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>541</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8446,10 +8449,10 @@
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -8464,7 +8467,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -8477,40 +8480,40 @@
         <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>13</v>
@@ -8522,21 +8525,21 @@
         <v>54</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="8" t="s">
@@ -8549,11 +8552,11 @@
         <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8561,7 +8564,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8" t="s">
@@ -8574,18 +8577,18 @@
         <v>54</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>18</v>
@@ -8597,19 +8600,19 @@
         <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>18</v>
@@ -8621,42 +8624,42 @@
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>576</v>
-      </c>
       <c r="I52" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>440</v>
-      </c>
       <c r="G53" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8664,7 +8667,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>23</v>
@@ -8676,88 +8679,88 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="I55" s="13" t="s">
         <v>582</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G56" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>585</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="J57" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>589</v>
-      </c>
       <c r="K57" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8765,60 +8768,60 @@
         <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>125</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8830,91 +8833,91 @@
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>206</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F63" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="G63" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="H63" s="13" t="s">
+      <c r="I63" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>613</v>
-      </c>
       <c r="J63" s="40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>18</v>
@@ -8926,109 +8929,109 @@
         <v>75</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I66" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="J66" s="40" t="s">
         <v>618</v>
-      </c>
-      <c r="J66" s="40" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>206</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="39" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9044,10 +9047,10 @@
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>628</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>629</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -9056,15 +9059,15 @@
         <v>153</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -9073,7 +9076,7 @@
         <v>153</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9089,10 +9092,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>630</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>631</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9102,10 +9105,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>632</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>633</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -9115,15 +9118,15 @@
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -9138,7 +9141,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="8" t="s">
@@ -9151,47 +9154,47 @@
         <v>28</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>18</v>
@@ -9203,16 +9206,16 @@
         <v>54</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9220,7 +9223,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -9233,68 +9236,68 @@
         <v>28</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H82" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="I82" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>23</v>
@@ -9306,16 +9309,16 @@
         <v>28</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H84" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="J84" s="13" t="s">
         <v>668</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="J84" s="13" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9323,32 +9326,32 @@
         <v>43</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -9360,51 +9363,51 @@
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9412,65 +9415,65 @@
         <v>44</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="J90" s="40" t="s">
         <v>680</v>
-      </c>
-      <c r="J90" s="40" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
@@ -9482,115 +9485,115 @@
         <v>79</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I91" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="J91" s="40" t="s">
         <v>687</v>
-      </c>
-      <c r="J91" s="40" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I92" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="J92" s="40" t="s">
         <v>684</v>
-      </c>
-      <c r="J92" s="40" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J95" s="40" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9601,26 +9604,26 @@
     </row>
     <row r="97" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>656</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>693</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -9656,7 +9659,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9691,15 +9694,15 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -9714,31 +9717,31 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
@@ -9750,18 +9753,18 @@
         <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -9773,7 +9776,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -9782,29 +9785,29 @@
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9812,7 +9815,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -9824,24 +9827,24 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="J8" s="19" t="s">
         <v>723</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -9853,24 +9856,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -9882,27 +9885,27 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I10" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>734</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -9911,13 +9914,13 @@
         <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9925,7 +9928,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -9937,44 +9940,44 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -9986,13 +9989,13 @@
         <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10000,23 +10003,23 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -10025,26 +10028,26 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>751</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>752</v>
       </c>
       <c r="K16" s="13"/>
     </row>
@@ -10053,7 +10056,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -10065,16 +10068,16 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I17" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>758</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10082,37 +10085,37 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -10121,24 +10124,24 @@
         <v>14</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
@@ -10150,44 +10153,44 @@
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>768</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>769</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -10199,21 +10202,21 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>776</v>
-      </c>
       <c r="J22" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -10225,12 +10228,12 @@
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>75</v>
@@ -10240,79 +10243,79 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
@@ -10324,22 +10327,22 @@
         <v>65</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>65</v>
@@ -10348,75 +10351,75 @@
         <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>792</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>793</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
@@ -10428,114 +10431,114 @@
         <v>201</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="39" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J38" s="40"/>
     </row>
@@ -10554,10 +10557,10 @@
     </row>
     <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -10566,17 +10569,17 @@
         <v>153</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I40" s="39"/>
       <c r="J40" s="40"/>
     </row>
     <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -10585,17 +10588,17 @@
         <v>153</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
     </row>
     <row r="42" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -10604,7 +10607,7 @@
         <v>153</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
@@ -10622,10 +10625,10 @@
     </row>
     <row r="44" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>811</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>812</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10635,10 +10638,10 @@
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>813</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>814</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10648,10 +10651,10 @@
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>815</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>816</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10661,19 +10664,19 @@
     </row>
     <row r="47" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>817</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>818</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10682,10 +10685,10 @@
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -10700,35 +10703,35 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
@@ -10744,15 +10747,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
@@ -10767,18 +10770,18 @@
         <v>121</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
@@ -10790,11 +10793,11 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10802,34 +10805,34 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -10841,24 +10844,24 @@
         <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
@@ -10870,21 +10873,21 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="J57" s="40" t="s">
         <v>858</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="J57" s="40" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
@@ -10902,7 +10905,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10910,34 +10913,34 @@
         <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>119</v>
@@ -10949,25 +10952,25 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -10976,7 +10979,7 @@
         <v>44</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -10988,38 +10991,38 @@
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
@@ -11031,137 +11034,137 @@
         <v>83</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11180,10 +11183,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>886</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>887</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11192,15 +11195,15 @@
         <v>153</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>891</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>892</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11209,7 +11212,7 @@
         <v>153</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11225,10 +11228,10 @@
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>840</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>841</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11238,10 +11241,10 @@
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>842</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>843</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11251,18 +11254,18 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>881</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -11277,34 +11280,34 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
@@ -11320,15 +11323,15 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
@@ -11343,10 +11346,10 @@
         <v>195</v>
       </c>
       <c r="H84" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="I84" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11354,32 +11357,32 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>23</v>
@@ -11397,16 +11400,16 @@
         <v>117</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
@@ -11415,21 +11418,21 @@
         <v>14</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
@@ -11441,16 +11444,16 @@
         <v>28</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11458,7 +11461,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>119</v>
@@ -11470,13 +11473,13 @@
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>914</v>
+      </c>
+      <c r="I89" s="7" t="s">
         <v>913</v>
-      </c>
-      <c r="H89" s="34" t="s">
-        <v>915</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11484,7 +11487,7 @@
         <v>168</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11497,60 +11500,60 @@
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H91" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="I91" s="13" t="s">
         <v>927</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11558,22 +11561,22 @@
         <v>44</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11581,108 +11584,108 @@
         <v>168</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H97" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="I97" s="39" t="s">
         <v>939</v>
-      </c>
-      <c r="I97" s="39" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>156</v>
@@ -11692,19 +11695,19 @@
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>905</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11756,28 +11759,28 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -11792,7 +11795,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -11807,7 +11810,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -11838,7 +11841,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C13" s="51">
         <v>5</v>
@@ -11880,7 +11883,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C16" s="51">
         <v>8</v>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826CAD40-69E2-4B1F-9144-28F58511C6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543EB635-6B94-4C5F-A7F2-0D84C0CDAB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,10 +1011,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使一名队友（自己除外）造成的伤害翻倍，持续1回合，跳过自己的下一回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奉献</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1440,10 +1436,6 @@
   </si>
   <si>
     <t>闪电穿梭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对3名敌人造成2点水元素伤害，以75%的基础概率施加潮湿效果（每个敌人单独判定）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4070,6 +4062,14 @@
   </si>
   <si>
     <t>备注：这里的眩晕加成是加百分比里面的数字，力量为10就+10%，距离3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队友（自己除外）造成的伤害翻倍，持续1回合，以300%的基础概率使自己眩晕1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对3名敌人造成2点水元素伤害，以75%的基础概率施加潮湿效果（每个敌人单独判定）2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4734,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4785,7 +4785,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,7 +4822,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4848,7 +4848,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -4871,10 +4871,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>51</v>
@@ -4901,7 +4901,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
@@ -4929,7 +4929,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>49</v>
@@ -4959,7 +4959,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>132</v>
@@ -4984,13 +4984,13 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>92</v>
@@ -5016,7 +5016,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
@@ -5037,7 +5037,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -5220,7 +5220,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -5247,7 +5247,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>90</v>
@@ -5342,7 +5342,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>16</v>
@@ -5365,10 +5365,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>111</v>
@@ -5418,19 +5418,19 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>118</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5450,7 +5450,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>129</v>
@@ -5498,13 +5498,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -5522,16 +5522,16 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5578,10 +5578,10 @@
         <v>79</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>140</v>
@@ -5639,7 +5639,7 @@
         <v>159</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5658,7 +5658,7 @@
         <v>153</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5672,7 +5672,7 @@
         <v>153</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5831,13 +5831,13 @@
         <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>188</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -5859,7 +5859,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>191</v>
@@ -5915,7 +5915,7 @@
         <v>177</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>198</v>
@@ -5974,10 +5974,10 @@
         <v>83</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>204</v>
@@ -6006,16 +6006,16 @@
         <v>83</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>216</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6044,7 +6044,7 @@
         <v>206</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6067,7 +6067,7 @@
         <v>83</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="13" t="s">
@@ -6117,13 +6117,13 @@
         <v>79</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>350</v>
+        <v>961</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>215</v>
@@ -6165,7 +6165,7 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>221</v>
@@ -6247,7 +6247,7 @@
         <v>220</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>233</v>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J67" s="12"/>
     </row>
@@ -6324,7 +6324,7 @@
         <v>117</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6334,7 +6334,7 @@
     </row>
     <row r="70" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>241</v>
@@ -6353,15 +6353,15 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>242</v>
+        <v>960</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>23</v>
@@ -6373,17 +6373,17 @@
         <v>79</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J71" s="13"/>
     </row>
     <row r="72" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="9" t="s">
@@ -6393,27 +6393,27 @@
         <v>64</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G72" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H72" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="I72" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="I72" s="13" t="s">
-        <v>251</v>
-      </c>
       <c r="J72" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>119</v>
@@ -6425,16 +6425,16 @@
         <v>142</v>
       </c>
       <c r="G73" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J73" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6444,44 +6444,44 @@
     </row>
     <row r="75" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G75" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G76" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6491,34 +6491,34 @@
     </row>
     <row r="79" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6526,7 +6526,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
@@ -6542,16 +6542,16 @@
         <v>15</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
@@ -6564,19 +6564,19 @@
         <v>28</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="30" t="s">
@@ -6589,21 +6589,21 @@
         <v>28</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="30" t="s">
@@ -6619,7 +6619,7 @@
         <v>19</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -6628,7 +6628,7 @@
         <v>38</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="30" t="s">
@@ -6644,18 +6644,18 @@
         <v>26</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D91" s="30" t="s">
         <v>18</v>
@@ -6670,10 +6670,10 @@
         <v>55</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6681,7 +6681,7 @@
         <v>43</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="30" t="s">
@@ -6694,19 +6694,19 @@
         <v>28</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="30" t="s">
@@ -6719,19 +6719,19 @@
         <v>25</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>18</v>
@@ -6749,7 +6749,7 @@
         <v>55</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6757,7 +6757,7 @@
         <v>44</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>18</v>
@@ -6772,18 +6772,18 @@
         <v>19</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C96" s="31"/>
       <c r="D96" s="9" t="s">
@@ -6796,19 +6796,19 @@
         <v>54</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="9" t="s">
@@ -6825,15 +6825,15 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="9" t="s">
@@ -6846,21 +6846,21 @@
         <v>31</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>23</v>
@@ -6872,21 +6872,21 @@
         <v>54</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>23</v>
@@ -6901,18 +6901,18 @@
         <v>121</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I100" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J100" s="33" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="20" t="s">
@@ -6925,15 +6925,15 @@
         <v>224</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="20" t="s">
@@ -6946,18 +6946,18 @@
         <v>25</v>
       </c>
       <c r="G102" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H102" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="H102" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="I102" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D103" s="20" t="s">
         <v>119</v>
@@ -6972,26 +6972,26 @@
         <v>15</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>111</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>13</v>
@@ -7003,21 +7003,21 @@
         <v>65</v>
       </c>
       <c r="G105" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="I105" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>13</v>
@@ -7032,15 +7032,15 @@
         <v>99</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>13</v>
@@ -7052,21 +7052,21 @@
         <v>83</v>
       </c>
       <c r="G107" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="I107" s="13" t="s">
         <v>324</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>18</v>
@@ -7078,19 +7078,19 @@
         <v>79</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>18</v>
@@ -7102,18 +7102,18 @@
         <v>79</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D110" s="30" t="s">
         <v>18</v>
@@ -7125,21 +7125,21 @@
         <v>79</v>
       </c>
       <c r="G110" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H110" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="H110" s="13" t="s">
+      <c r="I110" s="13" t="s">
         <v>331</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D111" s="30" t="s">
         <v>18</v>
@@ -7151,21 +7151,21 @@
         <v>79</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D112" s="30" t="s">
         <v>18</v>
@@ -7179,15 +7179,15 @@
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>23</v>
@@ -7196,21 +7196,21 @@
         <v>71</v>
       </c>
       <c r="F113" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G113" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="G113" s="13" t="s">
-        <v>346</v>
-      </c>
       <c r="I113" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="9" t="s">
@@ -7223,15 +7223,15 @@
         <v>136</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>23</v>
@@ -7240,18 +7240,18 @@
         <v>71</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>23</v>
@@ -7260,18 +7260,18 @@
         <v>71</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>23</v>
@@ -7280,24 +7280,24 @@
         <v>71</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H117" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="I117" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="I117" s="13" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="118" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D118" s="20" t="s">
         <v>119</v>
@@ -7311,15 +7311,15 @@
       <c r="G118" s="7"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D119" s="20" t="s">
         <v>119</v>
@@ -7331,19 +7331,19 @@
         <v>88</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H119" s="13"/>
       <c r="I119" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D120" s="20" t="s">
         <v>119</v>
@@ -7355,11 +7355,11 @@
         <v>88</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7369,50 +7369,50 @@
     </row>
     <row r="122" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="124" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="125" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="126" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7422,42 +7422,42 @@
     </row>
     <row r="129" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G129" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G131" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -7493,7 +7493,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7528,15 +7528,15 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7551,20 +7551,20 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
@@ -7573,61 +7573,61 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>443</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -7667,47 +7667,47 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>195</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>224</v>
@@ -7719,15 +7719,15 @@
         <v>177</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -7750,7 +7750,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -7762,10 +7762,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7773,7 +7773,7 @@
         <v>168</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -7785,18 +7785,18 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -7811,36 +7811,36 @@
         <v>185</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7848,7 +7848,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
@@ -7863,10 +7863,10 @@
         <v>117</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7874,7 +7874,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -7892,15 +7892,15 @@
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
@@ -7912,76 +7912,76 @@
         <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
@@ -7994,21 +7994,21 @@
         <v>54</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>111</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -8020,47 +8020,47 @@
         <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>495</v>
-      </c>
       <c r="J23" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8072,115 +8072,115 @@
     </row>
     <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>206</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
@@ -8193,75 +8193,75 @@
         <v>136</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
@@ -8270,87 +8270,87 @@
         <v>64</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I35" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="J35" s="40" t="s">
         <v>523</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>23</v>
@@ -8362,36 +8362,36 @@
         <v>70</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8407,10 +8407,10 @@
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8420,10 +8420,10 @@
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8433,10 +8433,10 @@
     </row>
     <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8449,10 +8449,10 @@
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -8467,7 +8467,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -8480,40 +8480,40 @@
         <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>13</v>
@@ -8525,21 +8525,21 @@
         <v>54</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="8" t="s">
@@ -8552,11 +8552,11 @@
         <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8564,7 +8564,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8" t="s">
@@ -8577,18 +8577,18 @@
         <v>54</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>18</v>
@@ -8600,19 +8600,19 @@
         <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>18</v>
@@ -8624,42 +8624,42 @@
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8667,7 +8667,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>23</v>
@@ -8679,88 +8679,88 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="H57" s="6" t="s">
+      <c r="J57" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="K57" s="13" t="s">
         <v>590</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8768,60 +8768,60 @@
         <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="13" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>125</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8833,91 +8833,91 @@
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="G61" s="13" t="s">
         <v>496</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>602</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>498</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>206</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="F63" s="32" t="s">
+      <c r="H63" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="I63" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="G63" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="I63" s="13" t="s">
+      <c r="J63" s="40" t="s">
         <v>612</v>
-      </c>
-      <c r="J63" s="40" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>18</v>
@@ -8929,109 +8929,109 @@
         <v>75</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="G66" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="F66" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>498</v>
-      </c>
       <c r="H66" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J66" s="40" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>206</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="39" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9047,10 +9047,10 @@
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -9059,15 +9059,15 @@
         <v>153</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -9076,7 +9076,7 @@
         <v>153</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9092,10 +9092,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9105,10 +9105,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -9118,15 +9118,15 @@
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -9141,7 +9141,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="8" t="s">
@@ -9154,47 +9154,47 @@
         <v>28</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>18</v>
@@ -9206,16 +9206,16 @@
         <v>54</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9223,7 +9223,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -9236,68 +9236,68 @@
         <v>28</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="13" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>23</v>
@@ -9309,16 +9309,16 @@
         <v>28</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9326,32 +9326,32 @@
         <v>43</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="13" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -9363,51 +9363,51 @@
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9415,65 +9415,65 @@
         <v>44</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J90" s="40" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
@@ -9485,115 +9485,115 @@
         <v>79</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="39" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J95" s="40" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9604,26 +9604,26 @@
     </row>
     <row r="97" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -9659,7 +9659,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9694,15 +9694,15 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -9717,14 +9717,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
@@ -9733,15 +9733,15 @@
         <v>177</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
@@ -9753,18 +9753,18 @@
         <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -9776,7 +9776,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -9785,29 +9785,29 @@
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9815,7 +9815,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -9827,24 +9827,24 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>721</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -9856,24 +9856,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -9885,27 +9885,27 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>733</v>
-      </c>
       <c r="J10" s="13" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -9920,7 +9920,7 @@
         <v>225</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9928,7 +9928,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -9940,44 +9940,44 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -9989,13 +9989,13 @@
         <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10003,23 +10003,23 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -10028,26 +10028,26 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K16" s="13"/>
     </row>
@@ -10056,7 +10056,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -10068,16 +10068,16 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10085,37 +10085,37 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -10130,18 +10130,18 @@
         <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
@@ -10153,44 +10153,44 @@
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -10202,21 +10202,21 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -10228,12 +10228,12 @@
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>75</v>
@@ -10243,79 +10243,79 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
@@ -10327,22 +10327,22 @@
         <v>65</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>65</v>
@@ -10351,75 +10351,75 @@
         <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
@@ -10431,114 +10431,114 @@
         <v>201</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="39" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="39" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="39" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="J38" s="40"/>
     </row>
@@ -10557,10 +10557,10 @@
     </row>
     <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>819</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>821</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -10569,17 +10569,17 @@
         <v>153</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I40" s="39"/>
       <c r="J40" s="40"/>
     </row>
     <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -10588,17 +10588,17 @@
         <v>153</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
     </row>
     <row r="42" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -10607,7 +10607,7 @@
         <v>153</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
@@ -10625,10 +10625,10 @@
     </row>
     <row r="44" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10638,10 +10638,10 @@
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10651,10 +10651,10 @@
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10664,19 +10664,19 @@
     </row>
     <row r="47" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10685,10 +10685,10 @@
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -10703,35 +10703,35 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="13" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
@@ -10747,15 +10747,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
@@ -10770,18 +10770,18 @@
         <v>121</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
@@ -10793,11 +10793,11 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10805,34 +10805,34 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -10844,24 +10844,24 @@
         <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>225</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
@@ -10873,21 +10873,21 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
@@ -10905,7 +10905,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10913,34 +10913,34 @@
         <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>119</v>
@@ -10952,25 +10952,25 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="19" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -10979,7 +10979,7 @@
         <v>44</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -10991,38 +10991,38 @@
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
@@ -11034,137 +11034,137 @@
         <v>83</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11183,10 +11183,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11195,15 +11195,15 @@
         <v>153</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11212,7 +11212,7 @@
         <v>153</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11228,10 +11228,10 @@
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11241,10 +11241,10 @@
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11254,18 +11254,18 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -11280,34 +11280,34 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
@@ -11323,15 +11323,15 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
@@ -11346,10 +11346,10 @@
         <v>195</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11357,32 +11357,32 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="13" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>23</v>
@@ -11400,16 +11400,16 @@
         <v>117</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
@@ -11424,15 +11424,15 @@
         <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
@@ -11444,16 +11444,16 @@
         <v>28</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11461,7 +11461,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>119</v>
@@ -11473,13 +11473,13 @@
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="H89" s="34" t="s">
         <v>912</v>
       </c>
-      <c r="H89" s="34" t="s">
-        <v>914</v>
-      </c>
       <c r="I89" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11487,7 +11487,7 @@
         <v>168</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11500,60 +11500,60 @@
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11561,22 +11561,22 @@
         <v>44</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11584,108 +11584,108 @@
         <v>168</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>156</v>
@@ -11695,19 +11695,19 @@
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11759,28 +11759,28 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
+        <v>940</v>
+      </c>
+      <c r="F5" t="s">
         <v>942</v>
-      </c>
-      <c r="F5" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E8" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -11795,7 +11795,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -11810,7 +11810,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -11841,7 +11841,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C13" s="51">
         <v>5</v>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C16" s="51">
         <v>8</v>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543EB635-6B94-4C5F-A7F2-0D84C0CDAB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453BF90A-895A-47BE-93D6-911FC462837E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="962">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1367,18 +1367,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成1点物理伤害，以100%的基础概率施加1层持续3回合的流血效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>倒刺：攻击以50%的基础概率造成1层持续2回合的流血效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成3点物理伤害，以100%的基础概率施加3层持续3回合的流血效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熔岩瓶子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1399,10 +1391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清除所有敌人的流血层数，每清除1层，获得3点纯净护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三连斩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1528,10 +1516,6 @@
   </si>
   <si>
     <t>11MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对一名敌人造成（2+0.2力量）穿刺伤害并使其流血层数翻倍、回合数刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4070,6 +4054,22 @@
   </si>
   <si>
     <t>对3名敌人造成2点水元素伤害，以75%的基础概率施加潮湿效果（每个敌人单独判定）2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成3点物理伤害，以100%的基础概率施加5层流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点物理伤害，以100%的基础概率施加2层流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除所有敌人的流血层数，每清除1层，获得3点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（2+0.2力量）穿刺伤害并使其流血层数翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4734,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4785,7 +4785,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,7 +4822,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4848,7 +4848,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -4871,10 +4871,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>51</v>
@@ -4901,7 +4901,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
@@ -4929,7 +4929,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>49</v>
@@ -4959,7 +4959,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>132</v>
@@ -4984,13 +4984,13 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>92</v>
@@ -5016,7 +5016,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
@@ -5037,7 +5037,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -5220,7 +5220,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -5247,7 +5247,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>90</v>
@@ -5342,7 +5342,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>16</v>
@@ -5365,10 +5365,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>111</v>
@@ -5418,19 +5418,19 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>118</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5450,7 +5450,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>129</v>
@@ -5498,13 +5498,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -5522,16 +5522,16 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5578,10 +5578,10 @@
         <v>79</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>140</v>
@@ -5831,13 +5831,13 @@
         <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>188</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -5859,7 +5859,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>191</v>
@@ -5915,7 +5915,7 @@
         <v>177</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>198</v>
@@ -5974,10 +5974,10 @@
         <v>83</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>204</v>
@@ -6006,16 +6006,16 @@
         <v>83</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>216</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6067,7 +6067,7 @@
         <v>83</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="13" t="s">
@@ -6117,13 +6117,13 @@
         <v>79</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>215</v>
@@ -6165,7 +6165,7 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>221</v>
@@ -6247,7 +6247,7 @@
         <v>220</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>233</v>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="13" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J67" s="12"/>
     </row>
@@ -6324,7 +6324,7 @@
         <v>117</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6518,7 +6518,7 @@
         <v>273</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6783,7 +6783,7 @@
         <v>280</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C96" s="31"/>
       <c r="D96" s="9" t="s">
@@ -6808,7 +6808,7 @@
         <v>281</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="9" t="s">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6833,7 +6833,7 @@
         <v>282</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="9" t="s">
@@ -6846,13 +6846,13 @@
         <v>31</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6860,7 +6860,7 @@
         <v>283</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>23</v>
@@ -6872,21 +6872,21 @@
         <v>54</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>23</v>
@@ -6901,18 +6901,18 @@
         <v>121</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I100" s="32" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J100" s="33" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="20" t="s">
@@ -6925,15 +6925,15 @@
         <v>224</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="20" t="s">
@@ -6946,18 +6946,18 @@
         <v>25</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D103" s="20" t="s">
         <v>119</v>
@@ -6972,18 +6972,18 @@
         <v>15</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>111</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
     </row>
     <row r="109" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>315</v>
@@ -7102,10 +7102,13 @@
         <v>79</v>
       </c>
       <c r="G109" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>342</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7131,7 +7134,7 @@
         <v>330</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>331</v>
+        <v>959</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7157,12 +7160,12 @@
         <v>322</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>333</v>
+        <v>958</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>326</v>
@@ -7179,12 +7182,12 @@
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>339</v>
+        <v>960</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>315</v>
@@ -7196,21 +7199,21 @@
         <v>71</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="9" t="s">
@@ -7226,12 +7229,12 @@
         <v>257</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>23</v>
@@ -7240,18 +7243,18 @@
         <v>71</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>372</v>
+        <v>961</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>23</v>
@@ -7260,18 +7263,18 @@
         <v>71</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G116" s="13" t="s">
         <v>322</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>23</v>
@@ -7280,21 +7283,21 @@
         <v>71</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G117" s="13" t="s">
         <v>257</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="118" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>315</v>
@@ -7311,12 +7314,12 @@
       <c r="G118" s="7"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>315</v>
@@ -7331,16 +7334,16 @@
         <v>88</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H119" s="13"/>
       <c r="I119" s="13" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>315</v>
@@ -7355,11 +7358,11 @@
         <v>88</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7385,34 +7388,34 @@
     </row>
     <row r="124" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="126" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7422,10 +7425,10 @@
     </row>
     <row r="129" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G129" s="18" t="s">
         <v>153</v>
@@ -7436,10 +7439,10 @@
     </row>
     <row r="130" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
@@ -7448,10 +7451,10 @@
     </row>
     <row r="131" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G131" s="18" t="s">
         <v>153</v>
@@ -7471,8 +7474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7493,7 +7496,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7528,15 +7531,15 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7551,20 +7554,20 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
@@ -7573,61 +7576,61 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -7643,7 +7646,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7651,7 +7654,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -7667,47 +7670,47 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>195</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>224</v>
@@ -7719,15 +7722,15 @@
         <v>177</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -7750,7 +7753,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -7762,10 +7765,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7773,7 +7776,7 @@
         <v>168</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -7785,18 +7788,18 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -7811,36 +7814,36 @@
         <v>185</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>462</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7848,7 +7851,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
@@ -7863,10 +7866,10 @@
         <v>117</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7874,7 +7877,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -7892,15 +7895,15 @@
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
@@ -7912,76 +7915,76 @@
         <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G20" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
@@ -7994,21 +7997,21 @@
         <v>54</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>111</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -8020,47 +8023,47 @@
         <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8072,78 +8075,78 @@
     </row>
     <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>136</v>
@@ -8155,32 +8158,32 @@
         <v>206</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G29" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="I29" s="39" t="s">
         <v>505</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
@@ -8193,75 +8196,75 @@
         <v>136</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
@@ -8273,84 +8276,84 @@
         <v>254</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J35" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>23</v>
@@ -8362,36 +8365,36 @@
         <v>70</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8407,10 +8410,10 @@
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8420,10 +8423,10 @@
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8433,10 +8436,10 @@
     </row>
     <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8449,10 +8452,10 @@
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -8467,7 +8470,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -8480,40 +8483,40 @@
         <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>13</v>
@@ -8525,21 +8528,21 @@
         <v>54</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="8" t="s">
@@ -8552,11 +8555,11 @@
         <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="13" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8564,7 +8567,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8" t="s">
@@ -8577,18 +8580,18 @@
         <v>54</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>18</v>
@@ -8600,19 +8603,19 @@
         <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>18</v>
@@ -8624,42 +8627,42 @@
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8667,7 +8670,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>23</v>
@@ -8679,88 +8682,88 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J57" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="K57" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8768,60 +8771,60 @@
         <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="13" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>125</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8833,44 +8836,44 @@
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>247</v>
@@ -8879,45 +8882,45 @@
         <v>206</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F63" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J63" s="40" t="s">
         <v>608</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>610</v>
-      </c>
-      <c r="J63" s="40" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>18</v>
@@ -8929,109 +8932,109 @@
         <v>75</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="J66" s="40" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>206</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="39" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9047,10 +9050,10 @@
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -9064,10 +9067,10 @@
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -9092,10 +9095,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9105,10 +9108,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -9118,15 +9121,15 @@
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -9141,7 +9144,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="8" t="s">
@@ -9154,47 +9157,47 @@
         <v>28</v>
       </c>
       <c r="G78" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>645</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>18</v>
@@ -9206,16 +9209,16 @@
         <v>54</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9223,7 +9226,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -9236,68 +9239,68 @@
         <v>28</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="13" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>23</v>
@@ -9309,16 +9312,16 @@
         <v>28</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9326,32 +9329,32 @@
         <v>43</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="13" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -9363,51 +9366,51 @@
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9415,65 +9418,65 @@
         <v>44</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J90" s="40" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
@@ -9488,112 +9491,112 @@
         <v>247</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="39" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J95" s="40" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9604,26 +9607,26 @@
     </row>
     <row r="97" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -9659,7 +9662,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9694,15 +9697,15 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -9717,14 +9720,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
@@ -9733,15 +9736,15 @@
         <v>177</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
@@ -9753,18 +9756,18 @@
         <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -9776,7 +9779,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -9785,29 +9788,29 @@
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9815,7 +9818,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -9827,24 +9830,24 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -9856,24 +9859,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -9885,27 +9888,27 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -9920,7 +9923,7 @@
         <v>225</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9928,7 +9931,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -9940,27 +9943,27 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>224</v>
@@ -9969,15 +9972,15 @@
         <v>314</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -9989,13 +9992,13 @@
         <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10003,23 +10006,23 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -10028,26 +10031,26 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K16" s="13"/>
     </row>
@@ -10056,7 +10059,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -10068,16 +10071,16 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>747</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>752</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>751</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10085,37 +10088,37 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -10130,18 +10133,18 @@
         <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
@@ -10153,44 +10156,44 @@
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -10202,21 +10205,21 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -10228,12 +10231,12 @@
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>75</v>
@@ -10243,79 +10246,79 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
@@ -10327,22 +10330,22 @@
         <v>65</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>65</v>
@@ -10351,75 +10354,75 @@
         <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
@@ -10431,84 +10434,84 @@
         <v>201</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="39" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>70</v>
@@ -10518,27 +10521,27 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="39" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="J38" s="40"/>
     </row>
@@ -10557,10 +10560,10 @@
     </row>
     <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -10576,10 +10579,10 @@
     </row>
     <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -10595,10 +10598,10 @@
     </row>
     <row r="42" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -10625,10 +10628,10 @@
     </row>
     <row r="44" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10638,10 +10641,10 @@
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10651,10 +10654,10 @@
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10664,19 +10667,19 @@
     </row>
     <row r="47" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10685,10 +10688,10 @@
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -10703,35 +10706,35 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="13" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
@@ -10747,15 +10750,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
@@ -10770,18 +10773,18 @@
         <v>121</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
@@ -10793,11 +10796,11 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10805,34 +10808,34 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -10844,24 +10847,24 @@
         <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>225</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
@@ -10873,21 +10876,21 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
@@ -10905,7 +10908,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10913,34 +10916,34 @@
         <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>119</v>
@@ -10952,25 +10955,25 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="19" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -10979,7 +10982,7 @@
         <v>44</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -10991,17 +10994,17 @@
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>83</v>
@@ -11011,18 +11014,18 @@
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
@@ -11040,131 +11043,131 @@
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11183,10 +11186,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11200,10 +11203,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11228,10 +11231,10 @@
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11241,10 +11244,10 @@
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11254,18 +11257,18 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -11280,34 +11283,34 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
@@ -11323,15 +11326,15 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
@@ -11346,10 +11349,10 @@
         <v>195</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11357,32 +11360,32 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="13" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>23</v>
@@ -11400,16 +11403,16 @@
         <v>117</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
@@ -11424,15 +11427,15 @@
         <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
@@ -11444,16 +11447,16 @@
         <v>28</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11461,7 +11464,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>119</v>
@@ -11473,13 +11476,13 @@
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="H89" s="34" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11487,7 +11490,7 @@
         <v>168</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11500,48 +11503,48 @@
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>65</v>
@@ -11550,10 +11553,10 @@
         <v>247</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11561,13 +11564,13 @@
         <v>44</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>79</v>
@@ -11576,7 +11579,7 @@
         <v>247</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11584,42 +11587,42 @@
         <v>168</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>136</v>
@@ -11628,64 +11631,64 @@
         <v>247</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>156</v>
@@ -11695,19 +11698,19 @@
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="6" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11759,28 +11762,28 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="F5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E8" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -11795,7 +11798,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -11810,7 +11813,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -11841,7 +11844,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C13" s="51">
         <v>5</v>
@@ -11883,7 +11886,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C16" s="51">
         <v>8</v>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453BF90A-895A-47BE-93D6-911FC462837E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A6A3F2-868B-4979-A9C2-2A9DFFF71FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
@@ -2088,10 +2088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对一名敌人造成（8+1.0智力）水元素伤害，如果这名敌人处于冻结状态，则额外造成（10+1.1智力）水元素伤害，并解除其冻结效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根系汲取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2145,10 +2141,6 @@
   </si>
   <si>
     <t>元素愤怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有处于潮湿、冻结、缠绕、束缚、麻痹、灼烧状态下的敌人造成（5+0.8智力）穿刺伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3320,10 +3312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使一名队员获得（3+0.15力量）物理护盾和（3+0.15智力）元素护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小队所有成员获得（2+0.1力量）物理护盾和（2+0.1力量）元素护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3364,10 +3352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成（1力量）物理伤害，获得5物理护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盾墙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3376,18 +3360,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得15点纯净护盾。拥有纯净护盾时，为队友承担攻击和减益，持续2回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战术后撤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动至队伍末尾，然后为其他队友提供（3+0.18力量）物理护盾和（3+0.18智力）元素护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冲锋之风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3400,10 +3376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得6点纯净护盾。其他队员获得2法力回复，且每回合回复1生命，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他队员进行普通攻击后，再重复进行1次普通攻击，持续1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4070,6 +4042,34 @@
   </si>
   <si>
     <t>对一名敌人造成（2+0.2力量）穿刺伤害并使其流血层数翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（8+1.0智力）水元素伤害，如果这名敌人处于冻结状态，则再次造成（10+1.1智力）水元素伤害，并解除其冻结效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对多名处于潮湿、冻结、缠绕、束缚、麻痹、灼烧状态下的敌人造成（5+0.8智力）穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队员获得（4+0.15力量+0.15智力）纯净护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（1力量）物理伤害，获得7物理护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得15点纯净护盾。拥有不少于20点纯净护盾时，为队友承担攻击和减益，持续2回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至队伍末尾，然后为其他队友提供（5+0.15力量+0.15智力）护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点纯净护盾。其他队员每回合结束时回复1生命和2法力，持续3回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4734,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4785,7 +4785,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,7 +4822,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4848,7 +4848,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -4871,10 +4871,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>51</v>
@@ -4901,7 +4901,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
@@ -4929,7 +4929,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>49</v>
@@ -4959,7 +4959,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>132</v>
@@ -4984,13 +4984,13 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>92</v>
@@ -5016,7 +5016,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
@@ -5220,7 +5220,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -5247,7 +5247,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>90</v>
@@ -5342,7 +5342,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>16</v>
@@ -5365,10 +5365,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>111</v>
@@ -5418,19 +5418,19 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>118</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5450,7 +5450,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>129</v>
@@ -5498,13 +5498,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -5522,16 +5522,16 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5831,7 +5831,7 @@
         <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>188</v>
@@ -5859,7 +5859,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>191</v>
@@ -5915,7 +5915,7 @@
         <v>177</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>198</v>
@@ -6015,7 +6015,7 @@
         <v>216</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,7 +6123,7 @@
         <v>404</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>215</v>
@@ -6165,7 +6165,7 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>221</v>
@@ -6247,7 +6247,7 @@
         <v>220</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>233</v>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6846,7 +6846,7 @@
         <v>31</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>359</v>
@@ -6872,7 +6872,7 @@
         <v>54</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>364</v>
@@ -7134,7 +7134,7 @@
         <v>330</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7160,7 +7160,7 @@
         <v>322</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7182,7 +7182,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7249,7 +7249,7 @@
         <v>342</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7474,8 +7474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7866,7 +7866,7 @@
         <v>117</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>442</v>
@@ -8052,7 +8052,7 @@
         <v>487</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>489</v>
@@ -8219,7 +8219,7 @@
         <v>501</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8239,12 +8239,12 @@
         <v>492</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>508</v>
+        <v>955</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
@@ -8259,12 +8259,12 @@
         <v>501</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
@@ -8276,18 +8276,18 @@
         <v>254</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>18</v>
@@ -8299,18 +8299,18 @@
         <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="J35" s="40" t="s">
         <v>518</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>517</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
@@ -8322,15 +8322,15 @@
         <v>254</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>23</v>
@@ -8339,21 +8339,21 @@
         <v>490</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>501</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>523</v>
+        <v>956</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>23</v>
@@ -8368,15 +8368,15 @@
         <v>492</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>119</v>
@@ -8391,10 +8391,10 @@
         <v>492</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8410,10 +8410,10 @@
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8436,10 +8436,10 @@
     </row>
     <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>350</v>
@@ -8483,17 +8483,17 @@
         <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>13</v>
@@ -8505,18 +8505,18 @@
         <v>224</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>13</v>
@@ -8528,18 +8528,18 @@
         <v>54</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>427</v>
@@ -8580,7 +8580,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>430</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="51" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>435</v>
@@ -8603,7 +8603,7 @@
         <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="13" t="s">
@@ -8612,10 +8612,10 @@
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>18</v>
@@ -8627,18 +8627,18 @@
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>431</v>
@@ -8656,13 +8656,13 @@
         <v>426</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8670,7 +8670,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>23</v>
@@ -8682,10 +8682,10 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8693,7 +8693,7 @@
         <v>413</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
@@ -8705,18 +8705,18 @@
         <v>31</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -8728,42 +8728,42 @@
         <v>224</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="H57" s="6" t="s">
+      <c r="J57" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="K57" s="13" t="s">
         <v>584</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8771,7 +8771,7 @@
         <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>119</v>
@@ -8787,18 +8787,18 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
@@ -8810,18 +8810,18 @@
         <v>224</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>125</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>351</v>
@@ -8836,10 +8836,10 @@
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
@@ -8849,22 +8849,22 @@
         <v>490</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>492</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>13</v>
@@ -8873,7 +8873,7 @@
         <v>490</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>247</v>
@@ -8882,12 +8882,12 @@
         <v>206</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>378</v>
@@ -8900,27 +8900,27 @@
         <v>490</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>492</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I63" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="J63" s="40" t="s">
         <v>606</v>
-      </c>
-      <c r="J63" s="40" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>18</v>
@@ -8932,16 +8932,16 @@
         <v>75</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>18</v>
@@ -8953,18 +8953,18 @@
         <v>142</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>23</v>
@@ -8973,24 +8973,24 @@
         <v>490</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>492</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J66" s="40" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>23</v>
@@ -9008,12 +9008,12 @@
         <v>206</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>119</v>
@@ -9022,19 +9022,19 @@
         <v>490</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>501</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="39" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9050,10 +9050,10 @@
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -9067,10 +9067,10 @@
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -9095,10 +9095,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9108,10 +9108,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -9121,12 +9121,12 @@
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>350</v>
@@ -9144,7 +9144,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="8" t="s">
@@ -9157,21 +9157,21 @@
         <v>28</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>18</v>
@@ -9183,21 +9183,21 @@
         <v>224</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>18</v>
@@ -9209,16 +9209,16 @@
         <v>54</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9226,7 +9226,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -9243,15 +9243,15 @@
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="13" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>23</v>
@@ -9266,24 +9266,24 @@
         <v>426</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>54</v>
@@ -9292,15 +9292,15 @@
         <v>359</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>23</v>
@@ -9312,16 +9312,16 @@
         <v>28</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9329,7 +9329,7 @@
         <v>43</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>119</v>
@@ -9341,17 +9341,17 @@
         <v>224</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="13" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>351</v>
@@ -9366,10 +9366,10 @@
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
@@ -9382,19 +9382,19 @@
         <v>65</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>13</v>
@@ -9406,11 +9406,11 @@
         <v>65</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9418,7 +9418,7 @@
         <v>44</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="8" t="s">
@@ -9431,22 +9431,22 @@
         <v>142</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>18</v>
@@ -9458,25 +9458,25 @@
         <v>254</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J90" s="40" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
@@ -9491,18 +9491,18 @@
         <v>247</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>23</v>
@@ -9514,21 +9514,21 @@
         <v>70</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>23</v>
@@ -9540,18 +9540,18 @@
         <v>70</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
@@ -9563,21 +9563,21 @@
         <v>341</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>119</v>
@@ -9589,14 +9589,14 @@
         <v>142</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="39" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J95" s="40" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9607,26 +9607,26 @@
     </row>
     <row r="97" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -9640,8 +9640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435AAE1-9F57-4850-8F7E-AD1C028C80E4}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9662,7 +9662,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9697,12 +9697,12 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>350</v>
@@ -9720,14 +9720,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
@@ -9736,15 +9736,15 @@
         <v>177</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
@@ -9756,18 +9756,18 @@
         <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -9779,7 +9779,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -9788,29 +9788,29 @@
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9818,7 +9818,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -9830,24 +9830,24 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>715</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -9859,24 +9859,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -9888,27 +9888,27 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -9923,7 +9923,7 @@
         <v>225</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9931,7 +9931,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -9943,27 +9943,27 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>224</v>
@@ -9972,15 +9972,15 @@
         <v>314</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -9992,13 +9992,13 @@
         <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10006,23 +10006,23 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -10031,26 +10031,26 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K16" s="13"/>
     </row>
@@ -10059,7 +10059,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -10071,16 +10071,16 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10088,37 +10088,37 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -10133,18 +10133,18 @@
         <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
@@ -10156,44 +10156,44 @@
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -10205,16 +10205,16 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>483</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10236,7 +10236,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>75</v>
@@ -10246,41 +10246,41 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>514</v>
+        <v>669</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>773</v>
+        <v>957</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>201</v>
@@ -10290,35 +10290,35 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
@@ -10333,19 +10333,19 @@
         <v>501</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>65</v>
@@ -10354,75 +10354,75 @@
         <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>784</v>
+        <v>958</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>787</v>
+        <v>959</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>789</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
@@ -10434,84 +10434,84 @@
         <v>201</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="39" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>793</v>
+        <v>961</v>
       </c>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="39" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>70</v>
@@ -10521,27 +10521,27 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="39" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="J38" s="40"/>
     </row>
@@ -10560,10 +10560,10 @@
     </row>
     <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -10579,10 +10579,10 @@
     </row>
     <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -10598,10 +10598,10 @@
     </row>
     <row r="42" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -10628,10 +10628,10 @@
     </row>
     <row r="44" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10641,10 +10641,10 @@
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10654,10 +10654,10 @@
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10667,19 +10667,19 @@
     </row>
     <row r="47" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10688,7 +10688,7 @@
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>350</v>
@@ -10706,35 +10706,35 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="13" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
@@ -10750,15 +10750,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
@@ -10773,18 +10773,18 @@
         <v>121</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
@@ -10796,11 +10796,11 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10808,34 +10808,34 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -10847,24 +10847,24 @@
         <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>225</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
@@ -10876,21 +10876,21 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
@@ -10908,7 +10908,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10916,34 +10916,34 @@
         <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>119</v>
@@ -10955,25 +10955,25 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="19" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -10994,17 +10994,17 @@
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>83</v>
@@ -11014,18 +11014,18 @@
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
@@ -11043,114 +11043,114 @@
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>142</v>
@@ -11159,15 +11159,15 @@
         <v>492</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11186,10 +11186,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11203,10 +11203,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11231,10 +11231,10 @@
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11244,10 +11244,10 @@
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11257,10 +11257,10 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11283,34 +11283,34 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
@@ -11326,15 +11326,15 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
@@ -11349,10 +11349,10 @@
         <v>195</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11360,24 +11360,24 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="13" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11385,7 +11385,7 @@
         <v>411</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>23</v>
@@ -11403,16 +11403,16 @@
         <v>117</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
@@ -11427,15 +11427,15 @@
         <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
@@ -11447,16 +11447,16 @@
         <v>28</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11464,7 +11464,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>119</v>
@@ -11476,13 +11476,13 @@
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="H89" s="34" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11503,19 +11503,19 @@
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>65</v>
@@ -11524,27 +11524,27 @@
         <v>492</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>65</v>
@@ -11553,10 +11553,10 @@
         <v>247</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11564,13 +11564,13 @@
         <v>44</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>79</v>
@@ -11579,7 +11579,7 @@
         <v>247</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11587,42 +11587,42 @@
         <v>168</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>136</v>
@@ -11631,64 +11631,64 @@
         <v>247</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>156</v>
@@ -11698,19 +11698,19 @@
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="6" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11762,28 +11762,28 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="F5" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="E8" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -11798,7 +11798,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -11813,7 +11813,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -11844,7 +11844,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C13" s="51">
         <v>5</v>
@@ -11886,7 +11886,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C16" s="51">
         <v>8</v>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A6A3F2-868B-4979-A9C2-2A9DFFF71FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31B0628-2D98-415C-81EC-A89E2D496F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2707,10 +2707,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对1名随机敌人造成（3+1.4智力）雷元素伤害，对另一名随机敌人造成（1+0.7智力）雷元素伤害（如果没有另一名就只造成1次了）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流星雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2736,14 +2732,6 @@
   </si>
   <si>
     <t>魔力弹球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使1名随机队员获得+7力量、+7智力和6物理护盾、6魔法护盾，持续至战斗结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射1颗弹球，随机弹向队员或敌人。弹球对敌人造成（5+0.3智力）点伤害，为队员提供（4+0.1智力）魔法护盾和（4+0.1智力）物理护盾，弹球一共弹跳5次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3644,432 +3632,447 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大声吼叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭眼防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒折磨：穿戴者对敌人成功施加负面效果时，使效果的时间延长1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：反伤要不要做成词条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关节技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击时，对攻击者造成（3+0.4力量）物理伤害，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以100%基础概率对1名敌人施加脆弱和麻痹效果，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害时，还会分别以40%的基础概率造成脆弱和麻痹效果，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电：受到攻击后，以50%基础概率分别对攻击者施加麻痹和脆弱效果，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔑视：成功嘲讽1名敌人后，有50%概率分别嘲讽所有其他敌人1回合。每有1名处于被嘲讽状态下的敌人，获得8%伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗师级防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉军团的号角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于被嘲讽状态的敌人受到30%额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：AOE规则的通用性，例子是距离3范围5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后储备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除所有敌人的被嘲讽状态。每清除1个，获得10力量和10智力，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个敌人，使用者将嘲讽这名敌人2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：嘲讽没有抗性，所以是100%嘲讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少25%造成伤害和受到伤害2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾中等，控制能力强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制以特定形式输出的敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体输出限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普适性输出限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定类型输出限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体输出限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有核心就当控制工具人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有核心可以群体控制、限制输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜：回合结束时，获得3点元素护盾。冻结敌人时，获得3点元素护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷幻戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晕晕棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰树枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员施加冻结和束缚的基础概率增加33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员施加眩晕的基础概率增加33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷幻：受到攻击时，以25%基础概率使敌人眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定意志头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕抗性+20%、流血抗性+20%、中毒抗性+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值+50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+10、智力+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣光大盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣光：回合结束时，获得5纯净护盾。每有一名敌人处于被控制状态下，额外获得2纯净护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱：受到攻击时，以50%基础概率使攻击者获得麻痹，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇：1回合内，每受到2次来自同一敌人的攻击，获得3力量和3智力，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承受压力：被控制时仍然可以行动，但是技能的法力值消耗翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁魔打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴械攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对3名敌人造成（0.2力量）物理伤害，并使其造成的物理伤害降低20%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围：6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成（0.15力量）物理伤害，并使其造成的元素伤害降低15%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双盾夹击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（1.2力量）物理伤害，如果未造成生命值伤害，则以100%基础概率眩晕目标敌人。否则以30%概率眩晕目标敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：这个效果需要探讨下，判定方式和动画效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得效果：当一名敌人在同一回合进行两次攻击后，对这名敌人造成（1.3力量）物理伤害并以70%基础概率使其获得眩晕。这个效果持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名敌人的减益效果层数翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄威守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁默域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围：9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除施放者外，其他所有角色无法使用技能，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击的威力=10（0法力消耗），每额外消耗1点法力值，威力有提升，但会有边际效应，单点法力值提供的威力递减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数长-低法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数短-高法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战后回复和回合回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点威力收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10伤害=8护盾=3生命回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制=10伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1攻击属性=5暴击=4暴伤=5血=2蓝=1回合蓝=1回合护盾=1速度=4元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活熔炉：穿戴此装备在战斗中累计消耗230点法力值后，这件装备将转化为熔炉核心（预计10+场战斗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉：穿戴此装备时，每消耗100法力值，此装备随机获得+4力量/+4智力/+10生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：这里的眩晕加成是加百分比里面的数字，力量为10就+10%，距离3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队友（自己除外）造成的伤害翻倍，持续1回合，以300%的基础概率使自己眩晕1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对3名敌人造成2点水元素伤害，以75%的基础概率施加潮湿效果（每个敌人单独判定）2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成3点物理伤害，以100%的基础概率施加5层流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点物理伤害，以100%的基础概率施加2层流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除所有敌人的流血层数，每清除1层，获得3点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（2+0.2力量）穿刺伤害并使其流血层数翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成（8+1.0智力）水元素伤害，如果这名敌人处于冻结状态，则再次造成（10+1.1智力）水元素伤害，并解除其冻结效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对多名处于潮湿、冻结、缠绕、束缚、麻痹、灼烧状态下的敌人造成（5+0.8智力）穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队员获得（4+0.15力量+0.15智力）纯净护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（1力量）物理伤害，获得7物理护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得15点纯净护盾。拥有不少于20点纯净护盾时，为队友承担攻击和减益，持续2回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至队伍末尾，然后为其他队友提供（5+0.15力量+0.15智力）护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点纯净护盾。其他队员每回合结束时回复1生命和2法力，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使1名随机队员获得+3力量、+3智力和9护盾，持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对2名随机敌人造成（3+1.3智力）雷元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1颗弹球，随机弹向队员或敌人。弹球对敌人造成（5+0.3智力）点伤害，为队员提供（5+0.2智力）护盾，弹球一共弹跳5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>嘲讽1名敌人，使其只能选中你为目标，持续2回合。获得15%伤害减免，持续2回合。</t>
-  </si>
-  <si>
-    <t>大声吼叫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闭眼防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永恒折磨：穿戴者对敌人成功施加负面效果时，使效果的时间延长1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：反伤要不要做成词条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备反击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关节技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到攻击时，对攻击者造成（3+0.4力量）物理伤害，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以100%基础概率对1名敌人施加脆弱和麻痹效果，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成伤害时，还会分别以40%的基础概率造成脆弱和麻痹效果，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电：受到攻击后，以50%基础概率分别对攻击者施加麻痹和脆弱效果，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔑视：成功嘲讽1名敌人后，有50%概率分别嘲讽所有其他敌人1回合。每有1名处于被嘲讽状态下的敌人，获得8%伤害减免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宗师级防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉军团的号角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处于被嘲讽状态的敌人受到30%额外伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：AOE规则的通用性，例子是距离3范围5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后储备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除所有敌人的被嘲讽状态。每清除1个，获得10力量和10智力，持续至战斗结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择一个敌人，使用者将嘲讽这名敌人2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽一名敌人3回合并获得（12+0.3力量）物理护盾和（12+0.3智力）元素护盾。跳过下一个回合的行动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽一名敌人3回合并获得（20+0.3力量+0.3智力）护盾。以100%的基础概率眩晕自身1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽1名敌人2回合。受到攻击时，获得5%伤害减免，持续3回合，最多叠加5次。</t>
-  </si>
-  <si>
-    <t>备注：嘲讽没有抗性，所以是100%嘲讽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石像药剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少25%造成伤害和受到伤害2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾中等，控制能力强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制以特定形式输出的敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体输出限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普适性输出限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定类型输出限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体输出限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有核心就当控制工具人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有核心可以群体控制、限制输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒霜盾牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒霜：回合结束时，获得3点元素护盾。冻结敌人时，获得3点元素护盾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷幻戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晕晕棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰树枝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有队员施加冻结和束缚的基础概率增加33%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有队员施加眩晕的基础概率增加33%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷幻：受到攻击时，以25%基础概率使敌人眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚定意志头盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木属性+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕抗性+20%、流血抗性+20%、中毒抗性+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命值+50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量+10、智力+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣光大盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣光：回合结束时，获得5纯净护盾。每有一名敌人处于被控制状态下，额外获得2纯净护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电击项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚弱：受到攻击时，以50%基础概率使攻击者获得麻痹，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复仇剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复仇：1回合内，每受到2次来自同一敌人的攻击，获得3力量和3智力，持续至战斗结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承受压力：被控制时仍然可以行动，但是技能的法力值消耗翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁魔打击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴械攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对3名敌人造成（0.2力量）物理伤害，并使其造成的物理伤害降低20%，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围：6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌人造成（0.15力量）物理伤害，并使其造成的元素伤害降低15%，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双盾夹击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成（1.2力量）物理伤害，如果未造成生命值伤害，则以100%基础概率眩晕目标敌人。否则以30%概率眩晕目标敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：这个效果需要探讨下，判定方式和动画效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得效果：当一名敌人在同一回合进行两次攻击后，对这名敌人造成（1.3力量）物理伤害并以70%基础概率使其获得眩晕。这个效果持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使一名敌人的减益效果层数翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄威守护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使一名队员获得效果：受到攻击时，每次最多受到30点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁默域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围：9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除施放者外，其他所有角色无法使用技能，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击的威力=10（0法力消耗），每额外消耗1点法力值，威力有提升，但会有边际效应，单点法力值提供的威力递减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数长-低法力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数短-高法力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战后回复和回合回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单点威力收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10伤害=8护盾=3生命回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制=10伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1攻击属性=5暴击=4暴伤=5血=2蓝=1回合蓝=1回合护盾=1速度=4元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大法力值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力回复+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大法力值+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大法力值+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大法力值+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大法力值+12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力回复+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大法力值+15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活熔炉：穿戴此装备在战斗中累计消耗230点法力值后，这件装备将转化为熔炉核心（预计10+场战斗）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉：穿戴此装备时，每消耗100法力值，此装备随机获得+4力量/+4智力/+10生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：这里的眩晕加成是加百分比里面的数字，力量为10就+10%，距离3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使一名队友（自己除外）造成的伤害翻倍，持续1回合，以300%的基础概率使自己眩晕1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对3名敌人造成2点水元素伤害，以75%的基础概率施加潮湿效果（每个敌人单独判定）2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成3点物理伤害，以100%的基础概率施加5层流血效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成1点物理伤害，以100%的基础概率施加2层流血效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除所有敌人的流血层数，每清除1层，获得3点护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对一名敌人造成（2+0.2力量）穿刺伤害并使其流血层数翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对一名敌人造成（8+1.0智力）水元素伤害，如果这名敌人处于冻结状态，则再次造成（10+1.1智力）水元素伤害，并解除其冻结效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对多名处于潮湿、冻结、缠绕、束缚、麻痹、灼烧状态下的敌人造成（5+0.8智力）穿刺伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使一名队员获得（4+0.15力量+0.15智力）纯净护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成（1力量）物理伤害，获得7物理护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得15点纯净护盾。拥有不少于20点纯净护盾时，为队友承担攻击和减益，持续2回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至队伍末尾，然后为其他队友提供（5+0.15力量+0.15智力）护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得6点纯净护盾。其他队员每回合结束时回复1生命和2法力，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一名队员获得效果：受到攻击时，每次最多受到20点伤害，持续3回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4785,7 +4788,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,7 +4825,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4848,7 +4851,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -4874,7 +4877,7 @@
         <v>560</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>51</v>
@@ -4901,7 +4904,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
@@ -4929,7 +4932,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>49</v>
@@ -4990,7 +4993,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>92</v>
@@ -5220,7 +5223,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -5247,7 +5250,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>90</v>
@@ -5342,7 +5345,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>16</v>
@@ -5368,7 +5371,7 @@
         <v>636</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>111</v>
@@ -5418,19 +5421,19 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>118</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5450,7 +5453,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>129</v>
@@ -5504,7 +5507,7 @@
         <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -5522,16 +5525,16 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6015,7 +6018,7 @@
         <v>216</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,7 +6126,7 @@
         <v>404</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>215</v>
@@ -6353,7 +6356,7 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7134,7 +7137,7 @@
         <v>330</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7160,7 +7163,7 @@
         <v>322</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7182,7 +7185,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7249,7 +7252,7 @@
         <v>342</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7474,8 +7477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="B100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8239,7 +8242,7 @@
         <v>492</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8348,7 +8351,7 @@
         <v>512</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9382,7 +9385,7 @@
         <v>65</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
@@ -9394,7 +9397,7 @@
         <v>630</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>13</v>
@@ -9406,11 +9409,11 @@
         <v>65</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>674</v>
+        <v>955</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9431,11 +9434,11 @@
         <v>142</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>666</v>
+        <v>956</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9443,7 +9446,7 @@
         <v>541</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>600</v>
@@ -9458,14 +9461,14 @@
         <v>254</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="J90" s="40" t="s">
         <v>671</v>
-      </c>
-      <c r="J90" s="40" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9473,7 +9476,7 @@
         <v>632</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>600</v>
@@ -9491,10 +9494,10 @@
         <v>247</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9502,7 +9505,7 @@
         <v>633</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>23</v>
@@ -9514,13 +9517,13 @@
         <v>70</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>675</v>
+        <v>957</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9528,7 +9531,7 @@
         <v>634</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>23</v>
@@ -9543,7 +9546,7 @@
         <v>513</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9551,7 +9554,7 @@
         <v>635</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
@@ -9563,13 +9566,13 @@
         <v>341</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9577,7 +9580,7 @@
         <v>652</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>119</v>
@@ -9589,14 +9592,14 @@
         <v>142</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="39" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J95" s="40" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9615,18 +9618,18 @@
     </row>
     <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -9640,8 +9643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435AAE1-9F57-4850-8F7E-AD1C028C80E4}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="B90" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9662,7 +9665,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9697,12 +9700,12 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>350</v>
@@ -9720,14 +9723,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
@@ -9736,15 +9739,15 @@
         <v>177</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
@@ -9759,15 +9762,15 @@
         <v>553</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -9779,7 +9782,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -9788,20 +9791,20 @@
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>553</v>
@@ -9810,7 +9813,7 @@
         <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9818,7 +9821,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -9830,24 +9833,24 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -9859,24 +9862,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -9888,27 +9891,27 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -9931,7 +9934,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -9943,27 +9946,27 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>224</v>
@@ -9972,15 +9975,15 @@
         <v>314</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -9992,13 +9995,13 @@
         <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10006,23 +10009,23 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -10031,26 +10034,26 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K16" s="13"/>
     </row>
@@ -10059,7 +10062,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -10071,16 +10074,16 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>742</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="H17" s="34" t="s">
-        <v>745</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>749</v>
-      </c>
       <c r="J17" s="13" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10088,37 +10091,37 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>756</v>
-      </c>
       <c r="K18" s="19" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -10136,15 +10139,15 @@
         <v>547</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
@@ -10156,44 +10159,44 @@
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -10205,16 +10208,16 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>483</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10236,7 +10239,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>75</v>
@@ -10246,41 +10249,41 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>201</v>
@@ -10290,35 +10293,35 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
@@ -10333,19 +10336,19 @@
         <v>501</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>65</v>
@@ -10354,21 +10357,21 @@
         <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>79</v>
@@ -10377,52 +10380,52 @@
         <v>513</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
@@ -10434,43 +10437,43 @@
         <v>201</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="39" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
@@ -10479,39 +10482,39 @@
         <v>513</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>524</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="39" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>70</v>
@@ -10521,27 +10524,27 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="39" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="J38" s="40"/>
     </row>
@@ -10560,10 +10563,10 @@
     </row>
     <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -10579,10 +10582,10 @@
     </row>
     <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -10598,10 +10601,10 @@
     </row>
     <row r="42" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -10628,10 +10631,10 @@
     </row>
     <row r="44" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10641,10 +10644,10 @@
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10654,10 +10657,10 @@
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10667,19 +10670,19 @@
     </row>
     <row r="47" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10688,7 +10691,7 @@
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>350</v>
@@ -10706,35 +10709,35 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="13" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
@@ -10750,15 +10753,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
@@ -10776,15 +10779,15 @@
         <v>547</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
@@ -10800,7 +10803,7 @@
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10808,34 +10811,34 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -10847,24 +10850,24 @@
         <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>225</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
@@ -10876,21 +10879,21 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
@@ -10908,7 +10911,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10916,34 +10919,34 @@
         <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>119</v>
@@ -10955,25 +10958,25 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="19" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -10994,17 +10997,17 @@
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>83</v>
@@ -11014,18 +11017,18 @@
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>854</v>
+        <v>958</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
@@ -11043,22 +11046,22 @@
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>65</v>
@@ -11068,22 +11071,22 @@
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>874</v>
+        <v>959</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>136</v>
@@ -11093,21 +11096,21 @@
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>79</v>
@@ -11117,40 +11120,40 @@
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>875</v>
+        <v>960</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>142</v>
@@ -11162,12 +11165,12 @@
         <v>512</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11186,10 +11189,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11203,10 +11206,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11231,10 +11234,10 @@
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11244,10 +11247,10 @@
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11257,10 +11260,10 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11283,34 +11286,34 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
@@ -11326,15 +11329,15 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
@@ -11349,10 +11352,10 @@
         <v>195</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11360,24 +11363,24 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="13" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11385,7 +11388,7 @@
         <v>411</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>23</v>
@@ -11403,16 +11406,16 @@
         <v>117</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
@@ -11427,15 +11430,15 @@
         <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
@@ -11456,7 +11459,7 @@
         <v>20</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11464,7 +11467,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>119</v>
@@ -11476,13 +11479,13 @@
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="H89" s="34" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11503,10 +11506,10 @@
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>600</v>
@@ -11515,7 +11518,7 @@
         <v>18</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>65</v>
@@ -11524,18 +11527,18 @@
         <v>492</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>600</v>
@@ -11544,7 +11547,7 @@
         <v>18</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>65</v>
@@ -11556,7 +11559,7 @@
         <v>603</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11564,13 +11567,13 @@
         <v>44</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>79</v>
@@ -11579,7 +11582,7 @@
         <v>247</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11587,7 +11590,7 @@
         <v>168</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>600</v>
@@ -11596,7 +11599,7 @@
         <v>23</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>254</v>
@@ -11605,24 +11608,24 @@
         <v>513</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>136</v>
@@ -11631,64 +11634,64 @@
         <v>247</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>156</v>
@@ -11698,19 +11701,19 @@
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="6" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11762,28 +11765,28 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="F5" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="E8" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -11798,7 +11801,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -11813,7 +11816,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -11844,7 +11847,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="C13" s="51">
         <v>5</v>
@@ -11886,7 +11889,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="C16" s="51">
         <v>8</v>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31B0628-2D98-415C-81EC-A89E2D496F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF106BB-DA07-4196-B7EF-C67719CFBA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
@@ -1636,10 +1636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>割裂所有敌人，以100%的基础概率造成5层持续99回合的流血效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害：1.3力量加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2528,10 +2524,6 @@
   </si>
   <si>
     <t>愈合香炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有队员在自己的回合受到伤害后，立刻回复30%受到伤害值的生命值，最少回复1点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3408,10 +3400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得遗物时，选择一名队员。这名队员的回合结束时，获得6点物理护盾或元素护盾（每回合交替）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骨灰骰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3432,14 +3420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有队员获得的护盾均转化为纯净护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯净护盾提供的抗性增加25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女巫药剂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3716,10 +3696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>减少25%造成伤害和受到伤害2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>护盾中等，控制能力强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4073,6 +4049,30 @@
   </si>
   <si>
     <t>使一名队员获得效果：受到攻击时，每次最多受到20点伤害，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员在自己的回合受到伤害后，立刻回复50%受到伤害值的生命值，最少回复1点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得遗物时，选择一名队员。这名队员的回合结束时，获得6点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员拥有护盾时，获得25%眩晕、流血和中毒的抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有队员在受到控制效果后，获得8点纯净护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割裂所有敌人，以100%的基础概率造成6回合的流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少25%造成伤害和40%受到伤害2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4737,8 +4737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4788,7 +4788,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4851,7 +4851,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -4874,10 +4874,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>51</v>
@@ -4904,7 +4904,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
@@ -4932,7 +4932,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>49</v>
@@ -4962,7 +4962,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>132</v>
@@ -4987,13 +4987,13 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>92</v>
@@ -5019,7 +5019,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
@@ -5040,7 +5040,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -5223,7 +5223,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -5250,7 +5250,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>90</v>
@@ -5345,7 +5345,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>16</v>
@@ -5368,10 +5368,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>111</v>
@@ -5421,19 +5421,19 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>118</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5453,7 +5453,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>129</v>
@@ -5501,13 +5501,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -5525,16 +5525,16 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5581,10 +5581,10 @@
         <v>79</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>140</v>
@@ -5834,13 +5834,13 @@
         <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>188</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -5862,7 +5862,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>191</v>
@@ -5918,7 +5918,7 @@
         <v>177</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>198</v>
@@ -5977,10 +5977,10 @@
         <v>83</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>204</v>
@@ -6009,16 +6009,16 @@
         <v>83</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>216</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6070,7 +6070,7 @@
         <v>83</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="13" t="s">
@@ -6120,13 +6120,13 @@
         <v>79</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="I60" s="13" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>215</v>
@@ -6168,7 +6168,7 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>221</v>
@@ -6250,7 +6250,7 @@
         <v>220</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>233</v>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J67" s="12"/>
     </row>
@@ -6327,7 +6327,7 @@
         <v>117</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6849,7 +6849,7 @@
         <v>31</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>359</v>
@@ -6875,7 +6875,7 @@
         <v>54</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>364</v>
@@ -7137,7 +7137,7 @@
         <v>330</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7163,7 +7163,7 @@
         <v>322</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7185,7 +7185,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7252,7 +7252,7 @@
         <v>342</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7445,7 +7445,7 @@
         <v>393</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>395</v>
+        <v>960</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
@@ -7457,7 +7457,7 @@
         <v>394</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G131" s="18" t="s">
         <v>153</v>
@@ -7477,8 +7477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="B100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7499,7 +7499,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7534,12 +7534,12 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>350</v>
@@ -7557,14 +7557,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
@@ -7579,61 +7579,61 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7657,7 +7657,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -7673,47 +7673,47 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>433</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>195</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>224</v>
@@ -7725,15 +7725,15 @@
         <v>177</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -7756,7 +7756,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -7771,7 +7771,7 @@
         <v>387</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
         <v>168</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -7794,15 +7794,15 @@
         <v>387</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -7817,36 +7817,36 @@
         <v>185</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7854,7 +7854,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
@@ -7869,10 +7869,10 @@
         <v>117</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7880,7 +7880,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -7898,15 +7898,15 @@
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
@@ -7918,76 +7918,76 @@
         <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="I18" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>469</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I20" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>474</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
@@ -8000,21 +8000,21 @@
         <v>54</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>111</v>
       </c>
       <c r="I21" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>478</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -8026,42 +8026,42 @@
         <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>483</v>
-      </c>
       <c r="I22" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>480</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>433</v>
-      </c>
       <c r="G23" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>487</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8078,78 +8078,78 @@
     </row>
     <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>136</v>
@@ -8161,32 +8161,32 @@
         <v>206</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
@@ -8199,75 +8199,75 @@
         <v>136</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
@@ -8279,84 +8279,84 @@
         <v>254</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>515</v>
+      </c>
+      <c r="J35" s="40" t="s">
         <v>517</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>23</v>
@@ -8368,36 +8368,36 @@
         <v>70</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8413,10 +8413,10 @@
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>527</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>528</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8426,10 +8426,10 @@
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>529</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>530</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8439,10 +8439,10 @@
     </row>
     <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>531</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>532</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>350</v>
@@ -8473,7 +8473,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -8486,40 +8486,40 @@
         <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>13</v>
@@ -8531,21 +8531,21 @@
         <v>54</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="8" t="s">
@@ -8558,11 +8558,11 @@
         <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8570,7 +8570,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8" t="s">
@@ -8583,18 +8583,18 @@
         <v>54</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>18</v>
@@ -8606,19 +8606,19 @@
         <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>18</v>
@@ -8630,42 +8630,42 @@
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>567</v>
-      </c>
       <c r="I52" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>433</v>
-      </c>
       <c r="G53" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8673,7 +8673,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>23</v>
@@ -8685,88 +8685,88 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="I55" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G56" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>576</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="J57" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>580</v>
-      </c>
       <c r="K57" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8774,57 +8774,57 @@
         <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>125</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>351</v>
@@ -8839,44 +8839,44 @@
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>247</v>
@@ -8885,12 +8885,12 @@
         <v>206</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>378</v>
@@ -8900,30 +8900,30 @@
         <v>18</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F63" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="G63" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="H63" s="13" t="s">
+      <c r="I63" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>604</v>
-      </c>
       <c r="J63" s="40" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>18</v>
@@ -8935,109 +8935,109 @@
         <v>75</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I66" s="39" t="s">
+        <v>608</v>
+      </c>
+      <c r="J66" s="40" t="s">
         <v>609</v>
-      </c>
-      <c r="J66" s="40" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>206</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9053,10 +9053,10 @@
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>619</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>620</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -9070,10 +9070,10 @@
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>617</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>618</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>622</v>
+        <v>956</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9111,10 +9111,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -9124,12 +9124,12 @@
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>350</v>
@@ -9147,7 +9147,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="8" t="s">
@@ -9160,47 +9160,47 @@
         <v>28</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>18</v>
@@ -9212,16 +9212,16 @@
         <v>54</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9229,7 +9229,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -9242,51 +9242,51 @@
         <v>28</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="13" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>54</v>
@@ -9295,15 +9295,15 @@
         <v>359</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>23</v>
@@ -9315,16 +9315,16 @@
         <v>28</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9332,29 +9332,29 @@
         <v>43</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="13" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>351</v>
@@ -9369,51 +9369,51 @@
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9421,65 +9421,65 @@
         <v>44</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J90" s="40" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
@@ -9494,112 +9494,112 @@
         <v>247</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>341</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="39" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J95" s="40" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9610,26 +9610,26 @@
     </row>
     <row r="97" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -9643,8 +9643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435AAE1-9F57-4850-8F7E-AD1C028C80E4}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B90" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView topLeftCell="B45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9665,7 +9665,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9700,12 +9700,12 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>350</v>
@@ -9723,14 +9723,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
@@ -9739,15 +9739,15 @@
         <v>177</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
@@ -9759,18 +9759,18 @@
         <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -9782,7 +9782,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -9791,29 +9791,29 @@
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9821,7 +9821,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -9833,24 +9833,24 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>710</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -9862,24 +9862,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -9891,27 +9891,27 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -9926,7 +9926,7 @@
         <v>225</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9934,7 +9934,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -9946,27 +9946,27 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>224</v>
@@ -9975,15 +9975,15 @@
         <v>314</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -9995,13 +9995,13 @@
         <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10009,23 +10009,23 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -10034,26 +10034,26 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K16" s="13"/>
     </row>
@@ -10062,7 +10062,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -10074,16 +10074,16 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10091,37 +10091,37 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -10136,18 +10136,18 @@
         <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
@@ -10159,44 +10159,44 @@
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -10208,16 +10208,16 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10234,12 +10234,12 @@
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>75</v>
@@ -10249,79 +10249,79 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
@@ -10333,22 +10333,22 @@
         <v>65</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>65</v>
@@ -10357,75 +10357,75 @@
         <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
@@ -10437,84 +10437,84 @@
         <v>201</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="39" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="39" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>70</v>
@@ -10524,27 +10524,27 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="39" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J38" s="40"/>
     </row>
@@ -10563,10 +10563,10 @@
     </row>
     <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -10582,10 +10582,10 @@
     </row>
     <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -10601,10 +10601,10 @@
     </row>
     <row r="42" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -10631,10 +10631,10 @@
     </row>
     <row r="44" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>795</v>
+        <v>957</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10644,10 +10644,10 @@
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10657,10 +10657,10 @@
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10670,19 +10670,19 @@
     </row>
     <row r="47" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>801</v>
+        <v>958</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>802</v>
+        <v>959</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>350</v>
@@ -10709,35 +10709,35 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="13" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
@@ -10753,15 +10753,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
@@ -10776,18 +10776,18 @@
         <v>121</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
@@ -10799,11 +10799,11 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10811,34 +10811,34 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -10850,24 +10850,24 @@
         <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>225</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
@@ -10879,21 +10879,21 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
@@ -10911,7 +10911,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10919,34 +10919,34 @@
         <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>119</v>
@@ -10958,25 +10958,25 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="19" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -10997,17 +10997,17 @@
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>83</v>
@@ -11017,18 +11017,18 @@
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
@@ -11046,131 +11046,131 @@
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11189,10 +11189,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11206,10 +11206,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>872</v>
+        <v>961</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11234,10 +11234,10 @@
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11247,10 +11247,10 @@
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11260,15 +11260,15 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>350</v>
@@ -11286,34 +11286,34 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
@@ -11329,15 +11329,15 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
@@ -11352,10 +11352,10 @@
         <v>195</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11363,32 +11363,32 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="13" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>23</v>
@@ -11406,16 +11406,16 @@
         <v>117</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
@@ -11430,15 +11430,15 @@
         <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
@@ -11450,16 +11450,16 @@
         <v>28</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11467,7 +11467,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>119</v>
@@ -11479,13 +11479,13 @@
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="H89" s="34" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11506,48 +11506,48 @@
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>65</v>
@@ -11556,10 +11556,10 @@
         <v>247</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11567,13 +11567,13 @@
         <v>44</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>79</v>
@@ -11582,7 +11582,7 @@
         <v>247</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11590,42 +11590,42 @@
         <v>168</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>136</v>
@@ -11634,64 +11634,64 @@
         <v>247</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>156</v>
@@ -11701,19 +11701,19 @@
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="6" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11765,28 +11765,28 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F5" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E8" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -11801,7 +11801,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -11816,7 +11816,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -11847,7 +11847,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C13" s="51">
         <v>5</v>
@@ -11889,7 +11889,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C16" s="51">
         <v>8</v>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF106BB-DA07-4196-B7EF-C67719CFBA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFCD840-ED6F-4263-B9A6-EAEB629C6EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="959">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1472,10 +1472,6 @@
   </si>
   <si>
     <t>痛苦铠甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>痛苦：回合开始时，受到2点穿刺伤害，获得8%暴击率和8%暴击伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1800,10 +1796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智力+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《元素学入门指导》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1820,10 +1812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冰霜：穿戴者对潮湿的敌人造成水属性伤害时，以（1*水属性）%的基础概率概率使敌人冻结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>古树戒指</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1832,10 +1820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>古树之根：穿戴者对缠绕的敌人造成木属性伤害时，以（1*木属性）%的基础概率概率使敌人束缚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结晶法杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1936,10 +1920,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智力-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《混沌元素论》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1956,10 +1936,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有元素属性+9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巫师传承长靴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2044,14 +2020,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浪潮：穿戴者造成水属性伤害时，以（1*水属性）%的基础概率概率使敌人获得1回合潮湿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古树缠绕：穿戴者造成木属性伤害时，以（1*木属性）%的基础概率概率使敌人获得1回合缠绕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对2名敌人造成（3+0.4智力）水元素伤害，以100%基础概率对其施加2回合潮湿效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2250,12 +2218,6 @@
     <t>最大法力值+10</t>
   </si>
   <si>
-    <t>最大法力值+20</t>
-  </si>
-  <si>
-    <t>最大法力值+18</t>
-  </si>
-  <si>
     <t>最大生命值+6</t>
   </si>
   <si>
@@ -2272,9 +2234,6 @@
     <t>最大生命值+8</t>
   </si>
   <si>
-    <t>最大生命值+33</t>
-  </si>
-  <si>
     <t>最大生命值+30</t>
   </si>
   <si>
@@ -2313,14 +2272,6 @@
   </si>
   <si>
     <t>燃烧的熔炉面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棘刺：战斗开始时，以300%基础概率获得1层持续4回合的流血效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>痛苦灼烧：回合开始时，以300%的基础概率获得1层持续99回合的灼烧效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3960,10 +3911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>激活熔炉：穿戴此装备在战斗中累计消耗230点法力值后，这件装备将转化为熔炉核心（预计10+场战斗）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熔炉：穿戴此装备时，每消耗100法力值，此装备随机获得+4力量/+4智力/+10生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4073,6 +4020,50 @@
   </si>
   <si>
     <t>减少25%造成伤害和40%受到伤害2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活熔炉：穿戴此装备在战斗中累计消耗150点法力值后，这件装备将转化为熔炉核心（预计10+场战斗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值+33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛苦：回合开始时，受到2点穿刺伤害，获得8%暴击率和8%暴击伤害,持续至战斗结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮：穿戴者造成水属性伤害时，以25%的基础概率概率使敌人获得1回合潮湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树缠绕：穿戴者造成木属性伤害时，以25%的基础概率概率使敌人获得1回合缠绕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜：穿戴者对潮湿的敌人造成水属性伤害时，以25%的基础概率概率使敌人冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树之根：穿戴者对缠绕的敌人造成木属性伤害时，以25%的基础概率概率使敌人束缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棘刺：战斗开始时，以300%基础概率获得3层的流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值+18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛苦灼烧：每回合开始时，以300%的基础概率获得1回合灼烧效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4737,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4788,7 +4779,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4825,7 +4816,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4851,7 +4842,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -4874,10 +4865,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>51</v>
@@ -4904,7 +4895,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
@@ -4932,7 +4923,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>49</v>
@@ -4962,7 +4953,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>132</v>
@@ -4987,13 +4978,13 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>92</v>
@@ -5019,7 +5010,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
@@ -5040,7 +5031,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5055,7 +5046,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -5223,7 +5214,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -5250,7 +5241,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>90</v>
@@ -5345,7 +5336,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>16</v>
@@ -5368,10 +5359,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>111</v>
@@ -5421,19 +5412,19 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>118</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5453,7 +5444,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>129</v>
@@ -5501,13 +5492,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>933</v>
+        <v>948</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -5525,16 +5516,16 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5581,10 +5572,10 @@
         <v>79</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>140</v>
@@ -5834,13 +5825,13 @@
         <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>188</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -5862,7 +5853,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>191</v>
@@ -5918,7 +5909,7 @@
         <v>177</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>198</v>
@@ -5977,10 +5968,10 @@
         <v>83</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>204</v>
@@ -6009,16 +6000,16 @@
         <v>83</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>216</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6070,7 +6061,7 @@
         <v>83</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="13" t="s">
@@ -6120,13 +6111,13 @@
         <v>79</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>403</v>
-      </c>
       <c r="I60" s="13" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>215</v>
@@ -6168,7 +6159,7 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>556</v>
+        <v>949</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>221</v>
@@ -6250,7 +6241,7 @@
         <v>220</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>233</v>
@@ -6299,7 +6290,7 @@
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J67" s="12"/>
     </row>
@@ -6327,7 +6318,7 @@
         <v>117</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6356,7 +6347,7 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6828,7 +6819,7 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6849,13 +6840,13 @@
         <v>31</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>358</v>
+        <v>950</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6863,7 +6854,7 @@
         <v>283</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>23</v>
@@ -6875,21 +6866,21 @@
         <v>54</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>23</v>
@@ -6904,13 +6895,13 @@
         <v>121</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I100" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J100" s="33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6936,7 +6927,7 @@
     </row>
     <row r="102" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="20" t="s">
@@ -6949,18 +6940,18 @@
         <v>25</v>
       </c>
       <c r="G102" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I102" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D103" s="20" t="s">
         <v>119</v>
@@ -6975,13 +6966,13 @@
         <v>15</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>111</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7137,7 +7128,7 @@
         <v>330</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7163,7 +7154,7 @@
         <v>322</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7185,7 +7176,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7237,7 +7228,7 @@
     </row>
     <row r="115" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>23</v>
@@ -7246,18 +7237,18 @@
         <v>71</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G115" s="13" t="s">
         <v>342</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>23</v>
@@ -7266,18 +7257,18 @@
         <v>71</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G116" s="13" t="s">
         <v>322</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>23</v>
@@ -7286,16 +7277,16 @@
         <v>71</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G117" s="13" t="s">
         <v>257</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7322,7 +7313,7 @@
     </row>
     <row r="119" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>315</v>
@@ -7337,16 +7328,16 @@
         <v>88</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H119" s="13"/>
       <c r="I119" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>315</v>
@@ -7361,11 +7352,11 @@
         <v>88</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7410,15 +7401,15 @@
         <v>344</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7428,10 +7419,10 @@
     </row>
     <row r="129" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G129" s="18" t="s">
         <v>153</v>
@@ -7442,10 +7433,10 @@
     </row>
     <row r="130" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
@@ -7454,10 +7445,10 @@
     </row>
     <row r="131" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G131" s="18" t="s">
         <v>153</v>
@@ -7477,8 +7468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7499,7 +7490,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7534,12 +7525,12 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>350</v>
@@ -7557,20 +7548,20 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
@@ -7579,61 +7570,58 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>436</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -7649,7 +7637,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>497</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7657,7 +7645,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -7673,47 +7661,47 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>498</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>432</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>195</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>224</v>
@@ -7725,15 +7713,15 @@
         <v>177</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -7756,7 +7744,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -7768,10 +7756,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7779,7 +7767,7 @@
         <v>168</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -7791,18 +7779,18 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -7817,36 +7805,36 @@
         <v>185</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>457</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7854,7 +7842,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
@@ -7869,10 +7857,10 @@
         <v>117</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>441</v>
+        <v>953</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7880,7 +7868,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -7898,15 +7886,15 @@
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>444</v>
+        <v>954</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
@@ -7918,76 +7906,73 @@
         <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G20" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>475</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
@@ -8000,21 +7985,21 @@
         <v>54</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>111</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -8025,43 +8010,43 @@
       <c r="F22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>481</v>
+      <c r="G22" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>432</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>549</v>
+        <v>955</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8078,78 +8063,78 @@
     </row>
     <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>136</v>
@@ -8161,32 +8146,32 @@
         <v>206</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
@@ -8199,75 +8184,75 @@
         <v>136</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I33" s="39" t="s">
         <v>500</v>
-      </c>
-      <c r="I33" s="39" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
@@ -8279,84 +8264,84 @@
         <v>254</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="J35" s="40" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>23</v>
@@ -8368,36 +8353,36 @@
         <v>70</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8413,10 +8398,10 @@
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8426,10 +8411,10 @@
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8439,10 +8424,10 @@
     </row>
     <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8455,7 +8440,7 @@
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>350</v>
@@ -8473,7 +8458,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -8486,40 +8471,40 @@
         <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>13</v>
@@ -8531,21 +8516,21 @@
         <v>54</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>568</v>
+        <v>956</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="8" t="s">
@@ -8558,11 +8543,11 @@
         <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8570,7 +8555,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8" t="s">
@@ -8583,18 +8568,18 @@
         <v>54</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>18</v>
@@ -8606,19 +8591,19 @@
         <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>18</v>
@@ -8630,42 +8615,42 @@
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>432</v>
-      </c>
       <c r="G53" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>550</v>
+        <v>957</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8673,7 +8658,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>23</v>
@@ -8685,88 +8670,88 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>569</v>
+        <v>958</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8774,57 +8759,57 @@
         <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="13" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>125</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>351</v>
@@ -8839,44 +8824,44 @@
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>247</v>
@@ -8885,45 +8870,45 @@
         <v>206</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="J63" s="40" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>18</v>
@@ -8935,109 +8920,109 @@
         <v>75</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="J66" s="40" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>206</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="39" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9053,10 +9038,10 @@
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -9070,10 +9055,10 @@
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -9098,10 +9083,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9111,10 +9096,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -9124,12 +9109,12 @@
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>350</v>
@@ -9147,7 +9132,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="8" t="s">
@@ -9160,47 +9145,47 @@
         <v>28</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>18</v>
@@ -9212,16 +9197,16 @@
         <v>54</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9229,7 +9214,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -9242,68 +9227,68 @@
         <v>28</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>436</v>
+        <v>117</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="13" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>23</v>
@@ -9315,16 +9300,16 @@
         <v>28</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9332,29 +9317,29 @@
         <v>43</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="13" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>351</v>
@@ -9369,51 +9354,51 @@
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9421,65 +9406,65 @@
         <v>44</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="J90" s="40" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
@@ -9494,112 +9479,112 @@
         <v>247</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>341</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="39" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="J95" s="40" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9610,26 +9595,26 @@
     </row>
     <row r="97" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -9643,8 +9628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435AAE1-9F57-4850-8F7E-AD1C028C80E4}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="B45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9665,7 +9650,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9700,12 +9685,12 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>350</v>
@@ -9723,14 +9708,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
@@ -9739,15 +9724,15 @@
         <v>177</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
@@ -9759,18 +9744,18 @@
         <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -9782,7 +9767,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -9791,29 +9776,29 @@
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>706</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9821,7 +9806,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -9833,24 +9818,24 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -9862,24 +9847,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -9891,27 +9876,27 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -9926,7 +9911,7 @@
         <v>225</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9934,7 +9919,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -9946,27 +9931,27 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>224</v>
@@ -9975,15 +9960,15 @@
         <v>314</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -9995,13 +9980,13 @@
         <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>731</v>
-      </c>
       <c r="I14" s="7" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10009,23 +9994,23 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -10034,26 +10019,26 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="K16" s="13"/>
     </row>
@@ -10062,7 +10047,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -10074,16 +10059,16 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10091,37 +10076,37 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -10136,18 +10121,18 @@
         <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
@@ -10159,44 +10144,44 @@
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -10208,16 +10193,16 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10234,12 +10219,12 @@
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>75</v>
@@ -10249,79 +10234,79 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
@@ -10333,22 +10318,22 @@
         <v>65</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>65</v>
@@ -10357,75 +10342,75 @@
         <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
@@ -10437,84 +10422,84 @@
         <v>201</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="39" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="39" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>70</v>
@@ -10524,27 +10509,27 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="39" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="J38" s="40"/>
     </row>
@@ -10563,10 +10548,10 @@
     </row>
     <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -10582,10 +10567,10 @@
     </row>
     <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -10601,10 +10586,10 @@
     </row>
     <row r="42" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -10631,10 +10616,10 @@
     </row>
     <row r="44" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10644,10 +10629,10 @@
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10657,10 +10642,10 @@
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10670,19 +10655,19 @@
     </row>
     <row r="47" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10691,7 +10676,7 @@
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>350</v>
@@ -10709,35 +10694,35 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="13" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
@@ -10753,15 +10738,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
@@ -10776,18 +10761,18 @@
         <v>121</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
@@ -10799,11 +10784,11 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10811,34 +10796,34 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -10850,24 +10835,24 @@
         <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>225</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
@@ -10879,21 +10864,21 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
@@ -10911,7 +10896,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10919,34 +10904,34 @@
         <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>119</v>
@@ -10958,25 +10943,25 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="19" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -10997,17 +10982,17 @@
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>83</v>
@@ -11017,18 +11002,18 @@
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
@@ -11046,131 +11031,131 @@
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11189,10 +11174,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11206,10 +11191,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11234,10 +11219,10 @@
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11247,10 +11232,10 @@
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11260,15 +11245,15 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>350</v>
@@ -11286,34 +11271,34 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
@@ -11329,15 +11314,15 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
@@ -11352,10 +11337,10 @@
         <v>195</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11363,32 +11348,32 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="13" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>23</v>
@@ -11406,16 +11391,16 @@
         <v>117</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
@@ -11430,15 +11415,15 @@
         <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
@@ -11450,16 +11435,16 @@
         <v>28</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11467,7 +11452,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>119</v>
@@ -11479,13 +11464,13 @@
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="H89" s="34" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11506,48 +11491,48 @@
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>65</v>
@@ -11556,10 +11541,10 @@
         <v>247</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11567,13 +11552,13 @@
         <v>44</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>79</v>
@@ -11582,7 +11567,7 @@
         <v>247</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11590,42 +11575,42 @@
         <v>168</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>136</v>
@@ -11634,64 +11619,64 @@
         <v>247</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>156</v>
@@ -11701,19 +11686,19 @@
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="6" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11765,28 +11750,28 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="F5" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="E8" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -11801,7 +11786,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -11816,7 +11801,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -11847,7 +11832,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="C13" s="51">
         <v>5</v>
@@ -11889,7 +11874,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="C16" s="51">
         <v>8</v>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFCD840-ED6F-4263-B9A6-EAEB629C6EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E137342-8F45-4184-B76E-3E03F353B600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="958">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2860,10 +2860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大木盾：回合结束时，获得4点物理护盾和4点元素护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大木盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2876,10 +2872,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>庇护：穿戴者任一类型的护盾被击碎时，为其他队友提供1物理护盾和1元素护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注：护盾被击碎的判断：被攻击时有对应伤害类型的护盾，被攻击后没有相应类型的护盾，则护盾被击碎了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2952,10 +2944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盾形守护：使用一个技能时，获得2物理护盾和2元素护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重钢盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2984,10 +2972,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钢制盾：回合结束时，获得4物理护盾和3元素护盾，额外受到30%火元素伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔力溢出：受到生命值伤害后，为所有队员回复35%等同于伤害数额的法力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3008,18 +2992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝色重型铠甲：战斗开始时，获得10元素护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色重型铠甲：战斗开始时，获得10物理护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨型铠甲：战斗开始时，获得20物理护盾和20元素护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超大体积：穿戴者的其他队友被敌人选中为目标时，有35%的概率将目标转为穿戴者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3029,10 +3001,6 @@
   </si>
   <si>
     <t>熔炉大锅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚实锅底：回合结束时，获得3物理护盾、3元素护盾和3纯净护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3219,10 +3187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>庇护：战斗开始时，所有队员获得10纯净护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大生命值+30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3683,10 +3647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寒霜：回合结束时，获得3点元素护盾。冻结敌人时，获得3点元素护盾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>迷幻戒指</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4064,6 +4024,42 @@
   </si>
   <si>
     <t>痛苦灼烧：每回合开始时，以300%的基础概率获得1回合灼烧效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大木盾：回合结束时，获得6点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护：穿戴者的护盾被击碎时，为其他队友提供1护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型铠甲：战斗开始时，获得10护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾形守护：使用一个技能时，获得3护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢制盾：回合结束时，获得7护盾。额外受到30%火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨型铠甲：战斗开始时，获得30护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚实锅底：回合结束时，获得3护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护：战斗开始时，所有队员获得18护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜：回合结束时，获得3点护盾。冻结敌人时，获得3点护盾。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4779,7 +4775,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4816,7 +4812,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4842,7 +4838,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -4868,7 +4864,7 @@
         <v>548</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>51</v>
@@ -4895,7 +4891,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
@@ -4923,7 +4919,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>49</v>
@@ -4984,7 +4980,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>92</v>
@@ -5214,7 +5210,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -5241,7 +5237,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>90</v>
@@ -5336,7 +5332,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>16</v>
@@ -5362,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>111</v>
@@ -5415,16 +5411,16 @@
         <v>688</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>118</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5444,7 +5440,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>129</v>
@@ -5498,7 +5494,7 @@
         <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -5516,16 +5512,16 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6009,7 +6005,7 @@
         <v>216</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6117,7 +6113,7 @@
         <v>402</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>215</v>
@@ -6159,7 +6155,7 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>221</v>
@@ -6347,7 +6343,7 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6846,7 +6842,7 @@
         <v>358</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7128,7 +7124,7 @@
         <v>330</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7154,7 +7150,7 @@
         <v>322</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7176,7 +7172,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7243,7 +7239,7 @@
         <v>342</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7436,7 +7432,7 @@
         <v>392</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
@@ -7637,7 +7633,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7661,7 +7657,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7860,7 +7856,7 @@
         <v>540</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7886,7 +7882,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8040,7 +8036,7 @@
         <v>480</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>482</v>
@@ -8227,7 +8223,7 @@
         <v>485</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8336,7 +8332,7 @@
         <v>503</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8522,7 +8518,7 @@
         <v>551</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8644,7 +8640,7 @@
         <v>424</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
@@ -8673,7 +8669,7 @@
         <v>557</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9086,7 +9082,7 @@
         <v>607</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9398,7 +9394,7 @@
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9423,7 +9419,7 @@
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9505,7 +9501,7 @@
         <v>654</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="J92" s="40" t="s">
         <v>658</v>
@@ -9628,8 +9624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435AAE1-9F57-4850-8F7E-AD1C028C80E4}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:B89"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9685,7 +9681,7 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9732,7 +9728,7 @@
         <v>675</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
@@ -9747,7 +9743,7 @@
         <v>542</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9755,7 +9751,7 @@
         <v>676</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -9767,7 +9763,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -9779,7 +9775,7 @@
         <v>680</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
@@ -9789,7 +9785,7 @@
         <v>691</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>542</v>
@@ -9798,7 +9794,7 @@
         <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>692</v>
+        <v>949</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9806,7 +9802,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -9818,16 +9814,16 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>695</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9835,7 +9831,7 @@
         <v>677</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -9847,16 +9843,16 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>730</v>
+        <v>951</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9864,7 +9860,7 @@
         <v>678</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -9876,19 +9872,19 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>729</v>
+        <v>951</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9896,7 +9892,7 @@
         <v>679</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -9919,7 +9915,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -9937,7 +9933,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>715</v>
+        <v>952</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9945,7 +9941,7 @@
         <v>681</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -9960,7 +9956,7 @@
         <v>314</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>723</v>
+        <v>953</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9968,7 +9964,7 @@
         <v>682</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -9980,13 +9976,13 @@
         <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9994,7 +9990,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
@@ -10010,7 +10006,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -10019,7 +10015,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
@@ -10035,10 +10031,10 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="K16" s="13"/>
     </row>
@@ -10047,7 +10043,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -10059,16 +10055,16 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>731</v>
+        <v>954</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10076,29 +10072,29 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>737</v>
+        <v>54</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>735</v>
+        <v>955</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10106,7 +10102,7 @@
         <v>683</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -10124,7 +10120,7 @@
         <v>538</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10132,7 +10128,7 @@
         <v>684</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
@@ -10144,10 +10140,10 @@
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="J20" s="19"/>
     </row>
@@ -10156,7 +10152,7 @@
         <v>685</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
@@ -10166,22 +10162,22 @@
         <v>691</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>688</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -10193,16 +10189,16 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>476</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>747</v>
+        <v>956</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10224,7 +10220,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>75</v>
@@ -10234,19 +10230,19 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>201</v>
@@ -10256,19 +10252,19 @@
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>201</v>
@@ -10278,35 +10274,35 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
@@ -10321,19 +10317,19 @@
         <v>492</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>65</v>
@@ -10342,21 +10338,21 @@
         <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>79</v>
@@ -10365,52 +10361,52 @@
         <v>504</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="I32" s="39" t="s">
         <v>758</v>
-      </c>
-      <c r="I32" s="39" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
@@ -10422,22 +10418,22 @@
         <v>201</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="39" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>65</v>
@@ -10446,19 +10442,19 @@
         <v>653</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
@@ -10467,39 +10463,39 @@
         <v>504</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>515</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="39" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>70</v>
@@ -10509,27 +10505,27 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="39" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="J38" s="40"/>
     </row>
@@ -10548,10 +10544,10 @@
     </row>
     <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -10567,10 +10563,10 @@
     </row>
     <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -10586,10 +10582,10 @@
     </row>
     <row r="42" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -10616,10 +10612,10 @@
     </row>
     <row r="44" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10629,10 +10625,10 @@
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10642,10 +10638,10 @@
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10655,19 +10651,19 @@
     </row>
     <row r="47" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10676,7 +10672,7 @@
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>350</v>
@@ -10694,7 +10690,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="8" t="s">
@@ -10711,18 +10707,18 @@
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="13" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
@@ -10738,15 +10734,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
@@ -10764,15 +10760,15 @@
         <v>538</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
@@ -10788,7 +10784,7 @@
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10796,7 +10792,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
@@ -10805,25 +10801,25 @@
         <v>691</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -10835,24 +10831,24 @@
         <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>225</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
@@ -10864,21 +10860,21 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
@@ -10896,7 +10892,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10904,7 +10900,7 @@
         <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
@@ -10913,25 +10909,25 @@
         <v>691</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>119</v>
@@ -10943,25 +10939,25 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="19" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -10982,17 +10978,17 @@
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>83</v>
@@ -11002,18 +10998,18 @@
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
@@ -11031,22 +11027,22 @@
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>65</v>
@@ -11056,22 +11052,22 @@
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>136</v>
@@ -11081,21 +11077,21 @@
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>79</v>
@@ -11105,19 +11101,19 @@
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>79</v>
@@ -11127,18 +11123,18 @@
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>142</v>
@@ -11150,12 +11146,12 @@
         <v>503</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11174,10 +11170,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11191,10 +11187,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11219,10 +11215,10 @@
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11232,10 +11228,10 @@
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11245,10 +11241,10 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11271,7 +11267,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
@@ -11290,15 +11286,15 @@
         <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>863</v>
+        <v>957</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
+        <v>845</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>854</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>864</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
@@ -11314,15 +11310,15 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
@@ -11337,10 +11333,10 @@
         <v>195</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11348,7 +11344,7 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
@@ -11358,14 +11354,14 @@
         <v>691</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="13" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11373,7 +11369,7 @@
         <v>409</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>23</v>
@@ -11391,16 +11387,16 @@
         <v>117</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
@@ -11415,15 +11411,15 @@
         <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
@@ -11444,7 +11440,7 @@
         <v>20</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11452,7 +11448,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>119</v>
@@ -11464,13 +11460,13 @@
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="H89" s="34" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11483,7 +11479,6 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -11491,10 +11486,10 @@
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>586</v>
@@ -11503,7 +11498,7 @@
         <v>18</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>65</v>
@@ -11512,18 +11507,18 @@
         <v>485</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>586</v>
@@ -11532,7 +11527,7 @@
         <v>18</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>65</v>
@@ -11544,7 +11539,7 @@
         <v>589</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11552,13 +11547,13 @@
         <v>44</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>79</v>
@@ -11567,7 +11562,7 @@
         <v>247</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11575,7 +11570,7 @@
         <v>168</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>586</v>
@@ -11584,7 +11579,7 @@
         <v>23</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>254</v>
@@ -11593,24 +11588,24 @@
         <v>504</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>136</v>
@@ -11619,22 +11614,22 @@
         <v>247</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>136</v>
@@ -11644,22 +11639,22 @@
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>144</v>
@@ -11668,15 +11663,15 @@
         <v>654</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>156</v>
@@ -11686,19 +11681,19 @@
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="6" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11716,7 +11711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34F6C13-3D4E-44B8-B567-3A7F2FD297A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
@@ -11733,7 +11728,7 @@
   <dimension ref="B3:H22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11750,28 +11745,28 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F5" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="E8" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -11786,7 +11781,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -11801,7 +11796,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -11832,7 +11827,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="C13" s="51">
         <v>5</v>
@@ -11874,7 +11869,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="C16" s="51">
         <v>8</v>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E137342-8F45-4184-B76E-3E03F353B600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C7F05-A1C5-4815-94C0-C428535EA49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="990">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3795,46 +3795,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>威力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击的威力=10（0法力消耗），每额外消耗1点法力值，威力有提升，但会有边际效应，单点法力值提供的威力递减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数长-低法力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数短-高法力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战后回复和回合回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单点威力收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10伤害=8护盾=3生命回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制=10伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1攻击属性=5暴击=4暴伤=5血=2蓝=1回合蓝=1回合护盾=1速度=4元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4060,6 +4020,174 @@
   </si>
   <si>
     <t>寒霜：回合结束时，获得3点护盾。冻结敌人时，获得3点护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每点法力消耗价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP RECOVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得护盾效益：0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复生命效益：0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级技能的收益：2点法力消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷施法的价值：10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性价值：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP RE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1% DMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6白3蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2白8蓝2紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6蓝4紫2橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得装备价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能的金币价值：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1价值对应金币数额：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单事件期望金币：100/125/150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段总价值：240/540/800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4268,7 +4396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4387,6 +4515,11 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4724,7 +4857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
@@ -4775,7 +4908,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4812,7 +4945,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4838,7 +4971,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -4864,7 +4997,7 @@
         <v>548</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>51</v>
@@ -4891,7 +5024,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
@@ -4919,7 +5052,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>49</v>
@@ -5332,7 +5465,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>16</v>
@@ -5358,7 +5491,7 @@
         <v>621</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>111</v>
@@ -5411,7 +5544,7 @@
         <v>688</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>118</v>
@@ -5440,7 +5573,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>129</v>
@@ -5494,7 +5627,7 @@
         <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -5512,16 +5645,16 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6005,7 +6138,7 @@
         <v>216</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6113,7 +6246,7 @@
         <v>402</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>215</v>
@@ -6155,7 +6288,7 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>221</v>
@@ -6343,7 +6476,7 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6842,7 +6975,7 @@
         <v>358</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7124,7 +7257,7 @@
         <v>330</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7150,7 +7283,7 @@
         <v>322</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7172,7 +7305,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7239,7 +7372,7 @@
         <v>342</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7432,7 +7565,7 @@
         <v>392</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
@@ -7464,7 +7597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522A5DE-B616-4F04-8258-82ED6ADEEE2E}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
@@ -7633,7 +7766,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7657,7 +7790,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7856,7 +7989,7 @@
         <v>540</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7882,7 +8015,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8036,7 +8169,7 @@
         <v>480</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>482</v>
@@ -8223,7 +8356,7 @@
         <v>485</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8332,7 +8465,7 @@
         <v>503</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8518,7 +8651,7 @@
         <v>551</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8640,7 +8773,7 @@
         <v>424</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
@@ -8669,7 +8802,7 @@
         <v>557</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9082,7 +9215,7 @@
         <v>607</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9394,7 +9527,7 @@
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9419,7 +9552,7 @@
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9501,7 +9634,7 @@
         <v>654</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="J92" s="40" t="s">
         <v>658</v>
@@ -9624,7 +9757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435AAE1-9F57-4850-8F7E-AD1C028C80E4}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
@@ -9794,7 +9927,7 @@
         <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9820,7 +9953,7 @@
         <v>698</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>695</v>
@@ -9852,7 +9985,7 @@
         <v>702</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9881,7 +10014,7 @@
         <v>705</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>706</v>
@@ -9933,7 +10066,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9956,7 +10089,7 @@
         <v>314</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10061,7 +10194,7 @@
         <v>723</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>725</v>
@@ -10088,7 +10221,7 @@
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>730</v>
@@ -10198,7 +10331,7 @@
         <v>740</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10252,7 +10385,7 @@
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10338,7 +10471,7 @@
         <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10361,7 +10494,7 @@
         <v>504</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10381,7 +10514,7 @@
         <v>749</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10442,7 +10575,7 @@
         <v>653</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="J34" s="40"/>
     </row>
@@ -10615,7 +10748,7 @@
         <v>770</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10654,7 +10787,7 @@
         <v>775</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -10663,7 +10796,7 @@
         <v>782</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10998,7 +11131,7 @@
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="J64" s="19" t="s">
         <v>843</v>
@@ -11052,7 +11185,7 @@
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11123,7 +11256,7 @@
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11190,7 +11323,7 @@
         <v>844</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11286,7 +11419,7 @@
         <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11639,7 +11772,7 @@
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="13" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="J96" s="40"/>
     </row>
@@ -11725,201 +11858,478 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43048D8-64D3-4F2F-AA7D-7D0594B269EC}">
-  <dimension ref="B3:H22"/>
+  <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="6" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="12.375" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="13.375" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>893</v>
-      </c>
-      <c r="F5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>891</v>
-      </c>
-      <c r="E8" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C9">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2" t="s">
+        <v>741</v>
+      </c>
+      <c r="L2" t="s">
+        <v>970</v>
+      </c>
+      <c r="M2" t="s">
+        <v>984</v>
+      </c>
+      <c r="N2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="D9">
-        <f>10+C9*E9</f>
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C10">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3+10</f>
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>951</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>971</v>
+      </c>
+      <c r="M3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D18" si="0">10+C10*E10</f>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="0">A4*B4+10</f>
         <v>18</v>
       </c>
-      <c r="E10">
+      <c r="F4" t="s">
+        <v>952</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>972</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E11">
+      <c r="F5" t="s">
+        <v>954</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>981</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>973</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
+      <c r="B6">
+        <v>3.5</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="H12" s="50"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>898</v>
-      </c>
-      <c r="C13" s="51">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>955</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>974</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="B7">
+        <v>3.5</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>26.5</v>
-      </c>
-      <c r="E13">
-        <v>3.3</v>
-      </c>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C14">
+        <v>27.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>956</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>975</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="H14" s="50"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
+      <c r="B8">
+        <v>3.5</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="F8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>982</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>976</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3.3</v>
+      </c>
+      <c r="C9" s="50">
+        <f t="shared" si="0"/>
+        <v>33.099999999999994</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>977</v>
+      </c>
+      <c r="M9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
+      <c r="C10" s="50">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>978</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="K11" t="s">
+        <v>983</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>979</v>
+      </c>
+      <c r="M11">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="52"/>
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>957</v>
+      </c>
+      <c r="F14" t="s">
+        <v>961</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>958</v>
+      </c>
+      <c r="F15" t="s">
+        <v>954</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
       <c r="H15" s="50"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>897</v>
-      </c>
-      <c r="C16" s="51">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>31.6</v>
-      </c>
-      <c r="E16">
-        <v>2.7</v>
+      <c r="I15" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>959</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="F16" t="s">
+        <v>951</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
       </c>
       <c r="H16" s="50"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-      <c r="E17">
-        <v>2.5</v>
+      <c r="I16" t="s">
+        <v>964</v>
+      </c>
+      <c r="J16" t="s">
+        <v>965</v>
+      </c>
+      <c r="K16" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>960</v>
+      </c>
+      <c r="F17" t="s">
+        <v>952</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
       </c>
       <c r="H17" s="50"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18">
+      <c r="I17" t="s">
+        <v>966</v>
+      </c>
+      <c r="J17" s="53">
+        <v>15</v>
+      </c>
+      <c r="K17" s="53">
+        <f>5*J17</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>955</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" t="s">
+        <v>967</v>
+      </c>
+      <c r="J18" s="53">
+        <v>30</v>
+      </c>
+      <c r="K18" s="53">
+        <f t="shared" ref="K18:K20" si="1">5*J18</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>962</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" t="s">
+        <v>968</v>
+      </c>
+      <c r="J19" s="53">
+        <v>50</v>
+      </c>
+      <c r="K19" s="53">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>953</v>
+      </c>
+      <c r="G20">
         <v>10</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E18">
-        <v>2.5</v>
-      </c>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>969</v>
+      </c>
+      <c r="J20" s="53">
+        <v>75</v>
+      </c>
+      <c r="K20" s="53">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>963</v>
+      </c>
+      <c r="G21">
+        <v>0.2</v>
+      </c>
       <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H22" s="50"/>
+      <c r="I22" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C7F05-A1C5-4815-94C0-C428535EA49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE42E2E9-5A92-47CB-A64A-A4C4C698E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="992">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4188,6 +4188,14 @@
   </si>
   <si>
     <t>阶段总价值：240/540/800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆弱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4396,7 +4404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4515,7 +4523,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4857,8 +4864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11861,7 +11868,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11932,7 +11939,7 @@
       <c r="I3">
         <v>8</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="53" t="s">
         <v>971</v>
       </c>
       <c r="M3">
@@ -11962,7 +11969,7 @@
       <c r="I4">
         <v>8</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="53" t="s">
         <v>972</v>
       </c>
       <c r="M4">
@@ -11995,7 +12002,7 @@
       <c r="K5" t="s">
         <v>981</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="53" t="s">
         <v>973</v>
       </c>
       <c r="M5">
@@ -12028,7 +12035,7 @@
       <c r="I6">
         <v>10</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="53" t="s">
         <v>974</v>
       </c>
       <c r="M6">
@@ -12058,7 +12065,7 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="53" t="s">
         <v>975</v>
       </c>
       <c r="M7">
@@ -12083,15 +12090,15 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" t="s">
         <v>982</v>
       </c>
-      <c r="L8" s="54" t="s">
+      <c r="L8" s="53" t="s">
         <v>976</v>
       </c>
       <c r="M8">
@@ -12112,7 +12119,7 @@
         <f t="shared" si="0"/>
         <v>33.099999999999994</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="53" t="s">
         <v>977</v>
       </c>
       <c r="M9">
@@ -12130,7 +12137,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="L10" s="53" t="s">
         <v>978</v>
       </c>
       <c r="M10">
@@ -12152,7 +12159,7 @@
       <c r="K11" t="s">
         <v>983</v>
       </c>
-      <c r="L11" s="54" t="s">
+      <c r="L11" s="53" t="s">
         <v>979</v>
       </c>
       <c r="M11">
@@ -12176,7 +12183,7 @@
       <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C13" s="52"/>
+      <c r="C13" s="50"/>
       <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -12242,10 +12249,10 @@
       <c r="I17" t="s">
         <v>966</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="52">
         <v>15</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="52">
         <f>5*J17</f>
         <v>75</v>
       </c>
@@ -12261,10 +12268,10 @@
       <c r="I18" t="s">
         <v>967</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="52">
         <v>30</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="52">
         <f t="shared" ref="K18:K20" si="1">5*J18</f>
         <v>150</v>
       </c>
@@ -12280,10 +12287,10 @@
       <c r="I19" t="s">
         <v>968</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="52">
         <v>50</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="52">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
@@ -12293,16 +12300,16 @@
         <v>953</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H20" s="50"/>
       <c r="I20" t="s">
         <v>969</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="52">
         <v>75</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="52">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
@@ -12325,11 +12332,25 @@
         <v>989</v>
       </c>
     </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>990</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L24" s="54"/>
+      <c r="F24" t="s">
+        <v>991</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L25" s="54"/>
+      <c r="L25" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装备、技能、遗物和道具.xlsx
+++ b/装备、技能、遗物和道具.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE42E2E9-5A92-47CB-A64A-A4C4C698E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A7E87-4967-4F04-8107-063924790A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="991">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1661,10 +1661,6 @@
   </si>
   <si>
     <t>伤害：0.15力量加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潮湿效果：1水属性加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4864,8 +4860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4915,7 +4911,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4952,7 +4948,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4978,7 +4974,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -5001,10 +4997,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>51</v>
@@ -5031,7 +5027,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
@@ -5059,7 +5055,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>49</v>
@@ -5089,7 +5085,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>132</v>
@@ -5114,13 +5110,13 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>92</v>
@@ -5146,7 +5142,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
@@ -5167,7 +5163,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5182,7 +5178,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -5350,7 +5346,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -5377,7 +5373,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>90</v>
@@ -5472,7 +5468,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>16</v>
@@ -5495,10 +5491,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>111</v>
@@ -5548,19 +5544,19 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>118</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5580,7 +5576,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>129</v>
@@ -5628,13 +5624,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -5652,16 +5648,16 @@
         <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5961,13 +5957,13 @@
         <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>188</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -5989,7 +5985,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>191</v>
@@ -6045,7 +6041,7 @@
         <v>177</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>198</v>
@@ -6145,7 +6141,7 @@
         <v>216</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6249,11 +6245,9 @@
       <c r="G60" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>402</v>
-      </c>
+      <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>215</v>
@@ -6295,7 +6289,7 @@
         <v>31</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>221</v>
@@ -6377,7 +6371,7 @@
         <v>220</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>233</v>
@@ -6426,7 +6420,7 @@
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J67" s="12"/>
     </row>
@@ -6454,7 +6448,7 @@
         <v>117</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6483,7 +6477,7 @@
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6976,13 +6970,13 @@
         <v>31</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>358</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7002,7 +6996,7 @@
         <v>54</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>363</v>
@@ -7264,7 +7258,7 @@
         <v>330</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7290,7 +7284,7 @@
         <v>322</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7312,7 +7306,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7379,7 +7373,7 @@
         <v>342</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7572,7 +7566,7 @@
         <v>392</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="6" t="s">
@@ -7584,7 +7578,7 @@
         <v>393</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G131" s="18" t="s">
         <v>153</v>
@@ -7626,7 +7620,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7661,12 +7655,12 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>350</v>
@@ -7684,14 +7678,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
@@ -7706,58 +7700,58 @@
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -7773,7 +7767,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7781,7 +7775,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -7797,47 +7791,47 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>195</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>224</v>
@@ -7849,15 +7843,15 @@
         <v>177</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -7880,7 +7874,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -7895,7 +7889,7 @@
         <v>386</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7903,7 +7897,7 @@
         <v>168</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -7918,15 +7912,15 @@
         <v>386</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -7941,36 +7935,36 @@
         <v>185</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7978,7 +7972,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
@@ -7993,10 +7987,10 @@
         <v>117</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8004,7 +7998,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -8022,15 +8016,15 @@
         <v>20</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
@@ -8042,73 +8036,73 @@
         <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>462</v>
-      </c>
       <c r="I18" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>464</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I20" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>468</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
@@ -8121,21 +8115,21 @@
         <v>54</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>111</v>
       </c>
       <c r="I21" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>471</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -8147,42 +8141,42 @@
         <v>28</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I22" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>473</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="G23" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>480</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>935</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8199,78 +8193,78 @@
     </row>
     <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>136</v>
@@ -8282,32 +8276,32 @@
         <v>206</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
@@ -8320,75 +8314,75 @@
         <v>136</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
@@ -8400,84 +8394,84 @@
         <v>254</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="J35" s="40" t="s">
         <v>508</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>507</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>23</v>
@@ -8489,36 +8483,36 @@
         <v>70</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8534,10 +8528,10 @@
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>518</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>519</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8547,10 +8541,10 @@
     </row>
     <row r="42" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>520</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>521</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8560,10 +8554,10 @@
     </row>
     <row r="43" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>522</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>523</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8576,7 +8570,7 @@
     </row>
     <row r="45" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>350</v>
@@ -8594,7 +8588,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -8607,40 +8601,40 @@
         <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>13</v>
@@ -8652,21 +8646,21 @@
         <v>54</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="8" t="s">
@@ -8679,11 +8673,11 @@
         <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8691,7 +8685,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8" t="s">
@@ -8704,18 +8698,18 @@
         <v>54</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>18</v>
@@ -8727,19 +8721,19 @@
         <v>28</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>18</v>
@@ -8751,42 +8745,42 @@
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>555</v>
-      </c>
       <c r="I52" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="G53" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8794,7 +8788,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>23</v>
@@ -8806,88 +8800,88 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="I55" s="13" t="s">
         <v>559</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G56" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>562</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="J57" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>566</v>
-      </c>
       <c r="K57" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8895,57 +8889,57 @@
         <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>125</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>351</v>
@@ -8960,44 +8954,44 @@
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>247</v>
@@ -9006,12 +9000,12 @@
         <v>206</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>377</v>
@@ -9021,30 +9015,30 @@
         <v>18</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F63" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="G63" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="H63" s="13" t="s">
+      <c r="I63" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>590</v>
-      </c>
       <c r="J63" s="40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>18</v>
@@ -9056,109 +9050,109 @@
         <v>75</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I66" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="J66" s="40" t="s">
         <v>595</v>
-      </c>
-      <c r="J66" s="40" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>206</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9174,10 +9168,10 @@
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>605</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>606</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -9191,10 +9185,10 @@
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>603</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>604</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -9219,10 +9213,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9232,10 +9226,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>608</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>609</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -9245,12 +9239,12 @@
     </row>
     <row r="76" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>350</v>
@@ -9268,7 +9262,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="8" t="s">
@@ -9281,47 +9275,47 @@
         <v>28</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>18</v>
@@ -9333,16 +9327,16 @@
         <v>54</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9350,7 +9344,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -9367,47 +9361,47 @@
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H82" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="I82" s="13" t="s">
         <v>638</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>54</v>
@@ -9416,15 +9410,15 @@
         <v>358</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>23</v>
@@ -9436,16 +9430,16 @@
         <v>28</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H84" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="J84" s="13" t="s">
         <v>644</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="J84" s="13" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9453,29 +9447,29 @@
         <v>43</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>351</v>
@@ -9490,51 +9484,51 @@
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9542,65 +9536,65 @@
         <v>44</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="J90" s="40" t="s">
         <v>655</v>
-      </c>
-      <c r="J90" s="40" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
@@ -9615,112 +9609,112 @@
         <v>247</v>
       </c>
       <c r="I91" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="J91" s="40" t="s">
         <v>660</v>
-      </c>
-      <c r="J91" s="40" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>341</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="39" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J95" s="40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9731,26 +9725,26 @@
     </row>
     <row r="97" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>632</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>666</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -9786,7 +9780,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9821,12 +9815,12 @@
     </row>
     <row r="2" spans="1:11" s="37" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>350</v>
@@ -9844,14 +9838,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
@@ -9860,15 +9854,15 @@
         <v>177</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
@@ -9880,18 +9874,18 @@
         <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -9903,7 +9897,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -9912,29 +9906,29 @@
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9942,7 +9936,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -9954,24 +9948,24 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>694</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>940</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -9983,24 +9977,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -10012,27 +10006,27 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>314</v>
       </c>
       <c r="I10" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>705</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -10047,7 +10041,7 @@
         <v>225</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10055,7 +10049,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -10067,27 +10061,27 @@
         <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>224</v>
@@ -10096,15 +10090,15 @@
         <v>314</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -10116,13 +10110,13 @@
         <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10130,23 +10124,23 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -10155,26 +10149,26 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>720</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>721</v>
       </c>
       <c r="K16" s="13"/>
     </row>
@@ -10183,7 +10177,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -10195,16 +10189,16 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>722</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>724</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>723</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>944</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10212,37 +10206,37 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
@@ -10257,18 +10251,18 @@
         <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>23</v>
@@ -10280,44 +10274,44 @@
         <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>733</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>734</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>119</v>
@@ -10329,16 +10323,16 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>740</v>
-      </c>
       <c r="J22" s="13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10355,12 +10349,12 @@
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>75</v>
@@ -10370,79 +10364,79 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
@@ -10454,22 +10448,22 @@
         <v>65</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>65</v>
@@ -10478,75 +10472,75 @@
         <v>100</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>754</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>755</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>18</v>
@@ -10558,84 +10552,84 @@
         <v>201</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>254</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>70</v>
@@ -10645,27 +10639,27 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J38" s="40"/>
     </row>
@@ -10684,10 +10678,10 @@
     </row>
     <row r="40" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -10703,10 +10697,10 @@
     </row>
     <row r="41" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -10722,10 +10716,10 @@
     </row>
     <row r="42" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -10752,10 +10746,10 @@
     </row>
     <row r="44" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10765,10 +10759,10 @@
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>771</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>772</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10778,10 +10772,10 @@
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>773</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>774</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10791,19 +10785,19 @@
     </row>
     <row r="47" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -10812,7 +10806,7 @@
     </row>
     <row r="50" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>350</v>
@@ -10830,35 +10824,35 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8" t="s">
@@ -10874,15 +10868,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
@@ -10897,18 +10891,18 @@
         <v>121</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
@@ -10920,11 +10914,11 @@
         <v>54</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10932,34 +10926,34 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>23</v>
@@ -10971,24 +10965,24 @@
         <v>31</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>225</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>23</v>
@@ -11000,21 +10994,21 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="J57" s="40" t="s">
         <v>814</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>833</v>
-      </c>
-      <c r="J57" s="40" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>23</v>
@@ -11032,7 +11026,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11040,34 +11034,34 @@
         <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>119</v>
@@ -11079,25 +11073,25 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -11118,17 +11112,17 @@
     </row>
     <row r="64" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>83</v>
@@ -11138,18 +11132,18 @@
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
@@ -11167,131 +11161,131 @@
         <v>89</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="39" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11310,10 +11304,10 @@
     </row>
     <row r="74" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>841</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>842</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11327,10 +11321,10 @@
     </row>
     <row r="75" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11355,10 +11349,10 @@
     </row>
     <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>796</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>797</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11368,10 +11362,10 @@
     </row>
     <row r="78" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>798</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>799</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11381,15 +11375,15 @@
     </row>
     <row r="79" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>836</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>350</v>
@@ -11407,34 +11401,34 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>176</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>18</v>
@@ -11450,15 +11444,15 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>18</v>
@@ -11473,10 +11467,10 @@
         <v>195</v>
       </c>
       <c r="H84" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="I84" s="7" t="s">
         <v>861</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11484,32 +11478,32 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>23</v>
@@ -11527,16 +11521,16 @@
         <v>117</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>23</v>
@@ -11551,15 +11545,15 @@
         <v>26</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>23</v>
@@ -11571,16 +11565,16 @@
         <v>28</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11588,7 +11582,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>119</v>
@@ -11600,13 +11594,13 @@
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>865</v>
+      </c>
+      <c r="I89" s="7" t="s">
         <v>864</v>
-      </c>
-      <c r="H89" s="34" t="s">
-        <v>866</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11626,48 +11620,48 @@
     </row>
     <row r="91" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>741</v>
+      